--- a/Documentacion/Proyecto/Cronograma JANFOX.xlsx
+++ b/Documentacion/Proyecto/Cronograma JANFOX.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Ing. Software\IX Semestre\TRABAJO DE GRADO DE INVESTIGACIÓN\Proyecto_videoJuego\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Videojuego\JanFox_V2\Documentacion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF083C6-FBA0-4B92-8F30-074A6743C911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma general" sheetId="1" r:id="rId1"/>
@@ -449,7 +450,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,12 +545,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1279,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1539,72 +1534,6 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1614,15 +1543,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -1634,40 +1554,6 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,13 +1716,928 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="185">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2027,7 +2828,37 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2052,12 +2883,196 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -2067,154 +3082,32 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2910,922 +3803,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3840,8 +3817,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla35" displayName="Tabla35" ref="B6:K20" totalsRowShown="0" headerRowDxfId="184" headerRowBorderDxfId="183" tableBorderDxfId="182" totalsRowBorderDxfId="181">
-  <autoFilter ref="B6:K20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla35" displayName="Tabla35" ref="B6:K20" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+  <autoFilter ref="B6:K20" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3854,24 +3831,24 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="180"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="179"/>
-    <tableColumn id="3" name="Estimación" dataDxfId="178"/>
-    <tableColumn id="4" name="Desarrollo" dataDxfId="177"/>
-    <tableColumn id="11" name="Pruebas Funcionales" dataDxfId="176"/>
-    <tableColumn id="6" name="Estado" dataDxfId="175"/>
-    <tableColumn id="7" name="Aprobado" dataDxfId="174"/>
-    <tableColumn id="8" name="Tiempo Inicio" dataDxfId="173"/>
-    <tableColumn id="9" name="Tiempo Fin" dataDxfId="172"/>
-    <tableColumn id="10" name="Progreso %" dataDxfId="171"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Historia de usuario" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Responsable " dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimación" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Desarrollo" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Pruebas Funcionales" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Estado" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aprobado" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tiempo Inicio" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tiempo Fin" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Progreso %" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B11:K18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="170" tableBorderDxfId="169" totalsRowBorderDxfId="168">
-  <autoFilter ref="B11:K18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla3" displayName="Tabla3" ref="B11:K18" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+  <autoFilter ref="B11:K18" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3884,24 +3861,24 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="23"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="22"/>
-    <tableColumn id="3" name="Estimación Horas" dataDxfId="21"/>
-    <tableColumn id="4" name="Desarrollo" dataDxfId="20"/>
-    <tableColumn id="5" name="Pruebas Funcionales" dataDxfId="19"/>
-    <tableColumn id="6" name="Estado" dataDxfId="18"/>
-    <tableColumn id="7" name="Aprobado" dataDxfId="17"/>
-    <tableColumn id="8" name="Tiempo Inicio" dataDxfId="16"/>
-    <tableColumn id="9" name="Tiempo Fin" dataDxfId="15"/>
-    <tableColumn id="10" name="Progreso %" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Historia de usuario" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Responsable " dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimación Horas" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Desarrollo" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Pruebas Funcionales" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Estado" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Aprobado" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tiempo Inicio" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tiempo Fin" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Progreso %" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla36" displayName="Tabla36" ref="B23:K29" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="167" tableBorderDxfId="166" totalsRowBorderDxfId="165">
-  <autoFilter ref="B23:K29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla36" displayName="Tabla36" ref="B23:K29" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="B23:K29" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3914,88 +3891,88 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="11"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="10"/>
-    <tableColumn id="3" name="Estimación Horas" dataDxfId="9"/>
-    <tableColumn id="4" name="Desarrollo" dataDxfId="8"/>
-    <tableColumn id="5" name="Pruebas Funcionales" dataDxfId="7"/>
-    <tableColumn id="6" name="Estado" dataDxfId="6"/>
-    <tableColumn id="7" name="Aprobado" dataDxfId="5"/>
-    <tableColumn id="8" name="Tiempo Inicio" dataDxfId="4"/>
-    <tableColumn id="9" name="Tiempo Fin" dataDxfId="3"/>
-    <tableColumn id="10" name="Progreso %" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Historia de usuario" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Responsable " dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Estimación Horas" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Desarrollo" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Pruebas Funcionales" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Estado" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Aprobado" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Tiempo Inicio" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tiempo Fin" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Progreso %" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla36711" displayName="Tabla36711" ref="B9:D21" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163" tableBorderDxfId="162" totalsRowBorderDxfId="161">
-  <autoFilter ref="B9:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla36711" displayName="Tabla36711" ref="B9:D21" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+  <autoFilter ref="B9:D21" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="160"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="159"/>
-    <tableColumn id="6" name="Estado" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Historia de usuario" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Responsable " dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Estado" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla3671112" displayName="Tabla3671112" ref="B9:D13" totalsRowShown="0" headerRowDxfId="157" headerRowBorderDxfId="156" tableBorderDxfId="155" totalsRowBorderDxfId="154">
-  <autoFilter ref="B9:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla3671112" displayName="Tabla3671112" ref="B9:D13" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <autoFilter ref="B9:D13" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="153"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="145"/>
-    <tableColumn id="6" name="Estado" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Historia de usuario" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Responsable " dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Estado" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla367111213" displayName="Tabla367111213" ref="B9:D12" totalsRowShown="0" headerRowDxfId="152" headerRowBorderDxfId="150" tableBorderDxfId="151" totalsRowBorderDxfId="149">
-  <autoFilter ref="B9:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla367111213" displayName="Tabla367111213" ref="B9:D12" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="B9:D12" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="148"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="147"/>
-    <tableColumn id="6" name="Estado" dataDxfId="146"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Historia de usuario" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Responsable " dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Estado" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla36711121314" displayName="Tabla36711121314" ref="B9:D15" totalsRowShown="0" headerRowDxfId="143" headerRowBorderDxfId="141" tableBorderDxfId="142" totalsRowBorderDxfId="140">
-  <autoFilter ref="B9:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla36711121314" displayName="Tabla36711121314" ref="B9:D15" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="B9:D15" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="139"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="138"/>
-    <tableColumn id="6" name="Estado" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Historia de usuario" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Responsable " dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Estado" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla36711121315" displayName="Tabla36711121315" ref="B9:D19" totalsRowShown="0" headerRowDxfId="136" headerRowBorderDxfId="134" tableBorderDxfId="135" totalsRowBorderDxfId="133">
-  <autoFilter ref="B9:D19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla36711121315" displayName="Tabla36711121315" ref="B9:D19" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B9:D19" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="131"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="130"/>
-    <tableColumn id="6" name="Estado" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Historia de usuario" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Responsable " dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Estado" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla3671112131516" displayName="Tabla3671112131516" ref="B9:D15" totalsRowShown="0" headerRowDxfId="129" headerRowBorderDxfId="127" tableBorderDxfId="128" totalsRowBorderDxfId="126">
-  <autoFilter ref="B9:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla3671112131516" displayName="Tabla3671112131516" ref="B9:D15" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="B9:D15" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Historia de usuario" dataDxfId="125"/>
-    <tableColumn id="2" name="Responsable " dataDxfId="124"/>
-    <tableColumn id="6" name="Estado" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Historia de usuario" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Responsable " dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4297,31 +4274,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:QO94"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="49.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" style="92" customWidth="1"/>
-    <col min="8" max="10" width="7.7265625" customWidth="1"/>
-    <col min="11" max="25" width="7.7265625" style="2" customWidth="1"/>
-    <col min="26" max="40" width="7.7265625" style="11" customWidth="1"/>
-    <col min="41" max="75" width="7.7265625" style="2" customWidth="1"/>
-    <col min="76" max="97" width="2.7265625" style="52"/>
-    <col min="98" max="16384" width="2.7265625" style="2"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="25" width="7.7109375" style="2" customWidth="1"/>
+    <col min="26" max="40" width="7.7109375" style="11" customWidth="1"/>
+    <col min="41" max="75" width="7.7109375" style="2" customWidth="1"/>
+    <col min="76" max="97" width="2.7109375" style="52"/>
+    <col min="98" max="16384" width="2.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:457" s="11" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:457" s="11" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="22"/>
       <c r="C1" s="23"/>
       <c r="D1" s="22"/>
@@ -4420,7 +4399,7 @@
       <c r="CS1" s="52"/>
       <c r="CT1" s="20"/>
     </row>
-    <row r="2" spans="1:457" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:457" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="73"/>
       <c r="C2" s="8"/>
@@ -4454,7 +4433,7 @@
       <c r="CR2" s="52"/>
       <c r="CS2" s="52"/>
     </row>
-    <row r="3" spans="1:457" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:457" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
       <c r="B3" s="76"/>
       <c r="C3" s="77"/>
@@ -4462,20 +4441,20 @@
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
       <c r="G3" s="86"/>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="111"/>
+      <c r="I3" s="195"/>
       <c r="J3" s="69"/>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="111"/>
+      <c r="L3" s="195"/>
       <c r="M3" s="72"/>
-      <c r="N3" s="112" t="s">
+      <c r="N3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="112"/>
+      <c r="O3" s="196"/>
       <c r="P3" s="62"/>
       <c r="BX3" s="79"/>
       <c r="BY3" s="80"/>
@@ -4500,7 +4479,7 @@
       <c r="CR3" s="80"/>
       <c r="CS3" s="80"/>
     </row>
-    <row r="4" spans="1:457" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:457" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
@@ -4534,12 +4513,12 @@
       <c r="CR4" s="52"/>
       <c r="CS4" s="52"/>
     </row>
-    <row r="5" spans="1:457" s="18" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:457" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="188" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="68" t="s">
@@ -4548,114 +4527,114 @@
       <c r="E5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115" t="s">
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115" t="s">
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115" t="s">
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115" t="s">
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115" t="s">
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115" t="s">
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="179"/>
+      <c r="AF5" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115" t="s">
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="179"/>
+      <c r="AI5" s="179"/>
+      <c r="AJ5" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115" t="s">
+      <c r="AK5" s="179"/>
+      <c r="AL5" s="179"/>
+      <c r="AM5" s="179"/>
+      <c r="AN5" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115" t="s">
+      <c r="AO5" s="179"/>
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="179"/>
+      <c r="AR5" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115" t="s">
+      <c r="AS5" s="179"/>
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="179"/>
+      <c r="AV5" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115" t="s">
+      <c r="AW5" s="179"/>
+      <c r="AX5" s="179"/>
+      <c r="AY5" s="179"/>
+      <c r="AZ5" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="115"/>
-      <c r="BD5" s="115" t="s">
+      <c r="BA5" s="179"/>
+      <c r="BB5" s="179"/>
+      <c r="BC5" s="179"/>
+      <c r="BD5" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="BE5" s="115"/>
-      <c r="BF5" s="115"/>
-      <c r="BG5" s="115"/>
-      <c r="BH5" s="115" t="s">
+      <c r="BE5" s="179"/>
+      <c r="BF5" s="179"/>
+      <c r="BG5" s="179"/>
+      <c r="BH5" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="BI5" s="115"/>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="115" t="s">
+      <c r="BI5" s="179"/>
+      <c r="BJ5" s="179"/>
+      <c r="BK5" s="179"/>
+      <c r="BL5" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="115"/>
-      <c r="BP5" s="115" t="s">
+      <c r="BM5" s="179"/>
+      <c r="BN5" s="179"/>
+      <c r="BO5" s="179"/>
+      <c r="BP5" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="BQ5" s="115"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="115"/>
-      <c r="BT5" s="115" t="s">
+      <c r="BQ5" s="179"/>
+      <c r="BR5" s="179"/>
+      <c r="BS5" s="179"/>
+      <c r="BT5" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="115"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="130"/>
+      <c r="BU5" s="179"/>
+      <c r="BV5" s="179"/>
+      <c r="BW5" s="180"/>
       <c r="BX5" s="56"/>
       <c r="BY5" s="53"/>
       <c r="BZ5" s="53"/>
@@ -5039,14 +5018,14 @@
       <c r="QN5" s="3"/>
       <c r="QO5" s="17"/>
     </row>
-    <row r="6" spans="1:457" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:457" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="127"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="189"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="123"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="185"/>
       <c r="H6" s="51" t="s">
         <v>26</v>
       </c>
@@ -5274,9 +5253,9 @@
       <c r="CR6" s="54"/>
       <c r="CS6" s="54"/>
     </row>
-    <row r="7" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="199" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -5334,7 +5313,7 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
       <c r="AU7" s="66"/>
-      <c r="AV7" s="144"/>
+      <c r="AV7" s="119"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
       <c r="AY7" s="66"/>
@@ -5719,9 +5698,9 @@
       <c r="QI7" s="4"/>
       <c r="QJ7" s="4"/>
     </row>
-    <row r="8" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="200"/>
       <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
@@ -6162,9 +6141,9 @@
       <c r="QI8" s="4"/>
       <c r="QJ8" s="4"/>
     </row>
-    <row r="9" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="201" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6607,9 +6586,9 @@
       <c r="QI9" s="4"/>
       <c r="QJ9" s="4"/>
     </row>
-    <row r="10" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="119"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
@@ -7050,9 +7029,9 @@
       <c r="QI10" s="4"/>
       <c r="QJ10" s="4"/>
     </row>
-    <row r="11" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="119"/>
+      <c r="B11" s="181"/>
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
@@ -7493,9 +7472,9 @@
       <c r="QI11" s="4"/>
       <c r="QJ11" s="4"/>
     </row>
-    <row r="12" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
-      <c r="B12" s="119"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
@@ -7936,9 +7915,9 @@
       <c r="QI12" s="4"/>
       <c r="QJ12" s="4"/>
     </row>
-    <row r="13" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="119"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
@@ -8379,9 +8358,9 @@
       <c r="QI13" s="4"/>
       <c r="QJ13" s="4"/>
     </row>
-    <row r="14" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="119"/>
+      <c r="B14" s="181"/>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
@@ -8822,9 +8801,9 @@
       <c r="QI14" s="4"/>
       <c r="QJ14" s="4"/>
     </row>
-    <row r="15" spans="1:457" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:457" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="197" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -9267,9 +9246,9 @@
       <c r="QI15" s="4"/>
       <c r="QJ15" s="4"/>
     </row>
-    <row r="16" spans="1:457" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="114"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="48" t="s">
         <v>47</v>
       </c>
@@ -9332,10 +9311,10 @@
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
       <c r="BF16" s="4"/>
-      <c r="BG16" s="142"/>
-      <c r="BH16" s="143"/>
-      <c r="BI16" s="143"/>
-      <c r="BJ16" s="143"/>
+      <c r="BG16" s="117"/>
+      <c r="BH16" s="118"/>
+      <c r="BI16" s="118"/>
+      <c r="BJ16" s="118"/>
       <c r="BK16" s="66"/>
       <c r="BL16" s="4"/>
       <c r="BM16" s="4"/>
@@ -9706,9 +9685,9 @@
       <c r="QI16" s="4"/>
       <c r="QJ16" s="4"/>
     </row>
-    <row r="17" spans="1:452" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:452" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="192" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -10147,9 +10126,9 @@
       <c r="QI17" s="4"/>
       <c r="QJ17" s="4"/>
     </row>
-    <row r="18" spans="1:452" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
-      <c r="B18" s="140"/>
+      <c r="B18" s="193"/>
       <c r="C18" s="49" t="s">
         <v>50</v>
       </c>
@@ -10590,9 +10569,9 @@
       <c r="QI18" s="4"/>
       <c r="QJ18" s="4"/>
     </row>
-    <row r="19" spans="1:452" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="140"/>
+      <c r="B19" s="193"/>
       <c r="C19" s="49" t="s">
         <v>51</v>
       </c>
@@ -11029,9 +11008,9 @@
       <c r="QI19" s="4"/>
       <c r="QJ19" s="4"/>
     </row>
-    <row r="20" spans="1:452" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="140"/>
+      <c r="B20" s="193"/>
       <c r="C20" s="49" t="s">
         <v>119</v>
       </c>
@@ -11090,14 +11069,14 @@
       <c r="AZ20" s="8"/>
       <c r="BA20" s="69"/>
       <c r="BB20" s="69"/>
-      <c r="BC20" s="142"/>
-      <c r="BD20" s="143"/>
-      <c r="BE20" s="143"/>
-      <c r="BF20" s="143"/>
-      <c r="BG20" s="142"/>
-      <c r="BH20" s="143"/>
-      <c r="BI20" s="143"/>
-      <c r="BJ20" s="143"/>
+      <c r="BC20" s="117"/>
+      <c r="BD20" s="118"/>
+      <c r="BE20" s="118"/>
+      <c r="BF20" s="118"/>
+      <c r="BG20" s="117"/>
+      <c r="BH20" s="118"/>
+      <c r="BI20" s="118"/>
+      <c r="BJ20" s="118"/>
       <c r="BK20" s="66"/>
       <c r="BL20" s="4"/>
       <c r="BM20" s="4"/>
@@ -11468,9 +11447,9 @@
       <c r="QI20" s="4"/>
       <c r="QJ20" s="4"/>
     </row>
-    <row r="21" spans="1:452" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="140"/>
+      <c r="B21" s="193"/>
       <c r="C21" s="49" t="s">
         <v>55</v>
       </c>
@@ -11532,11 +11511,11 @@
       <c r="BC21" s="66"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
-      <c r="BF21" s="144"/>
-      <c r="BG21" s="142"/>
-      <c r="BH21" s="143"/>
-      <c r="BI21" s="143"/>
-      <c r="BJ21" s="144"/>
+      <c r="BF21" s="119"/>
+      <c r="BG21" s="117"/>
+      <c r="BH21" s="118"/>
+      <c r="BI21" s="118"/>
+      <c r="BJ21" s="119"/>
       <c r="BK21" s="66"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
@@ -11907,9 +11886,9 @@
       <c r="QI21" s="4"/>
       <c r="QJ21" s="4"/>
     </row>
-    <row r="22" spans="1:452" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="141"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="49" t="s">
         <v>56</v>
       </c>
@@ -11972,12 +11951,12 @@
       <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
       <c r="BF22" s="4"/>
-      <c r="BG22" s="145"/>
-      <c r="BH22" s="143"/>
-      <c r="BI22" s="143"/>
-      <c r="BJ22" s="143"/>
-      <c r="BK22" s="142"/>
-      <c r="BL22" s="144"/>
+      <c r="BG22" s="120"/>
+      <c r="BH22" s="118"/>
+      <c r="BI22" s="118"/>
+      <c r="BJ22" s="118"/>
+      <c r="BK22" s="117"/>
+      <c r="BL22" s="119"/>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
       <c r="BO22" s="66"/>
@@ -12346,9 +12325,9 @@
       <c r="QI22" s="4"/>
       <c r="QJ22" s="4"/>
     </row>
-    <row r="23" spans="1:452" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="181" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -12419,13 +12398,13 @@
       <c r="BF23" s="4"/>
       <c r="BG23" s="66"/>
       <c r="BH23" s="4"/>
-      <c r="BI23" s="144"/>
-      <c r="BJ23" s="144"/>
-      <c r="BK23" s="142"/>
-      <c r="BL23" s="143"/>
-      <c r="BM23" s="144"/>
-      <c r="BN23" s="144"/>
-      <c r="BO23" s="145"/>
+      <c r="BI23" s="119"/>
+      <c r="BJ23" s="119"/>
+      <c r="BK23" s="117"/>
+      <c r="BL23" s="118"/>
+      <c r="BM23" s="119"/>
+      <c r="BN23" s="119"/>
+      <c r="BO23" s="120"/>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="4"/>
       <c r="BR23" s="4"/>
@@ -12791,9 +12770,9 @@
       <c r="QI23" s="4"/>
       <c r="QJ23" s="4"/>
     </row>
-    <row r="24" spans="1:452" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:452" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="119"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="9" t="s">
         <v>59</v>
       </c>
@@ -12860,11 +12839,11 @@
       <c r="BH24" s="4"/>
       <c r="BI24" s="4"/>
       <c r="BJ24" s="4"/>
-      <c r="BK24" s="145"/>
-      <c r="BL24" s="143"/>
-      <c r="BM24" s="144"/>
-      <c r="BN24" s="144"/>
-      <c r="BO24" s="145"/>
+      <c r="BK24" s="120"/>
+      <c r="BL24" s="118"/>
+      <c r="BM24" s="119"/>
+      <c r="BN24" s="119"/>
+      <c r="BO24" s="120"/>
       <c r="BP24" s="4"/>
       <c r="BQ24" s="4"/>
       <c r="BR24" s="4"/>
@@ -13230,467 +13209,467 @@
       <c r="QI24" s="4"/>
       <c r="QJ24" s="4"/>
     </row>
-    <row r="25" spans="1:452" s="159" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A25" s="146"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="147" t="s">
+    <row r="25" spans="1:452" s="209" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="204"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="149" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="150" t="s">
+      <c r="G25" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="152"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="152"/>
-      <c r="AF25" s="153"/>
-      <c r="AG25" s="153"/>
-      <c r="AH25" s="153"/>
-      <c r="AI25" s="152"/>
-      <c r="AJ25" s="153"/>
-      <c r="AK25" s="153"/>
-      <c r="AL25" s="153"/>
-      <c r="AM25" s="152"/>
-      <c r="AN25" s="153"/>
-      <c r="AO25" s="154"/>
-      <c r="AP25" s="154"/>
-      <c r="AQ25" s="155"/>
-      <c r="AR25" s="154"/>
-      <c r="AS25" s="154"/>
-      <c r="AT25" s="154"/>
-      <c r="AU25" s="155"/>
-      <c r="AV25" s="154"/>
-      <c r="AW25" s="154"/>
-      <c r="AX25" s="154"/>
-      <c r="AY25" s="155"/>
-      <c r="AZ25" s="154"/>
-      <c r="BA25" s="154"/>
-      <c r="BB25" s="154"/>
-      <c r="BC25" s="155"/>
-      <c r="BD25" s="154"/>
-      <c r="BE25" s="154"/>
-      <c r="BF25" s="154"/>
-      <c r="BG25" s="155"/>
-      <c r="BH25" s="154"/>
-      <c r="BI25" s="154"/>
-      <c r="BJ25" s="154"/>
-      <c r="BK25" s="155"/>
-      <c r="BL25" s="154"/>
-      <c r="BM25" s="154"/>
-      <c r="BN25" s="154"/>
-      <c r="BO25" s="155"/>
-      <c r="BP25" s="154"/>
-      <c r="BQ25" s="154"/>
-      <c r="BR25" s="154"/>
-      <c r="BS25" s="155"/>
-      <c r="BT25" s="154"/>
-      <c r="BU25" s="154"/>
-      <c r="BV25" s="154"/>
-      <c r="BW25" s="156"/>
-      <c r="BX25" s="157"/>
-      <c r="BY25" s="158"/>
-      <c r="BZ25" s="158"/>
-      <c r="CA25" s="158"/>
-      <c r="CB25" s="158"/>
-      <c r="CC25" s="158"/>
-      <c r="CD25" s="158"/>
-      <c r="CE25" s="158"/>
-      <c r="CF25" s="158"/>
-      <c r="CG25" s="158"/>
-      <c r="CH25" s="158"/>
-      <c r="CI25" s="158"/>
-      <c r="CJ25" s="158"/>
-      <c r="CK25" s="158"/>
-      <c r="CL25" s="158"/>
-      <c r="CM25" s="158"/>
-      <c r="CN25" s="158"/>
-      <c r="CO25" s="158"/>
-      <c r="CP25" s="158"/>
-      <c r="CQ25" s="158"/>
-      <c r="CR25" s="158"/>
-      <c r="CS25" s="158"/>
-      <c r="CT25" s="154"/>
-      <c r="CU25" s="154"/>
-      <c r="CV25" s="154"/>
-      <c r="CW25" s="154"/>
-      <c r="CX25" s="154"/>
-      <c r="CY25" s="154"/>
-      <c r="CZ25" s="154"/>
-      <c r="DA25" s="154"/>
-      <c r="DB25" s="154"/>
-      <c r="DC25" s="154"/>
-      <c r="DD25" s="154"/>
-      <c r="DE25" s="154"/>
-      <c r="DF25" s="154"/>
-      <c r="DG25" s="154"/>
-      <c r="DH25" s="154"/>
-      <c r="DI25" s="154"/>
-      <c r="DJ25" s="154"/>
-      <c r="DK25" s="154"/>
-      <c r="DL25" s="154"/>
-      <c r="DM25" s="154"/>
-      <c r="DN25" s="154"/>
-      <c r="DO25" s="154"/>
-      <c r="DP25" s="154"/>
-      <c r="DQ25" s="154"/>
-      <c r="DR25" s="154"/>
-      <c r="DS25" s="154"/>
-      <c r="DT25" s="154"/>
-      <c r="DU25" s="154"/>
-      <c r="DV25" s="154"/>
-      <c r="DW25" s="154"/>
-      <c r="DX25" s="154"/>
-      <c r="DY25" s="154"/>
-      <c r="DZ25" s="154"/>
-      <c r="EA25" s="154"/>
-      <c r="EB25" s="154"/>
-      <c r="EC25" s="154"/>
-      <c r="ED25" s="154"/>
-      <c r="EE25" s="154"/>
-      <c r="EF25" s="154"/>
-      <c r="EG25" s="154"/>
-      <c r="EH25" s="154"/>
-      <c r="EI25" s="154"/>
-      <c r="EJ25" s="154"/>
-      <c r="EK25" s="154"/>
-      <c r="EL25" s="154"/>
-      <c r="EM25" s="154"/>
-      <c r="EN25" s="154"/>
-      <c r="EO25" s="154"/>
-      <c r="EP25" s="154"/>
-      <c r="EQ25" s="154"/>
-      <c r="ER25" s="154"/>
-      <c r="ES25" s="154"/>
-      <c r="ET25" s="154"/>
-      <c r="EU25" s="154"/>
-      <c r="EV25" s="154"/>
-      <c r="EW25" s="154"/>
-      <c r="EX25" s="154"/>
-      <c r="EY25" s="154"/>
-      <c r="EZ25" s="154"/>
-      <c r="FA25" s="154"/>
-      <c r="FB25" s="154"/>
-      <c r="FC25" s="154"/>
-      <c r="FD25" s="154"/>
-      <c r="FE25" s="154"/>
-      <c r="FF25" s="154"/>
-      <c r="FG25" s="154"/>
-      <c r="FH25" s="154"/>
-      <c r="FI25" s="154"/>
-      <c r="FJ25" s="154"/>
-      <c r="FK25" s="154"/>
-      <c r="FL25" s="154"/>
-      <c r="FM25" s="154"/>
-      <c r="FN25" s="154"/>
-      <c r="FO25" s="154"/>
-      <c r="FP25" s="154"/>
-      <c r="FQ25" s="154"/>
-      <c r="FR25" s="154"/>
-      <c r="FS25" s="154"/>
-      <c r="FT25" s="154"/>
-      <c r="FU25" s="154"/>
-      <c r="FV25" s="154"/>
-      <c r="FW25" s="154"/>
-      <c r="FX25" s="154"/>
-      <c r="FY25" s="154"/>
-      <c r="FZ25" s="154"/>
-      <c r="GA25" s="154"/>
-      <c r="GB25" s="154"/>
-      <c r="GC25" s="154"/>
-      <c r="GD25" s="154"/>
-      <c r="GE25" s="154"/>
-      <c r="GF25" s="154"/>
-      <c r="GG25" s="154"/>
-      <c r="GH25" s="154"/>
-      <c r="GI25" s="154"/>
-      <c r="GJ25" s="154"/>
-      <c r="GK25" s="154"/>
-      <c r="GL25" s="154"/>
-      <c r="GM25" s="154"/>
-      <c r="GN25" s="154"/>
-      <c r="GO25" s="154"/>
-      <c r="GP25" s="154"/>
-      <c r="GQ25" s="154"/>
-      <c r="GR25" s="154"/>
-      <c r="GS25" s="154"/>
-      <c r="GT25" s="154"/>
-      <c r="GU25" s="154"/>
-      <c r="GV25" s="154"/>
-      <c r="GW25" s="154"/>
-      <c r="GX25" s="154"/>
-      <c r="GY25" s="154"/>
-      <c r="GZ25" s="154"/>
-      <c r="HA25" s="154"/>
-      <c r="HB25" s="154"/>
-      <c r="HC25" s="154"/>
-      <c r="HD25" s="154"/>
-      <c r="HE25" s="154"/>
-      <c r="HF25" s="154"/>
-      <c r="HG25" s="154"/>
-      <c r="HH25" s="154"/>
-      <c r="HI25" s="154"/>
-      <c r="HJ25" s="154"/>
-      <c r="HK25" s="154"/>
-      <c r="HL25" s="154"/>
-      <c r="HM25" s="154"/>
-      <c r="HN25" s="154"/>
-      <c r="HO25" s="154"/>
-      <c r="HP25" s="154"/>
-      <c r="HQ25" s="154"/>
-      <c r="HR25" s="154"/>
-      <c r="HS25" s="154"/>
-      <c r="HT25" s="154"/>
-      <c r="HU25" s="154"/>
-      <c r="HV25" s="154"/>
-      <c r="HW25" s="154"/>
-      <c r="HX25" s="154"/>
-      <c r="HY25" s="154"/>
-      <c r="HZ25" s="154"/>
-      <c r="IA25" s="154"/>
-      <c r="IB25" s="154"/>
-      <c r="IC25" s="154"/>
-      <c r="ID25" s="154"/>
-      <c r="IE25" s="154"/>
-      <c r="IF25" s="154"/>
-      <c r="IG25" s="154"/>
-      <c r="IH25" s="154"/>
-      <c r="II25" s="154"/>
-      <c r="IJ25" s="154"/>
-      <c r="IK25" s="154"/>
-      <c r="IL25" s="154"/>
-      <c r="IM25" s="154"/>
-      <c r="IN25" s="154"/>
-      <c r="IO25" s="154"/>
-      <c r="IP25" s="154"/>
-      <c r="IQ25" s="154"/>
-      <c r="IR25" s="154"/>
-      <c r="IS25" s="154"/>
-      <c r="IT25" s="154"/>
-      <c r="IU25" s="154"/>
-      <c r="IV25" s="154"/>
-      <c r="IW25" s="154"/>
-      <c r="IX25" s="154"/>
-      <c r="IY25" s="154"/>
-      <c r="IZ25" s="154"/>
-      <c r="JA25" s="154"/>
-      <c r="JB25" s="154"/>
-      <c r="JC25" s="154"/>
-      <c r="JD25" s="154"/>
-      <c r="JE25" s="154"/>
-      <c r="JF25" s="154"/>
-      <c r="JG25" s="154"/>
-      <c r="JH25" s="154"/>
-      <c r="JI25" s="154"/>
-      <c r="JJ25" s="154"/>
-      <c r="JK25" s="154"/>
-      <c r="JL25" s="154"/>
-      <c r="JM25" s="154"/>
-      <c r="JN25" s="154"/>
-      <c r="JO25" s="154"/>
-      <c r="JP25" s="154"/>
-      <c r="JQ25" s="154"/>
-      <c r="JR25" s="154"/>
-      <c r="JS25" s="154"/>
-      <c r="JT25" s="154"/>
-      <c r="JU25" s="154"/>
-      <c r="JV25" s="154"/>
-      <c r="JW25" s="154"/>
-      <c r="JX25" s="154"/>
-      <c r="JY25" s="154"/>
-      <c r="JZ25" s="154"/>
-      <c r="KA25" s="154"/>
-      <c r="KB25" s="154"/>
-      <c r="KC25" s="154"/>
-      <c r="KD25" s="154"/>
-      <c r="KE25" s="154"/>
-      <c r="KF25" s="154"/>
-      <c r="KG25" s="154"/>
-      <c r="KH25" s="154"/>
-      <c r="KI25" s="154"/>
-      <c r="KJ25" s="154"/>
-      <c r="KK25" s="154"/>
-      <c r="KL25" s="154"/>
-      <c r="KM25" s="154"/>
-      <c r="KN25" s="154"/>
-      <c r="KO25" s="154"/>
-      <c r="KP25" s="154"/>
-      <c r="KQ25" s="154"/>
-      <c r="KR25" s="154"/>
-      <c r="KS25" s="154"/>
-      <c r="KT25" s="154"/>
-      <c r="KU25" s="154"/>
-      <c r="KV25" s="154"/>
-      <c r="KW25" s="154"/>
-      <c r="KX25" s="154"/>
-      <c r="KY25" s="154"/>
-      <c r="KZ25" s="154"/>
-      <c r="LA25" s="154"/>
-      <c r="LB25" s="154"/>
-      <c r="LC25" s="154"/>
-      <c r="LD25" s="154"/>
-      <c r="LE25" s="154"/>
-      <c r="LF25" s="154"/>
-      <c r="LG25" s="154"/>
-      <c r="LH25" s="154"/>
-      <c r="LI25" s="154"/>
-      <c r="LJ25" s="154"/>
-      <c r="LK25" s="154"/>
-      <c r="LL25" s="154"/>
-      <c r="LM25" s="154"/>
-      <c r="LN25" s="154"/>
-      <c r="LO25" s="154"/>
-      <c r="LP25" s="154"/>
-      <c r="LQ25" s="154"/>
-      <c r="LR25" s="154"/>
-      <c r="LS25" s="154"/>
-      <c r="LT25" s="154"/>
-      <c r="LU25" s="154"/>
-      <c r="LV25" s="154"/>
-      <c r="LW25" s="154"/>
-      <c r="LX25" s="154"/>
-      <c r="LY25" s="154"/>
-      <c r="LZ25" s="154"/>
-      <c r="MA25" s="154"/>
-      <c r="MB25" s="154"/>
-      <c r="MC25" s="154"/>
-      <c r="MD25" s="154"/>
-      <c r="ME25" s="154"/>
-      <c r="MF25" s="154"/>
-      <c r="MG25" s="154"/>
-      <c r="MH25" s="154"/>
-      <c r="MI25" s="154"/>
-      <c r="MJ25" s="154"/>
-      <c r="MK25" s="154"/>
-      <c r="ML25" s="154"/>
-      <c r="MM25" s="154"/>
-      <c r="MN25" s="154"/>
-      <c r="MO25" s="154"/>
-      <c r="MP25" s="154"/>
-      <c r="MQ25" s="154"/>
-      <c r="MR25" s="154"/>
-      <c r="MS25" s="154"/>
-      <c r="MT25" s="154"/>
-      <c r="MU25" s="154"/>
-      <c r="MV25" s="154"/>
-      <c r="MW25" s="154"/>
-      <c r="MX25" s="154"/>
-      <c r="MY25" s="154"/>
-      <c r="MZ25" s="154"/>
-      <c r="NA25" s="154"/>
-      <c r="NB25" s="154"/>
-      <c r="NC25" s="154"/>
-      <c r="ND25" s="154"/>
-      <c r="NE25" s="154"/>
-      <c r="NF25" s="154"/>
-      <c r="NG25" s="154"/>
-      <c r="NH25" s="154"/>
-      <c r="NI25" s="154"/>
-      <c r="NJ25" s="154"/>
-      <c r="NK25" s="154"/>
-      <c r="NL25" s="154"/>
-      <c r="NM25" s="154"/>
-      <c r="NN25" s="154"/>
-      <c r="NO25" s="154"/>
-      <c r="NP25" s="154"/>
-      <c r="NQ25" s="154"/>
-      <c r="NR25" s="154"/>
-      <c r="NS25" s="154"/>
-      <c r="NT25" s="154"/>
-      <c r="NU25" s="154"/>
-      <c r="NV25" s="154"/>
-      <c r="NW25" s="154"/>
-      <c r="NX25" s="154"/>
-      <c r="NY25" s="154"/>
-      <c r="NZ25" s="154"/>
-      <c r="OA25" s="154"/>
-      <c r="OB25" s="154"/>
-      <c r="OC25" s="154"/>
-      <c r="OD25" s="154"/>
-      <c r="OE25" s="154"/>
-      <c r="OF25" s="154"/>
-      <c r="OG25" s="154"/>
-      <c r="OH25" s="154"/>
-      <c r="OI25" s="154"/>
-      <c r="OJ25" s="154"/>
-      <c r="OK25" s="154"/>
-      <c r="OL25" s="154"/>
-      <c r="OM25" s="154"/>
-      <c r="ON25" s="154"/>
-      <c r="OO25" s="154"/>
-      <c r="OP25" s="154"/>
-      <c r="OQ25" s="154"/>
-      <c r="OR25" s="154"/>
-      <c r="OS25" s="154"/>
-      <c r="OT25" s="154"/>
-      <c r="OU25" s="154"/>
-      <c r="OV25" s="154"/>
-      <c r="OW25" s="154"/>
-      <c r="OX25" s="154"/>
-      <c r="OY25" s="154"/>
-      <c r="OZ25" s="154"/>
-      <c r="PA25" s="154"/>
-      <c r="PB25" s="154"/>
-      <c r="PC25" s="154"/>
-      <c r="PD25" s="154"/>
-      <c r="PE25" s="154"/>
-      <c r="PF25" s="154"/>
-      <c r="PG25" s="154"/>
-      <c r="PH25" s="154"/>
-      <c r="PI25" s="154"/>
-      <c r="PJ25" s="154"/>
-      <c r="PK25" s="154"/>
-      <c r="PL25" s="154"/>
-      <c r="PM25" s="154"/>
-      <c r="PN25" s="154"/>
-      <c r="PO25" s="154"/>
-      <c r="PP25" s="154"/>
-      <c r="PQ25" s="154"/>
-      <c r="PR25" s="154"/>
-      <c r="PS25" s="154"/>
-      <c r="PT25" s="154"/>
-      <c r="PU25" s="154"/>
-      <c r="PV25" s="154"/>
-      <c r="PW25" s="154"/>
-      <c r="PX25" s="154"/>
-      <c r="PY25" s="154"/>
-      <c r="PZ25" s="154"/>
-      <c r="QA25" s="154"/>
-      <c r="QB25" s="154"/>
-      <c r="QC25" s="154"/>
-      <c r="QD25" s="154"/>
-      <c r="QE25" s="154"/>
-      <c r="QF25" s="154"/>
-      <c r="QG25" s="154"/>
-      <c r="QH25" s="154"/>
-      <c r="QI25" s="154"/>
-      <c r="QJ25" s="154"/>
-    </row>
-    <row r="26" spans="1:452" ht="13" x14ac:dyDescent="0.3">
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="119"/>
+      <c r="AP25" s="119"/>
+      <c r="AQ25" s="120"/>
+      <c r="AR25" s="119"/>
+      <c r="AS25" s="119"/>
+      <c r="AT25" s="119"/>
+      <c r="AU25" s="120"/>
+      <c r="AV25" s="119"/>
+      <c r="AW25" s="119"/>
+      <c r="AX25" s="119"/>
+      <c r="AY25" s="120"/>
+      <c r="AZ25" s="119"/>
+      <c r="BA25" s="119"/>
+      <c r="BB25" s="119"/>
+      <c r="BC25" s="120"/>
+      <c r="BD25" s="119"/>
+      <c r="BE25" s="119"/>
+      <c r="BF25" s="119"/>
+      <c r="BG25" s="120"/>
+      <c r="BH25" s="119"/>
+      <c r="BI25" s="119"/>
+      <c r="BJ25" s="119"/>
+      <c r="BK25" s="120"/>
+      <c r="BL25" s="119"/>
+      <c r="BM25" s="119"/>
+      <c r="BN25" s="119"/>
+      <c r="BO25" s="120"/>
+      <c r="BP25" s="119"/>
+      <c r="BQ25" s="119"/>
+      <c r="BR25" s="119"/>
+      <c r="BS25" s="120"/>
+      <c r="BT25" s="119"/>
+      <c r="BU25" s="119"/>
+      <c r="BV25" s="119"/>
+      <c r="BW25" s="206"/>
+      <c r="BX25" s="207"/>
+      <c r="BY25" s="208"/>
+      <c r="BZ25" s="208"/>
+      <c r="CA25" s="208"/>
+      <c r="CB25" s="208"/>
+      <c r="CC25" s="208"/>
+      <c r="CD25" s="208"/>
+      <c r="CE25" s="208"/>
+      <c r="CF25" s="208"/>
+      <c r="CG25" s="208"/>
+      <c r="CH25" s="208"/>
+      <c r="CI25" s="208"/>
+      <c r="CJ25" s="208"/>
+      <c r="CK25" s="208"/>
+      <c r="CL25" s="208"/>
+      <c r="CM25" s="208"/>
+      <c r="CN25" s="208"/>
+      <c r="CO25" s="208"/>
+      <c r="CP25" s="208"/>
+      <c r="CQ25" s="208"/>
+      <c r="CR25" s="208"/>
+      <c r="CS25" s="208"/>
+      <c r="CT25" s="119"/>
+      <c r="CU25" s="119"/>
+      <c r="CV25" s="119"/>
+      <c r="CW25" s="119"/>
+      <c r="CX25" s="119"/>
+      <c r="CY25" s="119"/>
+      <c r="CZ25" s="119"/>
+      <c r="DA25" s="119"/>
+      <c r="DB25" s="119"/>
+      <c r="DC25" s="119"/>
+      <c r="DD25" s="119"/>
+      <c r="DE25" s="119"/>
+      <c r="DF25" s="119"/>
+      <c r="DG25" s="119"/>
+      <c r="DH25" s="119"/>
+      <c r="DI25" s="119"/>
+      <c r="DJ25" s="119"/>
+      <c r="DK25" s="119"/>
+      <c r="DL25" s="119"/>
+      <c r="DM25" s="119"/>
+      <c r="DN25" s="119"/>
+      <c r="DO25" s="119"/>
+      <c r="DP25" s="119"/>
+      <c r="DQ25" s="119"/>
+      <c r="DR25" s="119"/>
+      <c r="DS25" s="119"/>
+      <c r="DT25" s="119"/>
+      <c r="DU25" s="119"/>
+      <c r="DV25" s="119"/>
+      <c r="DW25" s="119"/>
+      <c r="DX25" s="119"/>
+      <c r="DY25" s="119"/>
+      <c r="DZ25" s="119"/>
+      <c r="EA25" s="119"/>
+      <c r="EB25" s="119"/>
+      <c r="EC25" s="119"/>
+      <c r="ED25" s="119"/>
+      <c r="EE25" s="119"/>
+      <c r="EF25" s="119"/>
+      <c r="EG25" s="119"/>
+      <c r="EH25" s="119"/>
+      <c r="EI25" s="119"/>
+      <c r="EJ25" s="119"/>
+      <c r="EK25" s="119"/>
+      <c r="EL25" s="119"/>
+      <c r="EM25" s="119"/>
+      <c r="EN25" s="119"/>
+      <c r="EO25" s="119"/>
+      <c r="EP25" s="119"/>
+      <c r="EQ25" s="119"/>
+      <c r="ER25" s="119"/>
+      <c r="ES25" s="119"/>
+      <c r="ET25" s="119"/>
+      <c r="EU25" s="119"/>
+      <c r="EV25" s="119"/>
+      <c r="EW25" s="119"/>
+      <c r="EX25" s="119"/>
+      <c r="EY25" s="119"/>
+      <c r="EZ25" s="119"/>
+      <c r="FA25" s="119"/>
+      <c r="FB25" s="119"/>
+      <c r="FC25" s="119"/>
+      <c r="FD25" s="119"/>
+      <c r="FE25" s="119"/>
+      <c r="FF25" s="119"/>
+      <c r="FG25" s="119"/>
+      <c r="FH25" s="119"/>
+      <c r="FI25" s="119"/>
+      <c r="FJ25" s="119"/>
+      <c r="FK25" s="119"/>
+      <c r="FL25" s="119"/>
+      <c r="FM25" s="119"/>
+      <c r="FN25" s="119"/>
+      <c r="FO25" s="119"/>
+      <c r="FP25" s="119"/>
+      <c r="FQ25" s="119"/>
+      <c r="FR25" s="119"/>
+      <c r="FS25" s="119"/>
+      <c r="FT25" s="119"/>
+      <c r="FU25" s="119"/>
+      <c r="FV25" s="119"/>
+      <c r="FW25" s="119"/>
+      <c r="FX25" s="119"/>
+      <c r="FY25" s="119"/>
+      <c r="FZ25" s="119"/>
+      <c r="GA25" s="119"/>
+      <c r="GB25" s="119"/>
+      <c r="GC25" s="119"/>
+      <c r="GD25" s="119"/>
+      <c r="GE25" s="119"/>
+      <c r="GF25" s="119"/>
+      <c r="GG25" s="119"/>
+      <c r="GH25" s="119"/>
+      <c r="GI25" s="119"/>
+      <c r="GJ25" s="119"/>
+      <c r="GK25" s="119"/>
+      <c r="GL25" s="119"/>
+      <c r="GM25" s="119"/>
+      <c r="GN25" s="119"/>
+      <c r="GO25" s="119"/>
+      <c r="GP25" s="119"/>
+      <c r="GQ25" s="119"/>
+      <c r="GR25" s="119"/>
+      <c r="GS25" s="119"/>
+      <c r="GT25" s="119"/>
+      <c r="GU25" s="119"/>
+      <c r="GV25" s="119"/>
+      <c r="GW25" s="119"/>
+      <c r="GX25" s="119"/>
+      <c r="GY25" s="119"/>
+      <c r="GZ25" s="119"/>
+      <c r="HA25" s="119"/>
+      <c r="HB25" s="119"/>
+      <c r="HC25" s="119"/>
+      <c r="HD25" s="119"/>
+      <c r="HE25" s="119"/>
+      <c r="HF25" s="119"/>
+      <c r="HG25" s="119"/>
+      <c r="HH25" s="119"/>
+      <c r="HI25" s="119"/>
+      <c r="HJ25" s="119"/>
+      <c r="HK25" s="119"/>
+      <c r="HL25" s="119"/>
+      <c r="HM25" s="119"/>
+      <c r="HN25" s="119"/>
+      <c r="HO25" s="119"/>
+      <c r="HP25" s="119"/>
+      <c r="HQ25" s="119"/>
+      <c r="HR25" s="119"/>
+      <c r="HS25" s="119"/>
+      <c r="HT25" s="119"/>
+      <c r="HU25" s="119"/>
+      <c r="HV25" s="119"/>
+      <c r="HW25" s="119"/>
+      <c r="HX25" s="119"/>
+      <c r="HY25" s="119"/>
+      <c r="HZ25" s="119"/>
+      <c r="IA25" s="119"/>
+      <c r="IB25" s="119"/>
+      <c r="IC25" s="119"/>
+      <c r="ID25" s="119"/>
+      <c r="IE25" s="119"/>
+      <c r="IF25" s="119"/>
+      <c r="IG25" s="119"/>
+      <c r="IH25" s="119"/>
+      <c r="II25" s="119"/>
+      <c r="IJ25" s="119"/>
+      <c r="IK25" s="119"/>
+      <c r="IL25" s="119"/>
+      <c r="IM25" s="119"/>
+      <c r="IN25" s="119"/>
+      <c r="IO25" s="119"/>
+      <c r="IP25" s="119"/>
+      <c r="IQ25" s="119"/>
+      <c r="IR25" s="119"/>
+      <c r="IS25" s="119"/>
+      <c r="IT25" s="119"/>
+      <c r="IU25" s="119"/>
+      <c r="IV25" s="119"/>
+      <c r="IW25" s="119"/>
+      <c r="IX25" s="119"/>
+      <c r="IY25" s="119"/>
+      <c r="IZ25" s="119"/>
+      <c r="JA25" s="119"/>
+      <c r="JB25" s="119"/>
+      <c r="JC25" s="119"/>
+      <c r="JD25" s="119"/>
+      <c r="JE25" s="119"/>
+      <c r="JF25" s="119"/>
+      <c r="JG25" s="119"/>
+      <c r="JH25" s="119"/>
+      <c r="JI25" s="119"/>
+      <c r="JJ25" s="119"/>
+      <c r="JK25" s="119"/>
+      <c r="JL25" s="119"/>
+      <c r="JM25" s="119"/>
+      <c r="JN25" s="119"/>
+      <c r="JO25" s="119"/>
+      <c r="JP25" s="119"/>
+      <c r="JQ25" s="119"/>
+      <c r="JR25" s="119"/>
+      <c r="JS25" s="119"/>
+      <c r="JT25" s="119"/>
+      <c r="JU25" s="119"/>
+      <c r="JV25" s="119"/>
+      <c r="JW25" s="119"/>
+      <c r="JX25" s="119"/>
+      <c r="JY25" s="119"/>
+      <c r="JZ25" s="119"/>
+      <c r="KA25" s="119"/>
+      <c r="KB25" s="119"/>
+      <c r="KC25" s="119"/>
+      <c r="KD25" s="119"/>
+      <c r="KE25" s="119"/>
+      <c r="KF25" s="119"/>
+      <c r="KG25" s="119"/>
+      <c r="KH25" s="119"/>
+      <c r="KI25" s="119"/>
+      <c r="KJ25" s="119"/>
+      <c r="KK25" s="119"/>
+      <c r="KL25" s="119"/>
+      <c r="KM25" s="119"/>
+      <c r="KN25" s="119"/>
+      <c r="KO25" s="119"/>
+      <c r="KP25" s="119"/>
+      <c r="KQ25" s="119"/>
+      <c r="KR25" s="119"/>
+      <c r="KS25" s="119"/>
+      <c r="KT25" s="119"/>
+      <c r="KU25" s="119"/>
+      <c r="KV25" s="119"/>
+      <c r="KW25" s="119"/>
+      <c r="KX25" s="119"/>
+      <c r="KY25" s="119"/>
+      <c r="KZ25" s="119"/>
+      <c r="LA25" s="119"/>
+      <c r="LB25" s="119"/>
+      <c r="LC25" s="119"/>
+      <c r="LD25" s="119"/>
+      <c r="LE25" s="119"/>
+      <c r="LF25" s="119"/>
+      <c r="LG25" s="119"/>
+      <c r="LH25" s="119"/>
+      <c r="LI25" s="119"/>
+      <c r="LJ25" s="119"/>
+      <c r="LK25" s="119"/>
+      <c r="LL25" s="119"/>
+      <c r="LM25" s="119"/>
+      <c r="LN25" s="119"/>
+      <c r="LO25" s="119"/>
+      <c r="LP25" s="119"/>
+      <c r="LQ25" s="119"/>
+      <c r="LR25" s="119"/>
+      <c r="LS25" s="119"/>
+      <c r="LT25" s="119"/>
+      <c r="LU25" s="119"/>
+      <c r="LV25" s="119"/>
+      <c r="LW25" s="119"/>
+      <c r="LX25" s="119"/>
+      <c r="LY25" s="119"/>
+      <c r="LZ25" s="119"/>
+      <c r="MA25" s="119"/>
+      <c r="MB25" s="119"/>
+      <c r="MC25" s="119"/>
+      <c r="MD25" s="119"/>
+      <c r="ME25" s="119"/>
+      <c r="MF25" s="119"/>
+      <c r="MG25" s="119"/>
+      <c r="MH25" s="119"/>
+      <c r="MI25" s="119"/>
+      <c r="MJ25" s="119"/>
+      <c r="MK25" s="119"/>
+      <c r="ML25" s="119"/>
+      <c r="MM25" s="119"/>
+      <c r="MN25" s="119"/>
+      <c r="MO25" s="119"/>
+      <c r="MP25" s="119"/>
+      <c r="MQ25" s="119"/>
+      <c r="MR25" s="119"/>
+      <c r="MS25" s="119"/>
+      <c r="MT25" s="119"/>
+      <c r="MU25" s="119"/>
+      <c r="MV25" s="119"/>
+      <c r="MW25" s="119"/>
+      <c r="MX25" s="119"/>
+      <c r="MY25" s="119"/>
+      <c r="MZ25" s="119"/>
+      <c r="NA25" s="119"/>
+      <c r="NB25" s="119"/>
+      <c r="NC25" s="119"/>
+      <c r="ND25" s="119"/>
+      <c r="NE25" s="119"/>
+      <c r="NF25" s="119"/>
+      <c r="NG25" s="119"/>
+      <c r="NH25" s="119"/>
+      <c r="NI25" s="119"/>
+      <c r="NJ25" s="119"/>
+      <c r="NK25" s="119"/>
+      <c r="NL25" s="119"/>
+      <c r="NM25" s="119"/>
+      <c r="NN25" s="119"/>
+      <c r="NO25" s="119"/>
+      <c r="NP25" s="119"/>
+      <c r="NQ25" s="119"/>
+      <c r="NR25" s="119"/>
+      <c r="NS25" s="119"/>
+      <c r="NT25" s="119"/>
+      <c r="NU25" s="119"/>
+      <c r="NV25" s="119"/>
+      <c r="NW25" s="119"/>
+      <c r="NX25" s="119"/>
+      <c r="NY25" s="119"/>
+      <c r="NZ25" s="119"/>
+      <c r="OA25" s="119"/>
+      <c r="OB25" s="119"/>
+      <c r="OC25" s="119"/>
+      <c r="OD25" s="119"/>
+      <c r="OE25" s="119"/>
+      <c r="OF25" s="119"/>
+      <c r="OG25" s="119"/>
+      <c r="OH25" s="119"/>
+      <c r="OI25" s="119"/>
+      <c r="OJ25" s="119"/>
+      <c r="OK25" s="119"/>
+      <c r="OL25" s="119"/>
+      <c r="OM25" s="119"/>
+      <c r="ON25" s="119"/>
+      <c r="OO25" s="119"/>
+      <c r="OP25" s="119"/>
+      <c r="OQ25" s="119"/>
+      <c r="OR25" s="119"/>
+      <c r="OS25" s="119"/>
+      <c r="OT25" s="119"/>
+      <c r="OU25" s="119"/>
+      <c r="OV25" s="119"/>
+      <c r="OW25" s="119"/>
+      <c r="OX25" s="119"/>
+      <c r="OY25" s="119"/>
+      <c r="OZ25" s="119"/>
+      <c r="PA25" s="119"/>
+      <c r="PB25" s="119"/>
+      <c r="PC25" s="119"/>
+      <c r="PD25" s="119"/>
+      <c r="PE25" s="119"/>
+      <c r="PF25" s="119"/>
+      <c r="PG25" s="119"/>
+      <c r="PH25" s="119"/>
+      <c r="PI25" s="119"/>
+      <c r="PJ25" s="119"/>
+      <c r="PK25" s="119"/>
+      <c r="PL25" s="119"/>
+      <c r="PM25" s="119"/>
+      <c r="PN25" s="119"/>
+      <c r="PO25" s="119"/>
+      <c r="PP25" s="119"/>
+      <c r="PQ25" s="119"/>
+      <c r="PR25" s="119"/>
+      <c r="PS25" s="119"/>
+      <c r="PT25" s="119"/>
+      <c r="PU25" s="119"/>
+      <c r="PV25" s="119"/>
+      <c r="PW25" s="119"/>
+      <c r="PX25" s="119"/>
+      <c r="PY25" s="119"/>
+      <c r="PZ25" s="119"/>
+      <c r="QA25" s="119"/>
+      <c r="QB25" s="119"/>
+      <c r="QC25" s="119"/>
+      <c r="QD25" s="119"/>
+      <c r="QE25" s="119"/>
+      <c r="QF25" s="119"/>
+      <c r="QG25" s="119"/>
+      <c r="QH25" s="119"/>
+      <c r="QI25" s="119"/>
+      <c r="QJ25" s="119"/>
+    </row>
+    <row r="26" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="38" t="s">
         <v>62</v>
@@ -13763,7 +13742,7 @@
       <c r="BJ26" s="42"/>
       <c r="BK26" s="67"/>
       <c r="BL26" s="42"/>
-      <c r="BM26" s="160"/>
+      <c r="BM26" s="121"/>
       <c r="BN26" s="42"/>
       <c r="BO26" s="67"/>
       <c r="BP26" s="42"/>
@@ -14131,7 +14110,7 @@
       <c r="QI26" s="4"/>
       <c r="QJ26" s="4"/>
     </row>
-    <row r="27" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="84"/>
       <c r="C27" s="26"/>
@@ -14563,7 +14542,7 @@
       <c r="QI27" s="4"/>
       <c r="QJ27" s="4"/>
     </row>
-    <row r="28" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -14981,7 +14960,7 @@
       <c r="QI28" s="4"/>
       <c r="QJ28" s="4"/>
     </row>
-    <row r="29" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
@@ -15399,7 +15378,7 @@
       <c r="QI29" s="4"/>
       <c r="QJ29" s="4"/>
     </row>
-    <row r="30" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="16"/>
@@ -15817,7 +15796,7 @@
       <c r="QI30" s="4"/>
       <c r="QJ30" s="4"/>
     </row>
-    <row r="31" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -16235,7 +16214,7 @@
       <c r="QI31" s="4"/>
       <c r="QJ31" s="4"/>
     </row>
-    <row r="32" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -16653,7 +16632,7 @@
       <c r="QI32" s="4"/>
       <c r="QJ32" s="4"/>
     </row>
-    <row r="33" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="16"/>
@@ -17071,7 +17050,7 @@
       <c r="QI33" s="4"/>
       <c r="QJ33" s="4"/>
     </row>
-    <row r="34" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
@@ -17489,7 +17468,7 @@
       <c r="QI34" s="4"/>
       <c r="QJ34" s="4"/>
     </row>
-    <row r="35" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="16" t="s">
@@ -17501,7 +17480,7 @@
       <c r="G35" s="91"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="165">
+      <c r="J35" s="126">
         <v>44272</v>
       </c>
       <c r="K35" s="11"/>
@@ -17556,7 +17535,7 @@
       <c r="BV35" s="52"/>
       <c r="BW35" s="55"/>
     </row>
-    <row r="36" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="16" t="s">
@@ -17568,7 +17547,7 @@
       <c r="G36" s="91"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="165">
+      <c r="J36" s="126">
         <v>44272</v>
       </c>
       <c r="K36" s="11"/>
@@ -17623,7 +17602,7 @@
       <c r="BV36" s="52"/>
       <c r="BW36" s="55"/>
     </row>
-    <row r="37" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>115</v>
@@ -17633,10 +17612,10 @@
       <c r="F37" s="12"/>
       <c r="G37" s="91"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="165">
+      <c r="I37" s="126">
         <v>44273</v>
       </c>
-      <c r="J37" s="165">
+      <c r="J37" s="126">
         <v>44282</v>
       </c>
       <c r="K37" s="11"/>
@@ -17691,14 +17670,14 @@
       <c r="BV37" s="52"/>
       <c r="BW37" s="55"/>
     </row>
-    <row r="38" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:452" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I38" s="165">
+      <c r="I38" s="126">
         <v>44273</v>
       </c>
-      <c r="J38" s="165">
+      <c r="J38" s="126">
         <v>44282</v>
       </c>
       <c r="AN38" s="19"/>
@@ -17738,14 +17717,14 @@
       <c r="BV38" s="52"/>
       <c r="BW38" s="55"/>
     </row>
-    <row r="39" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:452" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="164">
+      <c r="I39" s="125">
         <v>44256</v>
       </c>
-      <c r="J39" s="164">
+      <c r="J39" s="125">
         <v>44261</v>
       </c>
       <c r="AN39" s="19"/>
@@ -17785,14 +17764,14 @@
       <c r="BV39" s="52"/>
       <c r="BW39" s="55"/>
     </row>
-    <row r="40" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:452" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="164">
+      <c r="I40" s="125">
         <v>44263</v>
       </c>
-      <c r="J40" s="164">
+      <c r="J40" s="125">
         <v>44268</v>
       </c>
       <c r="AN40" s="19"/>
@@ -17832,14 +17811,14 @@
       <c r="BV40" s="52"/>
       <c r="BW40" s="55"/>
     </row>
-    <row r="41" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:452" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="164">
+      <c r="I41" s="125">
         <v>44270</v>
       </c>
-      <c r="J41" s="164">
+      <c r="J41" s="125">
         <v>44282</v>
       </c>
       <c r="AN41" s="19"/>
@@ -17879,14 +17858,14 @@
       <c r="BV41" s="52"/>
       <c r="BW41" s="55"/>
     </row>
-    <row r="42" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:452" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="164">
+      <c r="I42" s="125">
         <v>44270</v>
       </c>
-      <c r="J42" s="164">
+      <c r="J42" s="125">
         <v>44282</v>
       </c>
       <c r="AN42" s="19"/>
@@ -17926,14 +17905,14 @@
       <c r="BV42" s="52"/>
       <c r="BW42" s="55"/>
     </row>
-    <row r="43" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:452" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="164">
+      <c r="I43" s="125">
         <v>44291</v>
       </c>
-      <c r="J43" s="164">
+      <c r="J43" s="125">
         <v>44296</v>
       </c>
       <c r="AN43" s="19"/>
@@ -17973,12 +17952,12 @@
       <c r="BV43" s="52"/>
       <c r="BW43" s="55"/>
     </row>
-    <row r="44" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:452" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="161"/>
-      <c r="J44" s="164">
+      <c r="G44" s="122"/>
+      <c r="J44" s="125">
         <v>44303</v>
       </c>
       <c r="AN44" s="19"/>
@@ -18018,14 +17997,14 @@
       <c r="BV44" s="52"/>
       <c r="BW44" s="55"/>
     </row>
-    <row r="45" spans="1:452" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:452" ht="24" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="164">
+      <c r="J45" s="125">
         <v>44303</v>
       </c>
-      <c r="K45" s="163">
+      <c r="K45" s="124">
         <v>0.9</v>
       </c>
       <c r="AN45" s="19"/>
@@ -18065,12 +18044,12 @@
       <c r="BV45" s="52"/>
       <c r="BW45" s="55"/>
     </row>
-    <row r="46" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:452" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="161"/>
-      <c r="J46" s="164">
+      <c r="G46" s="122"/>
+      <c r="J46" s="125">
         <v>44303</v>
       </c>
       <c r="AN46" s="19"/>
@@ -18110,7 +18089,7 @@
       <c r="BV46" s="52"/>
       <c r="BW46" s="55"/>
     </row>
-    <row r="47" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:452" x14ac:dyDescent="0.25">
       <c r="AN47" s="19"/>
       <c r="AO47" s="52"/>
       <c r="AP47" s="52"/>
@@ -18148,7 +18127,7 @@
       <c r="BV47" s="52"/>
       <c r="BW47" s="55"/>
     </row>
-    <row r="48" spans="1:452" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:452" x14ac:dyDescent="0.25">
       <c r="AN48" s="19"/>
       <c r="AO48" s="52"/>
       <c r="AP48" s="52"/>
@@ -18186,8 +18165,8 @@
       <c r="BV48" s="52"/>
       <c r="BW48" s="55"/>
     </row>
-    <row r="49" spans="9:75" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="K49" s="163">
+    <row r="49" spans="9:75" ht="24" x14ac:dyDescent="0.25">
+      <c r="K49" s="124">
         <v>0.2</v>
       </c>
       <c r="AN49" s="19"/>
@@ -18227,8 +18206,8 @@
       <c r="BV49" s="52"/>
       <c r="BW49" s="55"/>
     </row>
-    <row r="50" spans="9:75" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="K50" s="163">
+    <row r="50" spans="9:75" ht="24" x14ac:dyDescent="0.25">
+      <c r="K50" s="124">
         <v>0.2</v>
       </c>
       <c r="AN50" s="19"/>
@@ -18268,8 +18247,8 @@
       <c r="BV50" s="52"/>
       <c r="BW50" s="55"/>
     </row>
-    <row r="51" spans="9:75" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="K51" s="163">
+    <row r="51" spans="9:75" ht="24" x14ac:dyDescent="0.25">
+      <c r="K51" s="124">
         <v>0.2</v>
       </c>
       <c r="AN51" s="19"/>
@@ -18309,14 +18288,14 @@
       <c r="BV51" s="52"/>
       <c r="BW51" s="55"/>
     </row>
-    <row r="52" spans="9:75" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="I52" s="164">
+    <row r="52" spans="9:75" ht="24" x14ac:dyDescent="0.25">
+      <c r="I52" s="125">
         <v>44291</v>
       </c>
-      <c r="J52" s="164">
+      <c r="J52" s="125">
         <v>44303</v>
       </c>
-      <c r="K52" s="163">
+      <c r="K52" s="124">
         <v>0.7</v>
       </c>
       <c r="AN52" s="19"/>
@@ -18356,14 +18335,14 @@
       <c r="BV52" s="52"/>
       <c r="BW52" s="55"/>
     </row>
-    <row r="53" spans="9:75" ht="18" x14ac:dyDescent="0.35">
-      <c r="I53" s="164">
+    <row r="53" spans="9:75" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I53" s="125">
         <v>44305</v>
       </c>
-      <c r="J53" s="164">
+      <c r="J53" s="125">
         <v>44324</v>
       </c>
-      <c r="K53" s="163">
+      <c r="K53" s="124">
         <v>0</v>
       </c>
       <c r="AN53" s="19"/>
@@ -18403,7 +18382,7 @@
       <c r="BV53" s="52"/>
       <c r="BW53" s="55"/>
     </row>
-    <row r="54" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN54" s="19"/>
       <c r="AO54" s="52"/>
       <c r="AP54" s="52"/>
@@ -18441,7 +18420,7 @@
       <c r="BV54" s="52"/>
       <c r="BW54" s="55"/>
     </row>
-    <row r="55" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN55" s="19"/>
       <c r="AO55" s="52"/>
       <c r="AP55" s="52"/>
@@ -18479,7 +18458,7 @@
       <c r="BV55" s="52"/>
       <c r="BW55" s="55"/>
     </row>
-    <row r="56" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN56" s="19"/>
       <c r="AO56" s="52"/>
       <c r="AP56" s="52"/>
@@ -18517,7 +18496,7 @@
       <c r="BV56" s="52"/>
       <c r="BW56" s="55"/>
     </row>
-    <row r="57" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN57" s="19"/>
       <c r="AO57" s="52"/>
       <c r="AP57" s="52"/>
@@ -18555,7 +18534,7 @@
       <c r="BV57" s="52"/>
       <c r="BW57" s="55"/>
     </row>
-    <row r="58" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN58" s="19"/>
       <c r="AO58" s="52"/>
       <c r="AP58" s="52"/>
@@ -18593,7 +18572,7 @@
       <c r="BV58" s="52"/>
       <c r="BW58" s="55"/>
     </row>
-    <row r="59" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN59" s="19"/>
       <c r="AO59" s="52"/>
       <c r="AP59" s="52"/>
@@ -18631,7 +18610,7 @@
       <c r="BV59" s="52"/>
       <c r="BW59" s="55"/>
     </row>
-    <row r="60" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN60" s="19"/>
       <c r="AO60" s="52"/>
       <c r="AP60" s="52"/>
@@ -18669,7 +18648,7 @@
       <c r="BV60" s="52"/>
       <c r="BW60" s="55"/>
     </row>
-    <row r="61" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN61" s="19"/>
       <c r="AO61" s="52"/>
       <c r="AP61" s="52"/>
@@ -18707,7 +18686,7 @@
       <c r="BV61" s="52"/>
       <c r="BW61" s="55"/>
     </row>
-    <row r="62" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN62" s="19"/>
       <c r="AO62" s="52"/>
       <c r="AP62" s="52"/>
@@ -18745,7 +18724,7 @@
       <c r="BV62" s="52"/>
       <c r="BW62" s="55"/>
     </row>
-    <row r="63" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN63" s="19"/>
       <c r="AO63" s="52"/>
       <c r="AP63" s="52"/>
@@ -18783,7 +18762,7 @@
       <c r="BV63" s="52"/>
       <c r="BW63" s="55"/>
     </row>
-    <row r="64" spans="9:75" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:75" x14ac:dyDescent="0.25">
       <c r="AN64" s="19"/>
       <c r="AO64" s="52"/>
       <c r="AP64" s="52"/>
@@ -18821,7 +18800,7 @@
       <c r="BV64" s="52"/>
       <c r="BW64" s="55"/>
     </row>
-    <row r="65" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="65" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN65" s="19"/>
       <c r="AO65" s="52"/>
       <c r="AP65" s="52"/>
@@ -18859,7 +18838,7 @@
       <c r="BV65" s="52"/>
       <c r="BW65" s="55"/>
     </row>
-    <row r="66" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="66" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN66" s="19"/>
       <c r="AO66" s="52"/>
       <c r="AP66" s="52"/>
@@ -18897,7 +18876,7 @@
       <c r="BV66" s="52"/>
       <c r="BW66" s="55"/>
     </row>
-    <row r="67" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="67" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN67" s="19"/>
       <c r="AO67" s="52"/>
       <c r="AP67" s="52"/>
@@ -18935,7 +18914,7 @@
       <c r="BV67" s="52"/>
       <c r="BW67" s="55"/>
     </row>
-    <row r="68" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="68" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN68" s="19"/>
       <c r="AO68" s="52"/>
       <c r="AP68" s="52"/>
@@ -18973,7 +18952,7 @@
       <c r="BV68" s="52"/>
       <c r="BW68" s="55"/>
     </row>
-    <row r="69" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="69" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN69" s="19"/>
       <c r="AO69" s="52"/>
       <c r="AP69" s="52"/>
@@ -19011,7 +18990,7 @@
       <c r="BV69" s="52"/>
       <c r="BW69" s="55"/>
     </row>
-    <row r="70" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="70" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN70" s="19"/>
       <c r="AO70" s="52"/>
       <c r="AP70" s="52"/>
@@ -19049,7 +19028,7 @@
       <c r="BV70" s="52"/>
       <c r="BW70" s="55"/>
     </row>
-    <row r="71" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="71" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN71" s="19"/>
       <c r="AO71" s="52"/>
       <c r="AP71" s="52"/>
@@ -19087,7 +19066,7 @@
       <c r="BV71" s="52"/>
       <c r="BW71" s="55"/>
     </row>
-    <row r="72" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="72" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN72" s="19"/>
       <c r="AO72" s="52"/>
       <c r="AP72" s="52"/>
@@ -19125,7 +19104,7 @@
       <c r="BV72" s="52"/>
       <c r="BW72" s="55"/>
     </row>
-    <row r="73" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="73" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN73" s="19"/>
       <c r="AO73" s="52"/>
       <c r="AP73" s="52"/>
@@ -19163,7 +19142,7 @@
       <c r="BV73" s="52"/>
       <c r="BW73" s="55"/>
     </row>
-    <row r="74" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="74" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN74" s="19"/>
       <c r="AO74" s="52"/>
       <c r="AP74" s="52"/>
@@ -19201,7 +19180,7 @@
       <c r="BV74" s="52"/>
       <c r="BW74" s="55"/>
     </row>
-    <row r="75" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="75" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN75" s="19"/>
       <c r="AO75" s="52"/>
       <c r="AP75" s="52"/>
@@ -19239,7 +19218,7 @@
       <c r="BV75" s="52"/>
       <c r="BW75" s="55"/>
     </row>
-    <row r="76" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="76" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN76" s="19"/>
       <c r="AO76" s="52"/>
       <c r="AP76" s="52"/>
@@ -19277,7 +19256,7 @@
       <c r="BV76" s="52"/>
       <c r="BW76" s="55"/>
     </row>
-    <row r="77" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="77" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN77" s="19"/>
       <c r="AO77" s="52"/>
       <c r="AP77" s="52"/>
@@ -19315,7 +19294,7 @@
       <c r="BV77" s="52"/>
       <c r="BW77" s="55"/>
     </row>
-    <row r="78" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="78" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN78" s="19"/>
       <c r="AO78" s="52"/>
       <c r="AP78" s="52"/>
@@ -19353,7 +19332,7 @@
       <c r="BV78" s="52"/>
       <c r="BW78" s="55"/>
     </row>
-    <row r="79" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="79" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN79" s="19"/>
       <c r="AO79" s="52"/>
       <c r="AP79" s="52"/>
@@ -19391,7 +19370,7 @@
       <c r="BV79" s="52"/>
       <c r="BW79" s="55"/>
     </row>
-    <row r="80" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="80" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN80" s="19"/>
       <c r="AO80" s="52"/>
       <c r="AP80" s="52"/>
@@ -19429,7 +19408,7 @@
       <c r="BV80" s="52"/>
       <c r="BW80" s="55"/>
     </row>
-    <row r="81" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="81" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN81" s="19"/>
       <c r="AO81" s="52"/>
       <c r="AP81" s="52"/>
@@ -19467,7 +19446,7 @@
       <c r="BV81" s="52"/>
       <c r="BW81" s="55"/>
     </row>
-    <row r="82" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="82" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN82" s="19"/>
       <c r="AO82" s="52"/>
       <c r="AP82" s="52"/>
@@ -19505,7 +19484,7 @@
       <c r="BV82" s="52"/>
       <c r="BW82" s="55"/>
     </row>
-    <row r="83" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="83" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN83" s="19"/>
       <c r="AO83" s="52"/>
       <c r="AP83" s="52"/>
@@ -19543,7 +19522,7 @@
       <c r="BV83" s="52"/>
       <c r="BW83" s="55"/>
     </row>
-    <row r="84" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="84" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN84" s="19"/>
       <c r="AO84" s="52"/>
       <c r="AP84" s="52"/>
@@ -19581,7 +19560,7 @@
       <c r="BV84" s="52"/>
       <c r="BW84" s="55"/>
     </row>
-    <row r="85" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="85" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN85" s="19"/>
       <c r="AO85" s="52"/>
       <c r="AP85" s="52"/>
@@ -19619,7 +19598,7 @@
       <c r="BV85" s="52"/>
       <c r="BW85" s="55"/>
     </row>
-    <row r="86" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="86" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN86" s="19"/>
       <c r="AO86" s="52"/>
       <c r="AP86" s="52"/>
@@ -19657,7 +19636,7 @@
       <c r="BV86" s="52"/>
       <c r="BW86" s="55"/>
     </row>
-    <row r="87" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="87" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN87" s="19"/>
       <c r="AO87" s="52"/>
       <c r="AP87" s="52"/>
@@ -19695,7 +19674,7 @@
       <c r="BV87" s="52"/>
       <c r="BW87" s="55"/>
     </row>
-    <row r="88" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="88" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN88" s="19"/>
       <c r="AO88" s="52"/>
       <c r="AP88" s="52"/>
@@ -19733,7 +19712,7 @@
       <c r="BV88" s="52"/>
       <c r="BW88" s="55"/>
     </row>
-    <row r="89" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="89" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN89" s="19"/>
       <c r="AO89" s="52"/>
       <c r="AP89" s="52"/>
@@ -19771,7 +19750,7 @@
       <c r="BV89" s="52"/>
       <c r="BW89" s="55"/>
     </row>
-    <row r="90" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="90" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN90" s="19"/>
       <c r="AO90" s="52"/>
       <c r="AP90" s="52"/>
@@ -19809,7 +19788,7 @@
       <c r="BV90" s="52"/>
       <c r="BW90" s="55"/>
     </row>
-    <row r="91" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="91" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN91" s="19"/>
       <c r="AO91" s="52"/>
       <c r="AP91" s="52"/>
@@ -19847,7 +19826,7 @@
       <c r="BV91" s="52"/>
       <c r="BW91" s="55"/>
     </row>
-    <row r="92" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="92" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN92" s="19"/>
       <c r="AO92" s="52"/>
       <c r="AP92" s="52"/>
@@ -19885,7 +19864,7 @@
       <c r="BV92" s="52"/>
       <c r="BW92" s="55"/>
     </row>
-    <row r="93" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="93" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN93" s="19"/>
       <c r="AO93" s="52"/>
       <c r="AP93" s="52"/>
@@ -19923,7 +19902,7 @@
       <c r="BV93" s="52"/>
       <c r="BW93" s="55"/>
     </row>
-    <row r="94" spans="40:75" x14ac:dyDescent="0.35">
+    <row r="94" spans="40:75" x14ac:dyDescent="0.25">
       <c r="AN94" s="19"/>
       <c r="AO94" s="52"/>
       <c r="AP94" s="52"/>
@@ -19963,6 +19942,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="BT5:BW5"/>
@@ -19978,23 +19971,9 @@
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="K7:R7 K8 L9 M13:M14 N23:U23 V24:X26 L11:L12 C2 M15:O17 T15 T16:Y17 N18:T22 AB15">
-    <cfRule type="expression" dxfId="122" priority="178">
+    <cfRule type="expression" dxfId="184" priority="178">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20004,187 +19983,187 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="121" priority="150">
+    <cfRule type="expression" dxfId="183" priority="150">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="120" priority="149">
+    <cfRule type="expression" dxfId="182" priority="149">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="expression" dxfId="119" priority="142">
+    <cfRule type="expression" dxfId="181" priority="142">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="118" priority="145">
+    <cfRule type="expression" dxfId="180" priority="145">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="expression" dxfId="117" priority="93">
+    <cfRule type="expression" dxfId="179" priority="93">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="116" priority="144">
+    <cfRule type="expression" dxfId="178" priority="144">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="115" priority="143">
+    <cfRule type="expression" dxfId="177" priority="143">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="114" priority="136">
+    <cfRule type="expression" dxfId="176" priority="136">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="113" priority="71">
+    <cfRule type="expression" dxfId="175" priority="71">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="expression" dxfId="112" priority="131">
+    <cfRule type="expression" dxfId="174" priority="131">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="expression" dxfId="111" priority="106">
+    <cfRule type="expression" dxfId="173" priority="106">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="110" priority="134">
+    <cfRule type="expression" dxfId="172" priority="134">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="109" priority="126">
+    <cfRule type="expression" dxfId="171" priority="126">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="108" priority="103">
+    <cfRule type="expression" dxfId="170" priority="103">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="107" priority="92">
+    <cfRule type="expression" dxfId="169" priority="92">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="106" priority="125">
+    <cfRule type="expression" dxfId="168" priority="125">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="105" priority="124">
+    <cfRule type="expression" dxfId="167" priority="124">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="104" priority="123">
+    <cfRule type="expression" dxfId="166" priority="123">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="103" priority="122">
+    <cfRule type="expression" dxfId="165" priority="122">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="expression" dxfId="102" priority="111">
+    <cfRule type="expression" dxfId="164" priority="111">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="101" priority="114">
+    <cfRule type="expression" dxfId="163" priority="114">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="100" priority="88">
+    <cfRule type="expression" dxfId="162" priority="88">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="99" priority="112">
+    <cfRule type="expression" dxfId="161" priority="112">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="expression" dxfId="98" priority="105">
+    <cfRule type="expression" dxfId="160" priority="105">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="97" priority="109">
+    <cfRule type="expression" dxfId="159" priority="109">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11">
-    <cfRule type="expression" dxfId="96" priority="108">
+    <cfRule type="expression" dxfId="158" priority="108">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="95" priority="107">
+    <cfRule type="expression" dxfId="157" priority="107">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="94" priority="104">
+    <cfRule type="expression" dxfId="156" priority="104">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="93" priority="98">
+    <cfRule type="expression" dxfId="155" priority="98">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13">
-    <cfRule type="expression" dxfId="92" priority="102">
+    <cfRule type="expression" dxfId="154" priority="102">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="expression" dxfId="91" priority="96">
+    <cfRule type="expression" dxfId="153" priority="96">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="90" priority="100">
+    <cfRule type="expression" dxfId="152" priority="100">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="expression" dxfId="89" priority="90">
+    <cfRule type="expression" dxfId="151" priority="90">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="88" priority="97">
+    <cfRule type="expression" dxfId="150" priority="97">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="expression" dxfId="87" priority="89">
+    <cfRule type="expression" dxfId="149" priority="89">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="expression" dxfId="86" priority="91">
+    <cfRule type="expression" dxfId="148" priority="91">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18">
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="147" priority="83">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20203,315 +20182,315 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="84" priority="78">
+    <cfRule type="expression" dxfId="146" priority="78">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="83" priority="77">
+    <cfRule type="expression" dxfId="145" priority="77">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="expression" dxfId="82" priority="76">
+    <cfRule type="expression" dxfId="144" priority="76">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="81" priority="75">
+    <cfRule type="expression" dxfId="143" priority="75">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="80" priority="74">
+    <cfRule type="expression" dxfId="142" priority="74">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="141" priority="73">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="expression" dxfId="78" priority="72">
+    <cfRule type="expression" dxfId="140" priority="72">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="expression" dxfId="77" priority="70">
+    <cfRule type="expression" dxfId="139" priority="70">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="76" priority="69">
+    <cfRule type="expression" dxfId="138" priority="69">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="expression" dxfId="75" priority="68">
+    <cfRule type="expression" dxfId="137" priority="68">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="expression" dxfId="74" priority="67">
+    <cfRule type="expression" dxfId="136" priority="67">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="73" priority="58">
+    <cfRule type="expression" dxfId="135" priority="58">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:W15">
-    <cfRule type="expression" dxfId="72" priority="64">
+    <cfRule type="expression" dxfId="134" priority="64">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="expression" dxfId="71" priority="63">
+    <cfRule type="expression" dxfId="133" priority="63">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="expression" dxfId="70" priority="62">
+    <cfRule type="expression" dxfId="132" priority="62">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="131" priority="61">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="68" priority="60">
+    <cfRule type="expression" dxfId="130" priority="60">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="129" priority="59">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="66" priority="57">
+    <cfRule type="expression" dxfId="128" priority="57">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="65" priority="56">
+    <cfRule type="expression" dxfId="127" priority="56">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="64" priority="55">
+    <cfRule type="expression" dxfId="126" priority="55">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="63" priority="54">
+    <cfRule type="expression" dxfId="125" priority="54">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="62" priority="53">
+    <cfRule type="expression" dxfId="124" priority="53">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="61" priority="52">
+    <cfRule type="expression" dxfId="123" priority="52">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="60" priority="51">
+    <cfRule type="expression" dxfId="122" priority="51">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="expression" dxfId="59" priority="50">
+    <cfRule type="expression" dxfId="121" priority="50">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="58" priority="49">
+    <cfRule type="expression" dxfId="120" priority="49">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD16:AD17 AE16">
-    <cfRule type="expression" dxfId="57" priority="46">
+    <cfRule type="expression" dxfId="119" priority="46">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF16:AF17">
-    <cfRule type="expression" dxfId="56" priority="44">
+    <cfRule type="expression" dxfId="118" priority="44">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17">
-    <cfRule type="expression" dxfId="55" priority="45">
+    <cfRule type="expression" dxfId="117" priority="45">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF18">
-    <cfRule type="expression" dxfId="54" priority="43">
+    <cfRule type="expression" dxfId="116" priority="43">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18">
-    <cfRule type="expression" dxfId="53" priority="42">
+    <cfRule type="expression" dxfId="115" priority="42">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="52" priority="41">
+    <cfRule type="expression" dxfId="114" priority="41">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="expression" dxfId="51" priority="40">
+    <cfRule type="expression" dxfId="113" priority="40">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20:AL20 AN20:AP20">
-    <cfRule type="expression" dxfId="50" priority="39">
+    <cfRule type="expression" dxfId="112" priority="39">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM20">
-    <cfRule type="expression" dxfId="49" priority="38">
+    <cfRule type="expression" dxfId="111" priority="38">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR20">
-    <cfRule type="expression" dxfId="48" priority="33">
+    <cfRule type="expression" dxfId="110" priority="33">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="expression" dxfId="47" priority="32">
+    <cfRule type="expression" dxfId="109" priority="32">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS20:AT20 AV20:AX20">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="108" priority="27">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20">
-    <cfRule type="expression" dxfId="45" priority="26">
+    <cfRule type="expression" dxfId="107" priority="26">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY20">
-    <cfRule type="expression" dxfId="44" priority="23">
+    <cfRule type="expression" dxfId="106" priority="23">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ20:BB20">
-    <cfRule type="expression" dxfId="43" priority="20">
+    <cfRule type="expression" dxfId="105" priority="20">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="104" priority="19">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="41" priority="18">
+    <cfRule type="expression" dxfId="103" priority="18">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG17">
-    <cfRule type="expression" dxfId="40" priority="17">
+    <cfRule type="expression" dxfId="102" priority="17">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17">
-    <cfRule type="expression" dxfId="39" priority="16">
+    <cfRule type="expression" dxfId="101" priority="16">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI17">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="100" priority="15">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ17:AK17">
-    <cfRule type="expression" dxfId="37" priority="14">
+    <cfRule type="expression" dxfId="99" priority="14">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL18 AN18">
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="98" priority="13">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM18">
-    <cfRule type="expression" dxfId="35" priority="12">
+    <cfRule type="expression" dxfId="97" priority="12">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AP19">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="96" priority="11">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19">
-    <cfRule type="expression" dxfId="33" priority="10">
+    <cfRule type="expression" dxfId="95" priority="10">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19">
-    <cfRule type="expression" dxfId="32" priority="9">
+    <cfRule type="expression" dxfId="94" priority="9">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AT19 AV19:AX19">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="93" priority="8">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU19">
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="92" priority="7">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="91" priority="6">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19:BB19">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="90" priority="5">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16:Z17">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="89" priority="4">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16:AC17">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="88" priority="3">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="87" priority="2">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16:AB17">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>AND($D$7&gt;=$P$5,$E$7&gt;=$P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Scrum Master, Product owner, Desarrolladores"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G26" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pendiente, En proceso, Finalizado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20538,29 +20517,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="39" width="9.1796875" customWidth="1"/>
+    <col min="12" max="39" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="100" t="s">
         <v>44</v>
       </c>
@@ -20568,7 +20547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="101" t="s">
         <v>65</v>
       </c>
@@ -20600,7 +20579,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="95" t="s">
         <v>73</v>
       </c>
@@ -20626,7 +20605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="95" t="s">
         <v>76</v>
       </c>
@@ -20652,7 +20631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="97" t="s">
         <v>93</v>
       </c>
@@ -20672,11 +20651,11 @@
       <c r="J9" s="104">
         <v>44310</v>
       </c>
-      <c r="K9" s="133">
+      <c r="K9" s="111">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="97" t="s">
         <v>94</v>
       </c>
@@ -20696,11 +20675,11 @@
       <c r="J10" s="104">
         <v>44310</v>
       </c>
-      <c r="K10" s="133">
+      <c r="K10" s="111">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="97" t="s">
         <v>95</v>
       </c>
@@ -20720,11 +20699,11 @@
       <c r="J11" s="104">
         <v>44310</v>
       </c>
-      <c r="K11" s="133">
+      <c r="K11" s="111">
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="97" t="s">
         <v>96</v>
       </c>
@@ -20746,7 +20725,7 @@
       </c>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="97" t="s">
         <v>97</v>
       </c>
@@ -20768,7 +20747,7 @@
       </c>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
         <v>98</v>
       </c>
@@ -20790,7 +20769,7 @@
       </c>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="95"/>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -20802,7 +20781,7 @@
       <c r="J15" s="94"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="95"/>
       <c r="C16" s="94"/>
       <c r="D16" s="94"/>
@@ -20814,7 +20793,7 @@
       <c r="J16" s="94"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="95"/>
       <c r="C17" s="94"/>
       <c r="D17" s="94"/>
@@ -20826,7 +20805,7 @@
       <c r="J17" s="94"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="95"/>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
@@ -20838,7 +20817,7 @@
       <c r="J18" s="94"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="95"/>
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
@@ -20850,7 +20829,7 @@
       <c r="J19" s="94"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
       <c r="D20" s="98"/>
@@ -20862,171 +20841,171 @@
       <c r="J20" s="98"/>
       <c r="K20" s="99"/>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="164">
+      <c r="J35" s="125">
         <v>44272</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="164">
+      <c r="J36" s="125">
         <v>44272</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>115</v>
       </c>
-      <c r="I37" s="164">
+      <c r="I37" s="125">
         <v>44273</v>
       </c>
-      <c r="J37" s="164">
+      <c r="J37" s="125">
         <v>44282</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>132</v>
       </c>
-      <c r="I38" s="164">
+      <c r="I38" s="125">
         <v>44273</v>
       </c>
-      <c r="J38" s="164">
+      <c r="J38" s="125">
         <v>44282</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C39" s="166" t="s">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="164">
+      <c r="I39" s="125">
         <v>44256</v>
       </c>
-      <c r="J39" s="164">
+      <c r="J39" s="125">
         <v>44261</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C40" s="166" t="s">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="164">
+      <c r="I40" s="125">
         <v>44263</v>
       </c>
-      <c r="J40" s="164">
+      <c r="J40" s="125">
         <v>44268</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C41" s="166" t="s">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="164">
+      <c r="I41" s="125">
         <v>44270</v>
       </c>
-      <c r="J41" s="164">
+      <c r="J41" s="125">
         <v>44282</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C42" s="166" t="s">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="164">
+      <c r="I42" s="125">
         <v>44270</v>
       </c>
-      <c r="J42" s="164">
+      <c r="J42" s="125">
         <v>44282</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C43" s="166" t="s">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I43" s="164">
+      <c r="I43" s="125">
         <v>44291</v>
       </c>
-      <c r="J43" s="164">
+      <c r="J43" s="125">
         <v>44296</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="134"/>
-      <c r="J44" s="164">
+      <c r="G44" s="112"/>
+      <c r="J44" s="125">
         <v>44303</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="164">
+      <c r="J45" s="125">
         <v>44303</v>
       </c>
-      <c r="K45" s="162">
+      <c r="K45" s="123">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="134"/>
-      <c r="J46" s="164">
+      <c r="G46" s="112"/>
+      <c r="J46" s="125">
         <v>44303</v>
       </c>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="K49" s="162">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="123">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="K50" s="162">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="123">
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="K51" s="162">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="123">
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I52" s="164">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I52" s="125">
         <v>44291</v>
       </c>
-      <c r="J52" s="164">
+      <c r="J52" s="125">
         <v>44303</v>
       </c>
-      <c r="K52" s="162">
+      <c r="K52" s="123">
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I53" s="164">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I53" s="125">
         <v>44305</v>
       </c>
-      <c r="J53" s="164">
+      <c r="J53" s="125">
         <v>44324</v>
       </c>
-      <c r="K53" s="162">
+      <c r="K53" s="123">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Si, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"En pausa, En proceso, Finalizado, Pendiente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21038,1059 +21017,1055 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="171"/>
-    <col min="2" max="2" width="70.453125" style="171" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="171" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="172" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" style="171" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11" style="171" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" style="171" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" style="171" customWidth="1"/>
-    <col min="10" max="11" width="13.26953125" style="171" customWidth="1"/>
-    <col min="12" max="39" width="9.1796875" style="171" customWidth="1"/>
-    <col min="40" max="16384" width="9.1796875" style="171"/>
+    <col min="1" max="1" width="9.140625" style="132"/>
+    <col min="2" max="2" width="70.42578125" style="132" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="132" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="133" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="132" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="132" customWidth="1"/>
+    <col min="7" max="7" width="11" style="132" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="132" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="132" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="132" customWidth="1"/>
+    <col min="12" max="39" width="9.140625" style="132" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="132"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="170" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="172"/>
-    </row>
-    <row r="3" spans="2:11" s="176" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="173" t="s">
+    </row>
+    <row r="3" spans="2:11" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="174" t="s">
+      <c r="J3" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="175" t="s">
+      <c r="K3" s="136" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="177" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180" t="s">
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="180" t="s">
+      <c r="H4" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="181">
+      <c r="I4" s="142">
         <v>44060</v>
       </c>
-      <c r="J4" s="181">
+      <c r="J4" s="142">
         <v>44072</v>
       </c>
-      <c r="K4" s="182">
+      <c r="K4" s="143">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="183" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178" t="s">
+      <c r="D5" s="145"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="178" t="s">
+      <c r="H5" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="181">
+      <c r="I5" s="142">
         <v>44060</v>
       </c>
-      <c r="J5" s="181">
+      <c r="J5" s="142">
         <v>44072</v>
       </c>
-      <c r="K5" s="185">
+      <c r="K5" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="183" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="178" t="s">
+      <c r="C6" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="184"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="178" t="s">
+      <c r="H6" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="181">
+      <c r="I6" s="142">
         <v>44074</v>
       </c>
-      <c r="J6" s="181">
+      <c r="J6" s="142">
         <v>44121</v>
       </c>
-      <c r="K6" s="185">
+      <c r="K6" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="186" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="172"/>
-    </row>
-    <row r="11" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="187" t="s">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="188" t="s">
+      <c r="E11" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="188" t="s">
+      <c r="F11" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="188" t="s">
+      <c r="G11" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="188" t="s">
+      <c r="H11" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="188" t="s">
+      <c r="I11" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="188" t="s">
+      <c r="J11" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="189" t="s">
+      <c r="K11" s="150" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="183" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178" t="s">
+      <c r="D12" s="145"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="178" t="s">
+      <c r="H12" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="181">
+      <c r="I12" s="142">
         <v>44117</v>
       </c>
-      <c r="J12" s="181">
+      <c r="J12" s="142">
         <v>44121</v>
       </c>
-      <c r="K12" s="185">
+      <c r="K12" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="183" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="184"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178" t="s">
+      <c r="D13" s="145"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="178" t="s">
+      <c r="H13" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="181">
+      <c r="I13" s="142">
         <v>44117</v>
       </c>
-      <c r="J13" s="181">
+      <c r="J13" s="142">
         <v>44121</v>
       </c>
-      <c r="K13" s="185">
+      <c r="K13" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="190"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="178" t="s">
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="178" t="s">
+      <c r="H14" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="181">
+      <c r="I14" s="142">
         <v>44117</v>
       </c>
-      <c r="J14" s="181">
+      <c r="J14" s="142">
         <v>44121</v>
       </c>
-      <c r="K14" s="185">
+      <c r="K14" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="183" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178" t="s">
+      <c r="D15" s="145"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="178" t="s">
+      <c r="H15" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="181">
+      <c r="I15" s="142">
         <v>44117</v>
       </c>
-      <c r="J15" s="181">
+      <c r="J15" s="142">
         <v>44121</v>
       </c>
-      <c r="K15" s="185">
+      <c r="K15" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="177" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="180" t="s">
+      <c r="C16" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="179"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="180" t="s">
+      <c r="H16" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="181">
+      <c r="I16" s="142">
         <v>44123</v>
       </c>
-      <c r="J16" s="181">
+      <c r="J16" s="142">
         <v>44142</v>
       </c>
-      <c r="K16" s="182">
+      <c r="K16" s="143">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="183" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="184"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178" t="s">
+      <c r="D17" s="145"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="178" t="s">
+      <c r="H17" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="181">
+      <c r="I17" s="142">
         <v>44123</v>
       </c>
-      <c r="J17" s="181">
+      <c r="J17" s="142">
         <v>44142</v>
       </c>
-      <c r="K17" s="185">
+      <c r="K17" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="183" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="184"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178" t="s">
+      <c r="D18" s="145"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="178" t="s">
+      <c r="H18" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="181">
+      <c r="I18" s="142">
         <v>44123</v>
       </c>
-      <c r="J18" s="181">
+      <c r="J18" s="142">
         <v>44142</v>
       </c>
-      <c r="K18" s="185">
+      <c r="K18" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="170" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="172"/>
-    </row>
-    <row r="23" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="192" t="s">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="193" t="s">
+      <c r="C23" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="193" t="s">
+      <c r="D23" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="193" t="s">
+      <c r="E23" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="193" t="s">
+      <c r="F23" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="193" t="s">
+      <c r="G23" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="193" t="s">
+      <c r="H23" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="193" t="s">
+      <c r="I23" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="193" t="s">
+      <c r="J23" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="194" t="s">
+      <c r="K23" s="155" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="195" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="196"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195" t="s">
+      <c r="D24" s="157"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="178" t="s">
+      <c r="H24" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="197">
+      <c r="I24" s="158">
         <v>44144</v>
       </c>
-      <c r="J24" s="197">
+      <c r="J24" s="158">
         <v>44149</v>
       </c>
-      <c r="K24" s="198">
+      <c r="K24" s="159">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="195" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="195" t="s">
+      <c r="C25" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="196"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195" t="s">
+      <c r="D25" s="157"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="178" t="s">
+      <c r="H25" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="197">
+      <c r="I25" s="158">
         <v>44144</v>
       </c>
-      <c r="J25" s="197">
+      <c r="J25" s="158">
         <v>44149</v>
       </c>
-      <c r="K25" s="198">
+      <c r="K25" s="159">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="195" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="195" t="s">
+      <c r="C26" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195" t="s">
+      <c r="D26" s="157"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="178" t="s">
+      <c r="H26" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="197">
+      <c r="I26" s="158">
         <v>44151</v>
       </c>
-      <c r="J26" s="199">
+      <c r="J26" s="160">
         <v>44156</v>
       </c>
-      <c r="K26" s="198">
+      <c r="K26" s="159">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="195" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="195" t="s">
+      <c r="C27" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="196"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195" t="s">
+      <c r="D27" s="157"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="178" t="s">
+      <c r="H27" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="197">
+      <c r="I27" s="158">
         <v>44151</v>
       </c>
-      <c r="J27" s="199">
+      <c r="J27" s="160">
         <v>44156</v>
       </c>
-      <c r="K27" s="198">
+      <c r="K27" s="159">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="195" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="195" t="s">
+      <c r="C28" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="196"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195" t="s">
+      <c r="D28" s="157"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="178" t="s">
+      <c r="H28" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="200">
+      <c r="I28" s="161">
         <v>44158</v>
       </c>
-      <c r="J28" s="200">
+      <c r="J28" s="161">
         <v>44163</v>
       </c>
-      <c r="K28" s="198">
+      <c r="K28" s="159">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="183" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="195" t="s">
+      <c r="C29" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="184"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178" t="s">
+      <c r="D29" s="145"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="178" t="s">
+      <c r="H29" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="181">
+      <c r="I29" s="142">
         <v>44165</v>
       </c>
-      <c r="J29" s="181">
+      <c r="J29" s="142">
         <v>44170</v>
       </c>
-      <c r="K29" s="185">
+      <c r="K29" s="146">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="186" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="172"/>
-    </row>
-    <row r="34" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="201" t="s">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="201" t="s">
+      <c r="C34" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="201" t="s">
+      <c r="D34" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="201" t="s">
+      <c r="E34" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="201" t="s">
+      <c r="F34" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="201" t="s">
+      <c r="G34" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="201" t="s">
+      <c r="H34" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="201" t="s">
+      <c r="I34" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="201" t="s">
+      <c r="J34" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="201" t="s">
+      <c r="K34" s="162" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="202" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="203" t="s">
+      <c r="C35" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="204"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203" t="s">
+      <c r="D35" s="165"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="205"/>
-      <c r="I35" s="197">
+      <c r="H35" s="166"/>
+      <c r="I35" s="158">
         <v>44235</v>
       </c>
-      <c r="J35" s="206">
+      <c r="J35" s="167">
         <v>44244</v>
       </c>
-      <c r="K35" s="207">
+      <c r="K35" s="168">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="208" t="s">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="209" t="s">
+      <c r="C36" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="210"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="209" t="s">
+      <c r="D36" s="171"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="211"/>
-      <c r="I36" s="212">
+      <c r="H36" s="172"/>
+      <c r="I36" s="173">
         <v>44235</v>
       </c>
-      <c r="J36" s="212">
+      <c r="J36" s="173">
         <v>44244</v>
       </c>
-      <c r="K36" s="213">
+      <c r="K36" s="174">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="202" t="s">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="203" t="s">
+      <c r="C37" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="204"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203" t="s">
+      <c r="D37" s="165"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="205"/>
-      <c r="I37" s="197">
+      <c r="H37" s="166"/>
+      <c r="I37" s="158">
         <v>44273</v>
       </c>
-      <c r="J37" s="206">
+      <c r="J37" s="167">
         <v>44254</v>
       </c>
-      <c r="K37" s="207">
+      <c r="K37" s="168">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="208" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="209" t="s">
+      <c r="C38" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="210"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209" t="s">
+      <c r="D38" s="171"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="211"/>
-      <c r="I38" s="212">
+      <c r="H38" s="172"/>
+      <c r="I38" s="173">
         <v>44273</v>
       </c>
-      <c r="J38" s="212">
+      <c r="J38" s="173">
         <v>44254</v>
       </c>
-      <c r="K38" s="213">
+      <c r="K38" s="174">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="202" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="203" t="s">
+      <c r="C39" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="204"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="203"/>
-      <c r="G39" s="203" t="s">
+      <c r="D39" s="165"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="205"/>
-      <c r="I39" s="197">
+      <c r="H39" s="166"/>
+      <c r="I39" s="158">
         <v>44256</v>
       </c>
-      <c r="J39" s="206">
+      <c r="J39" s="167">
         <v>44261</v>
       </c>
-      <c r="K39" s="207">
+      <c r="K39" s="168">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="208" t="s">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="209" t="s">
+      <c r="C40" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="210"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209" t="s">
+      <c r="D40" s="171"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="211"/>
-      <c r="I40" s="212">
+      <c r="H40" s="172"/>
+      <c r="I40" s="173">
         <v>44263</v>
       </c>
-      <c r="J40" s="212">
+      <c r="J40" s="173">
         <v>44268</v>
       </c>
-      <c r="K40" s="213">
+      <c r="K40" s="174">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="202" t="s">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="203" t="s">
+      <c r="C41" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="204"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203" t="s">
+      <c r="D41" s="165"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="205"/>
-      <c r="I41" s="197">
+      <c r="H41" s="166"/>
+      <c r="I41" s="158">
         <v>44270</v>
       </c>
-      <c r="J41" s="206">
+      <c r="J41" s="167">
         <v>44275</v>
       </c>
-      <c r="K41" s="207">
+      <c r="K41" s="168">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:11" s="214" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B42" s="208" t="s">
+    <row r="42" spans="2:11" s="175" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="169" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="209" t="s">
+      <c r="C42" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="210"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="209" t="s">
+      <c r="D42" s="171"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="211"/>
-      <c r="I42" s="212">
+      <c r="H42" s="172"/>
+      <c r="I42" s="173">
         <v>44278</v>
       </c>
-      <c r="J42" s="212">
+      <c r="J42" s="173">
         <v>44296</v>
       </c>
-      <c r="K42" s="213">
+      <c r="K42" s="174">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:11" s="171" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B43" s="202" t="s">
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="203" t="s">
+      <c r="C43" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="204"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203" t="s">
+      <c r="D43" s="165"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="205"/>
-      <c r="I43" s="197">
+      <c r="H43" s="166"/>
+      <c r="I43" s="158">
         <v>44278</v>
       </c>
-      <c r="J43" s="206">
+      <c r="J43" s="167">
         <v>44296</v>
       </c>
-      <c r="K43" s="207">
+      <c r="K43" s="168">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="208" t="s">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="169" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="209" t="s">
+      <c r="C44" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="210"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="209" t="s">
+      <c r="D44" s="171"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="211"/>
-      <c r="I44" s="212">
+      <c r="H44" s="172"/>
+      <c r="I44" s="173">
         <v>44298</v>
       </c>
-      <c r="J44" s="212">
+      <c r="J44" s="173">
         <v>44303</v>
       </c>
-      <c r="K44" s="213">
+      <c r="K44" s="174">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="202" t="s">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="203" t="s">
+      <c r="C45" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="204"/>
-      <c r="E45" s="203"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="203" t="s">
+      <c r="D45" s="165"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="205"/>
-      <c r="I45" s="197">
+      <c r="H45" s="166"/>
+      <c r="I45" s="158">
         <v>44298</v>
       </c>
-      <c r="J45" s="206">
+      <c r="J45" s="167">
         <v>44303</v>
       </c>
-      <c r="K45" s="207">
+      <c r="K45" s="168">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="208" t="s">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="209" t="s">
+      <c r="C46" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="210"/>
-      <c r="E46" s="209"/>
-      <c r="F46" s="209"/>
-      <c r="G46" s="209" t="s">
+      <c r="D46" s="171"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="211"/>
-      <c r="I46" s="212">
+      <c r="H46" s="172"/>
+      <c r="I46" s="173">
         <v>44298</v>
       </c>
-      <c r="J46" s="212">
+      <c r="J46" s="173">
         <v>44303</v>
       </c>
-      <c r="K46" s="213">
+      <c r="K46" s="174">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="202" t="s">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="203"/>
-      <c r="D47" s="204"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203" t="s">
+      <c r="C47" s="164"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="205"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="206"/>
-      <c r="K47" s="207">
+      <c r="H47" s="166"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="168">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="208" t="s">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="209"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="209"/>
-      <c r="F48" s="209"/>
-      <c r="G48" s="209" t="s">
+      <c r="C48" s="170"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="211"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="212"/>
-      <c r="K48" s="213">
+      <c r="H48" s="172"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="173"/>
+      <c r="K48" s="174">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="202" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="203" t="s">
+      <c r="C49" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="204"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203" t="s">
+      <c r="D49" s="165"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="205"/>
-      <c r="I49" s="197">
+      <c r="H49" s="166"/>
+      <c r="I49" s="158">
         <v>44305</v>
       </c>
-      <c r="J49" s="206">
+      <c r="J49" s="167">
         <v>44310</v>
       </c>
-      <c r="K49" s="207">
+      <c r="K49" s="168">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="2:11" s="214" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="208" t="s">
+    <row r="50" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="209" t="s">
+      <c r="C50" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="210"/>
-      <c r="E50" s="209"/>
-      <c r="F50" s="209"/>
-      <c r="G50" s="209" t="s">
+      <c r="D50" s="171"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="211"/>
-      <c r="I50" s="212">
+      <c r="H50" s="172"/>
+      <c r="I50" s="173">
         <v>44305</v>
       </c>
-      <c r="J50" s="212">
+      <c r="J50" s="173">
         <v>44310</v>
       </c>
-      <c r="K50" s="213">
+      <c r="K50" s="174">
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="214" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="202" t="s">
+    <row r="51" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="203" t="s">
+      <c r="C51" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="204"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="203" t="s">
+      <c r="D51" s="165"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="205"/>
-      <c r="I51" s="197">
+      <c r="H51" s="166"/>
+      <c r="I51" s="158">
         <v>44305</v>
       </c>
-      <c r="J51" s="206">
+      <c r="J51" s="167">
         <v>44310</v>
       </c>
-      <c r="K51" s="207">
+      <c r="K51" s="168">
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="214" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="208" t="s">
+    <row r="52" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="209" t="s">
+      <c r="C52" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="210"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="209"/>
-      <c r="G52" s="209" t="s">
+      <c r="D52" s="171"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="211"/>
-      <c r="I52" s="212">
+      <c r="H52" s="172"/>
+      <c r="I52" s="173">
         <v>44291</v>
       </c>
-      <c r="J52" s="212">
+      <c r="J52" s="173">
         <v>44303</v>
       </c>
-      <c r="K52" s="213">
+      <c r="K52" s="174">
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="202" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="203" t="s">
+      <c r="C53" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="204"/>
-      <c r="E53" s="203"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="203" t="s">
+      <c r="D53" s="165"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="205"/>
-      <c r="I53" s="197">
+      <c r="H53" s="166"/>
+      <c r="I53" s="158">
         <v>44305</v>
       </c>
-      <c r="J53" s="206">
+      <c r="J53" s="167">
         <v>44324</v>
       </c>
-      <c r="K53" s="207">
+      <c r="K53" s="168">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:11" s="171" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="215"/>
-      <c r="C54" s="215"/>
-      <c r="D54" s="216"/>
-      <c r="E54" s="215"/>
-      <c r="F54" s="215"/>
-      <c r="G54" s="215"/>
-      <c r="H54" s="215"/>
-      <c r="I54" s="215"/>
-      <c r="J54" s="217"/>
-      <c r="K54" s="215"/>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="176"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="176"/>
+      <c r="H54" s="176"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="178"/>
+      <c r="K54" s="176"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G18 G5:G6 G12:G15 G24:G29 G35:G54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G18 G5:G6 G12:G15 G24:G29 G35:G54" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"En pausa, En proceso, Finalizado, Pendiente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H18 H5:H6 H12:H15 H35 H24:H29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H18 H5:H6 H12:H15 H35 H24:H29" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Si, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22104,35 +22079,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="8" max="39" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="8" max="39" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="132">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="203">
         <v>1</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
@@ -22144,7 +22119,7 @@
       </c>
       <c r="G5" s="109"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
         <v>133</v>
       </c>
@@ -22155,7 +22130,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
         <v>65</v>
       </c>
@@ -22166,258 +22141,258 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="135" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="113" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="135" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="113" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="135" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="113" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="135" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="113" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="135" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="113" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="113" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="95"/>
       <c r="C16" s="94"/>
       <c r="D16" s="94"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="95"/>
       <c r="C17" s="94"/>
       <c r="D17" s="94"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="95"/>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="95"/>
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="95"/>
       <c r="C20" s="94"/>
       <c r="D20" s="94"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="95"/>
       <c r="C21" s="94"/>
       <c r="D21" s="94"/>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="164">
+      <c r="J35" s="125">
         <v>44272</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="164">
+      <c r="J36" s="125">
         <v>44272</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>115</v>
       </c>
-      <c r="I37" s="164">
+      <c r="I37" s="125">
         <v>44273</v>
       </c>
-      <c r="J37" s="164">
+      <c r="J37" s="125">
         <v>44282</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>132</v>
       </c>
-      <c r="I38" s="164">
+      <c r="I38" s="125">
         <v>44273</v>
       </c>
-      <c r="J38" s="164">
+      <c r="J38" s="125">
         <v>44282</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C39" s="166" t="s">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="164">
+      <c r="I39" s="125">
         <v>44256</v>
       </c>
-      <c r="J39" s="164">
+      <c r="J39" s="125">
         <v>44261</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C40" s="166" t="s">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="164">
+      <c r="I40" s="125">
         <v>44263</v>
       </c>
-      <c r="J40" s="164">
+      <c r="J40" s="125">
         <v>44268</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C41" s="166" t="s">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="164">
+      <c r="I41" s="125">
         <v>44270</v>
       </c>
-      <c r="J41" s="164">
+      <c r="J41" s="125">
         <v>44282</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C42" s="166" t="s">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="164">
+      <c r="I42" s="125">
         <v>44270</v>
       </c>
-      <c r="J42" s="164">
+      <c r="J42" s="125">
         <v>44282</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C43" s="166" t="s">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I43" s="164">
+      <c r="I43" s="125">
         <v>44291</v>
       </c>
-      <c r="J43" s="164">
+      <c r="J43" s="125">
         <v>44296</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="134"/>
-      <c r="J44" s="164">
+      <c r="G44" s="112"/>
+      <c r="J44" s="125">
         <v>44303</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="164">
+      <c r="J45" s="125">
         <v>44303</v>
       </c>
-      <c r="K45" s="162">
+      <c r="K45" s="123">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="134"/>
-      <c r="J46" s="164">
+      <c r="G46" s="112"/>
+      <c r="J46" s="125">
         <v>44303</v>
       </c>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="K49" s="162">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="123">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="K50" s="162">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="123">
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="K51" s="162">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="123">
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I52" s="164">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I52" s="125">
         <v>44291</v>
       </c>
-      <c r="J52" s="164">
+      <c r="J52" s="125">
         <v>44303</v>
       </c>
-      <c r="K52" s="162">
+      <c r="K52" s="123">
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I53" s="164">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I53" s="125">
         <v>44305</v>
       </c>
-      <c r="J53" s="164">
+      <c r="J53" s="125">
         <v>44324</v>
       </c>
-      <c r="K53" s="162">
+      <c r="K53" s="123">
         <v>0</v>
       </c>
     </row>
@@ -22427,7 +22402,7 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"En pausa, En proceso, Finalizado, Pendiente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22439,35 +22414,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="132">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="203">
         <v>2</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
@@ -22478,18 +22453,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="114">
         <v>44235</v>
       </c>
       <c r="D6" s="110">
         <v>44254</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
         <v>65</v>
       </c>
@@ -22500,44 +22475,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="135" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="113" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="135" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="113" t="s">
         <v>131</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="135" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="113" t="s">
         <v>115</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="135" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="113" t="s">
         <v>132</v>
       </c>
       <c r="D13" s="94" t="s">
@@ -22550,7 +22525,7 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D13" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"En pausa, En proceso, Finalizado, Pendiente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22562,35 +22537,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="132">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="203">
         <v>3</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
@@ -22601,7 +22576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
         <v>99</v>
       </c>
@@ -22612,7 +22587,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
         <v>65</v>
       </c>
@@ -22623,33 +22598,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="135" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="127" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="135" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="127" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="137" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="127" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="94" t="s">
@@ -22662,7 +22637,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D12" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"En pausa, En proceso, Finalizado, Pendiente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22674,35 +22649,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="132">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="203">
         <v>4</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
@@ -22713,7 +22688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
         <v>99</v>
       </c>
@@ -22724,7 +22699,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
         <v>65</v>
       </c>
@@ -22735,29 +22710,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="138" t="s">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="127" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="138" t="s">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="127" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="97" t="s">
         <v>93</v>
       </c>
@@ -22768,7 +22743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="97" t="s">
         <v>94</v>
       </c>
@@ -22779,7 +22754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
         <v>95</v>
       </c>
@@ -22790,8 +22765,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="168" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="129" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -22807,7 +22782,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"En pausa, En proceso, Finalizado, Pendiente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22819,35 +22794,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="132">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="203">
         <v>5</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
@@ -22858,7 +22833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
         <v>134</v>
       </c>
@@ -22869,7 +22844,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
         <v>65</v>
       </c>
@@ -22880,73 +22855,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="135" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="113" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="135" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="113" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="135" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="113" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="135" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="113" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="94" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="135" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="113" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="94" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="135" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="113" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="97" t="s">
         <v>96</v>
       </c>
@@ -22957,7 +22932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="97" t="s">
         <v>97</v>
       </c>
@@ -22968,7 +22943,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="97" t="s">
         <v>98</v>
       </c>
@@ -22979,8 +22954,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="169" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="130" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="98" t="s">
@@ -22996,7 +22971,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D19" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"En pausa, En proceso, Finalizado, Pendiente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23008,35 +22983,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="132">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="203">
         <v>6</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
@@ -23047,7 +23022,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
         <v>134</v>
       </c>
@@ -23058,7 +23033,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
         <v>65</v>
       </c>
@@ -23069,52 +23044,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="137" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="113" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="135" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="113" t="s">
         <v>135</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="135" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="113" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="94"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="94"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="135"/>
-      <c r="C15" s="167"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="113"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="94"/>
     </row>
   </sheetData>
@@ -23123,7 +23098,7 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D15" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"En pausa, En proceso, Finalizado, Pendiente"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentacion/Proyecto/Cronograma JANFOX.xlsx
+++ b/Documentacion/Proyecto/Cronograma JANFOX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Videojuego\JanFox_V2\Documentacion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF083C6-FBA0-4B92-8F30-074A6743C911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080503B3-D6A7-416E-8AFB-15A85D6FF030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma general" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,26 @@
     <sheet name="Sprint 5" sheetId="11" r:id="rId8"/>
     <sheet name="Sprint 6" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="137">
   <si>
     <t>Completado</t>
   </si>
@@ -445,6 +454,9 @@
   </si>
   <si>
     <t>Andres, Natalia y Janel</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -1716,10 +1728,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,25 +1807,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,22 +1816,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4277,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:QO94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,20 +4451,20 @@
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
       <c r="G3" s="86"/>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="195"/>
+      <c r="I3" s="185"/>
       <c r="J3" s="69"/>
-      <c r="K3" s="195" t="s">
+      <c r="K3" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="195"/>
+      <c r="L3" s="185"/>
       <c r="M3" s="72"/>
-      <c r="N3" s="196" t="s">
+      <c r="N3" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="196"/>
+      <c r="O3" s="185"/>
       <c r="P3" s="62"/>
       <c r="BX3" s="79"/>
       <c r="BY3" s="80"/>
@@ -4515,10 +4525,10 @@
     </row>
     <row r="5" spans="1:457" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="199" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="68" t="s">
@@ -4527,114 +4537,114 @@
       <c r="E5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="186" t="s">
+      <c r="F5" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="183" t="s">
+      <c r="H5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179" t="s">
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179" t="s">
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179" t="s">
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="188"/>
+      <c r="T5" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="179" t="s">
+      <c r="U5" s="188"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="188"/>
+      <c r="X5" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="179" t="s">
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="179"/>
-      <c r="AF5" s="179" t="s">
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
+      <c r="AE5" s="188"/>
+      <c r="AF5" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="179"/>
-      <c r="AI5" s="179"/>
-      <c r="AJ5" s="179" t="s">
+      <c r="AG5" s="188"/>
+      <c r="AH5" s="188"/>
+      <c r="AI5" s="188"/>
+      <c r="AJ5" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="AK5" s="179"/>
-      <c r="AL5" s="179"/>
-      <c r="AM5" s="179"/>
-      <c r="AN5" s="179" t="s">
+      <c r="AK5" s="188"/>
+      <c r="AL5" s="188"/>
+      <c r="AM5" s="188"/>
+      <c r="AN5" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="AO5" s="179"/>
-      <c r="AP5" s="179"/>
-      <c r="AQ5" s="179"/>
-      <c r="AR5" s="179" t="s">
+      <c r="AO5" s="188"/>
+      <c r="AP5" s="188"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="179"/>
-      <c r="AT5" s="179"/>
-      <c r="AU5" s="179"/>
-      <c r="AV5" s="179" t="s">
+      <c r="AS5" s="188"/>
+      <c r="AT5" s="188"/>
+      <c r="AU5" s="188"/>
+      <c r="AV5" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="179"/>
-      <c r="AX5" s="179"/>
-      <c r="AY5" s="179"/>
-      <c r="AZ5" s="179" t="s">
+      <c r="AW5" s="188"/>
+      <c r="AX5" s="188"/>
+      <c r="AY5" s="188"/>
+      <c r="AZ5" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="BA5" s="179"/>
-      <c r="BB5" s="179"/>
-      <c r="BC5" s="179"/>
-      <c r="BD5" s="179" t="s">
+      <c r="BA5" s="188"/>
+      <c r="BB5" s="188"/>
+      <c r="BC5" s="188"/>
+      <c r="BD5" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="BE5" s="179"/>
-      <c r="BF5" s="179"/>
-      <c r="BG5" s="179"/>
-      <c r="BH5" s="179" t="s">
+      <c r="BE5" s="188"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="188"/>
+      <c r="BH5" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="BI5" s="179"/>
-      <c r="BJ5" s="179"/>
-      <c r="BK5" s="179"/>
-      <c r="BL5" s="179" t="s">
+      <c r="BI5" s="188"/>
+      <c r="BJ5" s="188"/>
+      <c r="BK5" s="188"/>
+      <c r="BL5" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="BM5" s="179"/>
-      <c r="BN5" s="179"/>
-      <c r="BO5" s="179"/>
-      <c r="BP5" s="179" t="s">
+      <c r="BM5" s="188"/>
+      <c r="BN5" s="188"/>
+      <c r="BO5" s="188"/>
+      <c r="BP5" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="BQ5" s="179"/>
-      <c r="BR5" s="179"/>
-      <c r="BS5" s="179"/>
-      <c r="BT5" s="179" t="s">
+      <c r="BQ5" s="188"/>
+      <c r="BR5" s="188"/>
+      <c r="BS5" s="188"/>
+      <c r="BT5" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="179"/>
-      <c r="BV5" s="179"/>
-      <c r="BW5" s="180"/>
+      <c r="BU5" s="188"/>
+      <c r="BV5" s="188"/>
+      <c r="BW5" s="206"/>
       <c r="BX5" s="56"/>
       <c r="BY5" s="53"/>
       <c r="BZ5" s="53"/>
@@ -5020,12 +5030,12 @@
     </row>
     <row r="6" spans="1:457" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="189"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="200"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="185"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="196"/>
       <c r="H6" s="51" t="s">
         <v>26</v>
       </c>
@@ -5255,7 +5265,7 @@
     </row>
     <row r="7" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="189" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -5700,7 +5710,7 @@
     </row>
     <row r="8" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="200"/>
+      <c r="B8" s="190"/>
       <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
@@ -6143,7 +6153,7 @@
     </row>
     <row r="9" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="201" t="s">
+      <c r="B9" s="191" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6588,7 +6598,7 @@
     </row>
     <row r="10" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="181"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
@@ -7031,7 +7041,7 @@
     </row>
     <row r="11" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="181"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
@@ -7474,7 +7484,7 @@
     </row>
     <row r="12" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
-      <c r="B12" s="181"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
@@ -7917,7 +7927,7 @@
     </row>
     <row r="13" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="181"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
@@ -8360,7 +8370,7 @@
     </row>
     <row r="14" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="181"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
@@ -8803,7 +8813,7 @@
     </row>
     <row r="15" spans="1:457" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="186" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -9248,7 +9258,7 @@
     </row>
     <row r="16" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="198"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="48" t="s">
         <v>47</v>
       </c>
@@ -9687,7 +9697,7 @@
     </row>
     <row r="17" spans="1:452" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="203" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -10128,7 +10138,7 @@
     </row>
     <row r="18" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
-      <c r="B18" s="193"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="49" t="s">
         <v>50</v>
       </c>
@@ -10571,7 +10581,7 @@
     </row>
     <row r="19" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="193"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="49" t="s">
         <v>51</v>
       </c>
@@ -11010,7 +11020,7 @@
     </row>
     <row r="20" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="193"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="49" t="s">
         <v>119</v>
       </c>
@@ -11449,7 +11459,7 @@
     </row>
     <row r="21" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="193"/>
+      <c r="B21" s="204"/>
       <c r="C21" s="49" t="s">
         <v>55</v>
       </c>
@@ -11888,7 +11898,7 @@
     </row>
     <row r="22" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="194"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="49" t="s">
         <v>56</v>
       </c>
@@ -12327,7 +12337,7 @@
     </row>
     <row r="23" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="192" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -12772,7 +12782,7 @@
     </row>
     <row r="24" spans="1:452" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="181"/>
+      <c r="B24" s="192"/>
       <c r="C24" s="9" t="s">
         <v>59</v>
       </c>
@@ -13209,15 +13219,15 @@
       <c r="QI24" s="4"/>
       <c r="QJ24" s="4"/>
     </row>
-    <row r="25" spans="1:452" s="209" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="204"/>
-      <c r="B25" s="182"/>
+    <row r="25" spans="1:452" s="184" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="179"/>
+      <c r="B25" s="193"/>
       <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="205" t="s">
+      <c r="F25" s="180" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="88" t="s">
@@ -13290,29 +13300,29 @@
       <c r="BT25" s="119"/>
       <c r="BU25" s="119"/>
       <c r="BV25" s="119"/>
-      <c r="BW25" s="206"/>
-      <c r="BX25" s="207"/>
-      <c r="BY25" s="208"/>
-      <c r="BZ25" s="208"/>
-      <c r="CA25" s="208"/>
-      <c r="CB25" s="208"/>
-      <c r="CC25" s="208"/>
-      <c r="CD25" s="208"/>
-      <c r="CE25" s="208"/>
-      <c r="CF25" s="208"/>
-      <c r="CG25" s="208"/>
-      <c r="CH25" s="208"/>
-      <c r="CI25" s="208"/>
-      <c r="CJ25" s="208"/>
-      <c r="CK25" s="208"/>
-      <c r="CL25" s="208"/>
-      <c r="CM25" s="208"/>
-      <c r="CN25" s="208"/>
-      <c r="CO25" s="208"/>
-      <c r="CP25" s="208"/>
-      <c r="CQ25" s="208"/>
-      <c r="CR25" s="208"/>
-      <c r="CS25" s="208"/>
+      <c r="BW25" s="181"/>
+      <c r="BX25" s="182"/>
+      <c r="BY25" s="183"/>
+      <c r="BZ25" s="183"/>
+      <c r="CA25" s="183"/>
+      <c r="CB25" s="183"/>
+      <c r="CC25" s="183"/>
+      <c r="CD25" s="183"/>
+      <c r="CE25" s="183"/>
+      <c r="CF25" s="183"/>
+      <c r="CG25" s="183"/>
+      <c r="CH25" s="183"/>
+      <c r="CI25" s="183"/>
+      <c r="CJ25" s="183"/>
+      <c r="CK25" s="183"/>
+      <c r="CL25" s="183"/>
+      <c r="CM25" s="183"/>
+      <c r="CN25" s="183"/>
+      <c r="CO25" s="183"/>
+      <c r="CP25" s="183"/>
+      <c r="CQ25" s="183"/>
+      <c r="CR25" s="183"/>
+      <c r="CS25" s="183"/>
       <c r="CT25" s="119"/>
       <c r="CU25" s="119"/>
       <c r="CV25" s="119"/>
@@ -17471,18 +17481,14 @@
     <row r="35" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="16" t="s">
-        <v>53</v>
-      </c>
+      <c r="C35" s="16"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="91"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="126">
-        <v>44272</v>
-      </c>
+      <c r="J35" s="126"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -17538,18 +17544,14 @@
     <row r="36" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="16" t="s">
-        <v>131</v>
-      </c>
+      <c r="C36" s="16"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="91"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="126">
-        <v>44272</v>
-      </c>
+      <c r="J36" s="126"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
@@ -17604,20 +17606,13 @@
     </row>
     <row r="37" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="C37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="91"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="126">
-        <v>44273</v>
-      </c>
-      <c r="J37" s="126">
-        <v>44282</v>
-      </c>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -17671,15 +17666,13 @@
       <c r="BW37" s="55"/>
     </row>
     <row r="38" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" s="126">
-        <v>44273</v>
-      </c>
-      <c r="J38" s="126">
-        <v>44282</v>
-      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
       <c r="AN38" s="19"/>
       <c r="AO38" s="52"/>
       <c r="AP38" s="52"/>
@@ -17718,15 +17711,13 @@
       <c r="BW38" s="55"/>
     </row>
     <row r="39" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="125">
-        <v>44256</v>
-      </c>
-      <c r="J39" s="125">
-        <v>44261</v>
-      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="209"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
       <c r="AN39" s="19"/>
       <c r="AO39" s="52"/>
       <c r="AP39" s="52"/>
@@ -17765,15 +17756,13 @@
       <c r="BW39" s="55"/>
     </row>
     <row r="40" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="125">
-        <v>44263</v>
-      </c>
-      <c r="J40" s="125">
-        <v>44268</v>
-      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
       <c r="AN40" s="19"/>
       <c r="AO40" s="52"/>
       <c r="AP40" s="52"/>
@@ -17812,15 +17801,13 @@
       <c r="BW40" s="55"/>
     </row>
     <row r="41" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="125">
-        <v>44270</v>
-      </c>
-      <c r="J41" s="125">
-        <v>44282</v>
-      </c>
+      <c r="B41" s="73"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
       <c r="AN41" s="19"/>
       <c r="AO41" s="52"/>
       <c r="AP41" s="52"/>
@@ -17859,15 +17846,13 @@
       <c r="BW41" s="55"/>
     </row>
     <row r="42" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="125">
-        <v>44270</v>
-      </c>
-      <c r="J42" s="125">
-        <v>44282</v>
-      </c>
+      <c r="B42" s="73"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
       <c r="AN42" s="19"/>
       <c r="AO42" s="52"/>
       <c r="AP42" s="52"/>
@@ -17906,15 +17891,13 @@
       <c r="BW42" s="55"/>
     </row>
     <row r="43" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="125">
-        <v>44291</v>
-      </c>
-      <c r="J43" s="125">
-        <v>44296</v>
-      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
       <c r="AN43" s="19"/>
       <c r="AO43" s="52"/>
       <c r="AP43" s="52"/>
@@ -17953,13 +17936,13 @@
       <c r="BW43" s="55"/>
     </row>
     <row r="44" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
       <c r="G44" s="122"/>
-      <c r="J44" s="125">
-        <v>44303</v>
-      </c>
+      <c r="J44" s="125"/>
       <c r="AN44" s="19"/>
       <c r="AO44" s="52"/>
       <c r="AP44" s="52"/>
@@ -17997,16 +17980,9 @@
       <c r="BV44" s="52"/>
       <c r="BW44" s="55"/>
     </row>
-    <row r="45" spans="1:452" ht="24" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="125">
-        <v>44303</v>
-      </c>
-      <c r="K45" s="124">
-        <v>0.9</v>
-      </c>
+    <row r="45" spans="1:452" x14ac:dyDescent="0.25">
+      <c r="J45" s="125"/>
+      <c r="K45" s="124"/>
       <c r="AN45" s="19"/>
       <c r="AO45" s="52"/>
       <c r="AP45" s="52"/>
@@ -18045,13 +18021,8 @@
       <c r="BW45" s="55"/>
     </row>
     <row r="46" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G46" s="122"/>
-      <c r="J46" s="125">
-        <v>44303</v>
-      </c>
+      <c r="J46" s="125"/>
       <c r="AN46" s="19"/>
       <c r="AO46" s="52"/>
       <c r="AP46" s="52"/>
@@ -18165,10 +18136,8 @@
       <c r="BV48" s="52"/>
       <c r="BW48" s="55"/>
     </row>
-    <row r="49" spans="9:75" ht="24" x14ac:dyDescent="0.25">
-      <c r="K49" s="124">
-        <v>0.2</v>
-      </c>
+    <row r="49" spans="9:75" x14ac:dyDescent="0.25">
+      <c r="K49" s="124"/>
       <c r="AN49" s="19"/>
       <c r="AO49" s="52"/>
       <c r="AP49" s="52"/>
@@ -18206,10 +18175,8 @@
       <c r="BV49" s="52"/>
       <c r="BW49" s="55"/>
     </row>
-    <row r="50" spans="9:75" ht="24" x14ac:dyDescent="0.25">
-      <c r="K50" s="124">
-        <v>0.2</v>
-      </c>
+    <row r="50" spans="9:75" x14ac:dyDescent="0.25">
+      <c r="K50" s="124"/>
       <c r="AN50" s="19"/>
       <c r="AO50" s="52"/>
       <c r="AP50" s="52"/>
@@ -18247,10 +18214,8 @@
       <c r="BV50" s="52"/>
       <c r="BW50" s="55"/>
     </row>
-    <row r="51" spans="9:75" ht="24" x14ac:dyDescent="0.25">
-      <c r="K51" s="124">
-        <v>0.2</v>
-      </c>
+    <row r="51" spans="9:75" x14ac:dyDescent="0.25">
+      <c r="K51" s="124"/>
       <c r="AN51" s="19"/>
       <c r="AO51" s="52"/>
       <c r="AP51" s="52"/>
@@ -18288,16 +18253,10 @@
       <c r="BV51" s="52"/>
       <c r="BW51" s="55"/>
     </row>
-    <row r="52" spans="9:75" ht="24" x14ac:dyDescent="0.25">
-      <c r="I52" s="125">
-        <v>44291</v>
-      </c>
-      <c r="J52" s="125">
-        <v>44303</v>
-      </c>
-      <c r="K52" s="124">
-        <v>0.7</v>
-      </c>
+    <row r="52" spans="9:75" x14ac:dyDescent="0.25">
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="124"/>
       <c r="AN52" s="19"/>
       <c r="AO52" s="52"/>
       <c r="AP52" s="52"/>
@@ -18335,16 +18294,10 @@
       <c r="BV52" s="52"/>
       <c r="BW52" s="55"/>
     </row>
-    <row r="53" spans="9:75" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I53" s="125">
-        <v>44305</v>
-      </c>
-      <c r="J53" s="125">
-        <v>44324</v>
-      </c>
-      <c r="K53" s="124">
-        <v>0</v>
-      </c>
+    <row r="53" spans="9:75" x14ac:dyDescent="0.25">
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="124"/>
       <c r="AN53" s="19"/>
       <c r="AO53" s="52"/>
       <c r="AP53" s="52"/>
@@ -19942,20 +19895,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B17:B22"/>
     <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="BT5:BW5"/>
@@ -19971,6 +19910,20 @@
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="K7:R7 K8 L9 M13:M14 N23:U23 V24:X26 L11:L12 C2 M15:O17 T15 T16:Y17 N18:T22 AB15">
     <cfRule type="expression" dxfId="184" priority="178">
@@ -20520,8 +20473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20666,17 +20619,19 @@
       <c r="E10" s="94"/>
       <c r="F10" s="94"/>
       <c r="G10" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="94"/>
+        <v>33</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>136</v>
+      </c>
       <c r="I10" s="104">
         <v>44278</v>
       </c>
       <c r="J10" s="104">
         <v>44310</v>
       </c>
-      <c r="K10" s="111">
-        <v>0.2</v>
+      <c r="K10" s="105">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -20690,17 +20645,19 @@
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
       <c r="G11" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="94"/>
+        <v>33</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>136</v>
+      </c>
       <c r="I11" s="104">
         <v>44278</v>
       </c>
       <c r="J11" s="104">
         <v>44310</v>
       </c>
-      <c r="K11" s="111">
-        <v>0.2</v>
+      <c r="K11" s="105">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -21020,8 +20977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21032,7 +20989,7 @@
     <col min="4" max="4" width="17.28515625" style="133" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="132" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="132" customWidth="1"/>
-    <col min="7" max="7" width="11" style="132" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="132" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="132" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" style="132" customWidth="1"/>
     <col min="10" max="11" width="13.28515625" style="132" customWidth="1"/>
@@ -22094,18 +22051,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="203">
+      <c r="B3" s="208">
         <v>1</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
@@ -22418,7 +22375,7 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22429,18 +22386,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="203">
+      <c r="B3" s="208">
         <v>2</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
@@ -22552,18 +22509,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="203">
+      <c r="B3" s="208">
         <v>3</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
@@ -22664,18 +22621,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="203">
+      <c r="B3" s="208">
         <v>4</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
@@ -22797,8 +22754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22809,18 +22766,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="203">
+      <c r="B3" s="208">
         <v>5</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
@@ -22918,7 +22875,7 @@
         <v>115</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -22998,18 +22955,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="203">
+      <c r="B3" s="208">
         <v>6</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">

--- a/Documentacion/Proyecto/Cronograma JANFOX.xlsx
+++ b/Documentacion/Proyecto/Cronograma JANFOX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Videojuego\JanFox_V2\Documentacion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080503B3-D6A7-416E-8AFB-15A85D6FF030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E1DB7-260D-4192-AF34-F046F3745A70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma general" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="135">
   <si>
     <t>Completado</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Maquetación Niveles</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
   <si>
     <t>Desarrollo</t>
@@ -454,9 +451,6 @@
   </si>
   <si>
     <t>Andres, Natalia y Janel</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1546,7 +1540,6 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1744,25 +1737,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1807,7 +1786,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,7 +1810,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4288,7 +4281,7 @@
   <dimension ref="A1:QO94"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,20 +4444,20 @@
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
       <c r="G3" s="86"/>
-      <c r="H3" s="185" t="s">
+      <c r="H3" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="185"/>
+      <c r="I3" s="201"/>
       <c r="J3" s="69"/>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="185"/>
+      <c r="L3" s="201"/>
       <c r="M3" s="72"/>
-      <c r="N3" s="185" t="s">
+      <c r="N3" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="185"/>
+      <c r="O3" s="201"/>
       <c r="P3" s="62"/>
       <c r="BX3" s="79"/>
       <c r="BY3" s="80"/>
@@ -4525,10 +4518,10 @@
     </row>
     <row r="5" spans="1:457" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="194" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="68" t="s">
@@ -4537,114 +4530,114 @@
       <c r="E5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="197" t="s">
+      <c r="F5" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="195" t="s">
+      <c r="G5" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="194" t="s">
+      <c r="H5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188" t="s">
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188" t="s">
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="188"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="188" t="s">
+      <c r="Q5" s="185"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="188"/>
-      <c r="V5" s="188"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188" t="s">
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="188"/>
-      <c r="AA5" s="188"/>
-      <c r="AB5" s="188" t="s">
+      <c r="Y5" s="185"/>
+      <c r="Z5" s="185"/>
+      <c r="AA5" s="185"/>
+      <c r="AB5" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="188" t="s">
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="188"/>
-      <c r="AJ5" s="188" t="s">
+      <c r="AG5" s="185"/>
+      <c r="AH5" s="185"/>
+      <c r="AI5" s="185"/>
+      <c r="AJ5" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="AK5" s="188"/>
-      <c r="AL5" s="188"/>
-      <c r="AM5" s="188"/>
-      <c r="AN5" s="188" t="s">
+      <c r="AK5" s="185"/>
+      <c r="AL5" s="185"/>
+      <c r="AM5" s="185"/>
+      <c r="AN5" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="AO5" s="188"/>
-      <c r="AP5" s="188"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="188" t="s">
+      <c r="AO5" s="185"/>
+      <c r="AP5" s="185"/>
+      <c r="AQ5" s="185"/>
+      <c r="AR5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="188"/>
-      <c r="AT5" s="188"/>
-      <c r="AU5" s="188"/>
-      <c r="AV5" s="188" t="s">
+      <c r="AS5" s="185"/>
+      <c r="AT5" s="185"/>
+      <c r="AU5" s="185"/>
+      <c r="AV5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="188"/>
-      <c r="AX5" s="188"/>
-      <c r="AY5" s="188"/>
-      <c r="AZ5" s="188" t="s">
+      <c r="AW5" s="185"/>
+      <c r="AX5" s="185"/>
+      <c r="AY5" s="185"/>
+      <c r="AZ5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="BA5" s="188"/>
-      <c r="BB5" s="188"/>
-      <c r="BC5" s="188"/>
-      <c r="BD5" s="188" t="s">
+      <c r="BA5" s="185"/>
+      <c r="BB5" s="185"/>
+      <c r="BC5" s="185"/>
+      <c r="BD5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="BE5" s="188"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="188"/>
-      <c r="BH5" s="188" t="s">
+      <c r="BE5" s="185"/>
+      <c r="BF5" s="185"/>
+      <c r="BG5" s="185"/>
+      <c r="BH5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="BI5" s="188"/>
-      <c r="BJ5" s="188"/>
-      <c r="BK5" s="188"/>
-      <c r="BL5" s="188" t="s">
+      <c r="BI5" s="185"/>
+      <c r="BJ5" s="185"/>
+      <c r="BK5" s="185"/>
+      <c r="BL5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="BM5" s="188"/>
-      <c r="BN5" s="188"/>
-      <c r="BO5" s="188"/>
-      <c r="BP5" s="188" t="s">
+      <c r="BM5" s="185"/>
+      <c r="BN5" s="185"/>
+      <c r="BO5" s="185"/>
+      <c r="BP5" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="BQ5" s="188"/>
-      <c r="BR5" s="188"/>
-      <c r="BS5" s="188"/>
-      <c r="BT5" s="188" t="s">
+      <c r="BQ5" s="185"/>
+      <c r="BR5" s="185"/>
+      <c r="BS5" s="185"/>
+      <c r="BT5" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="188"/>
-      <c r="BV5" s="188"/>
-      <c r="BW5" s="206"/>
+      <c r="BU5" s="185"/>
+      <c r="BV5" s="185"/>
+      <c r="BW5" s="186"/>
       <c r="BX5" s="56"/>
       <c r="BY5" s="53"/>
       <c r="BZ5" s="53"/>
@@ -5030,12 +5023,12 @@
     </row>
     <row r="6" spans="1:457" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="200"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="196"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="191"/>
       <c r="H6" s="51" t="s">
         <v>26</v>
       </c>
@@ -5265,7 +5258,7 @@
     </row>
     <row r="7" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="204" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -5323,7 +5316,7 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
       <c r="AU7" s="66"/>
-      <c r="AV7" s="119"/>
+      <c r="AV7" s="118"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
       <c r="AY7" s="66"/>
@@ -5710,7 +5703,7 @@
     </row>
     <row r="8" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="190"/>
+      <c r="B8" s="205"/>
       <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
@@ -6153,7 +6146,7 @@
     </row>
     <row r="9" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="206" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6598,7 +6591,7 @@
     </row>
     <row r="10" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="192"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
@@ -7041,7 +7034,7 @@
     </row>
     <row r="11" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="192"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
@@ -7484,7 +7477,7 @@
     </row>
     <row r="12" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
-      <c r="B12" s="192"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
@@ -7927,7 +7920,7 @@
     </row>
     <row r="13" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="192"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
@@ -8370,7 +8363,7 @@
     </row>
     <row r="14" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="192"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
@@ -8813,7 +8806,7 @@
     </row>
     <row r="15" spans="1:457" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="202" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -9258,7 +9251,7 @@
     </row>
     <row r="16" spans="1:457" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="187"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="48" t="s">
         <v>47</v>
       </c>
@@ -9268,7 +9261,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -9321,10 +9314,10 @@
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
       <c r="BF16" s="4"/>
-      <c r="BG16" s="117"/>
-      <c r="BH16" s="118"/>
-      <c r="BI16" s="118"/>
-      <c r="BJ16" s="118"/>
+      <c r="BG16" s="116"/>
+      <c r="BH16" s="117"/>
+      <c r="BI16" s="117"/>
+      <c r="BJ16" s="117"/>
       <c r="BK16" s="66"/>
       <c r="BL16" s="4"/>
       <c r="BM16" s="4"/>
@@ -9697,11 +9690,11 @@
     </row>
     <row r="17" spans="1:452" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="203" t="s">
-        <v>49</v>
+      <c r="B17" s="198" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -10138,9 +10131,9 @@
     </row>
     <row r="18" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
-      <c r="B18" s="204"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6">
         <v>43985</v>
@@ -10581,9 +10574,9 @@
     </row>
     <row r="19" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="204"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -11020,9 +11013,9 @@
     </row>
     <row r="20" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="204"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -11030,7 +11023,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="88" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -11079,14 +11072,14 @@
       <c r="AZ20" s="8"/>
       <c r="BA20" s="69"/>
       <c r="BB20" s="69"/>
-      <c r="BC20" s="117"/>
-      <c r="BD20" s="118"/>
-      <c r="BE20" s="118"/>
-      <c r="BF20" s="118"/>
-      <c r="BG20" s="117"/>
-      <c r="BH20" s="118"/>
-      <c r="BI20" s="118"/>
-      <c r="BJ20" s="118"/>
+      <c r="BC20" s="116"/>
+      <c r="BD20" s="117"/>
+      <c r="BE20" s="117"/>
+      <c r="BF20" s="117"/>
+      <c r="BG20" s="116"/>
+      <c r="BH20" s="117"/>
+      <c r="BI20" s="117"/>
+      <c r="BJ20" s="117"/>
       <c r="BK20" s="66"/>
       <c r="BL20" s="4"/>
       <c r="BM20" s="4"/>
@@ -11459,9 +11452,9 @@
     </row>
     <row r="21" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="204"/>
+      <c r="B21" s="199"/>
       <c r="C21" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -11469,7 +11462,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="88" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -11521,11 +11514,11 @@
       <c r="BC21" s="66"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
-      <c r="BF21" s="119"/>
-      <c r="BG21" s="117"/>
-      <c r="BH21" s="118"/>
-      <c r="BI21" s="118"/>
-      <c r="BJ21" s="119"/>
+      <c r="BF21" s="118"/>
+      <c r="BG21" s="116"/>
+      <c r="BH21" s="117"/>
+      <c r="BI21" s="117"/>
+      <c r="BJ21" s="118"/>
       <c r="BK21" s="66"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
@@ -11898,9 +11891,9 @@
     </row>
     <row r="22" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="205"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -11908,7 +11901,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="88" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -11961,12 +11954,12 @@
       <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
       <c r="BF22" s="4"/>
-      <c r="BG22" s="120"/>
-      <c r="BH22" s="118"/>
-      <c r="BI22" s="118"/>
-      <c r="BJ22" s="118"/>
-      <c r="BK22" s="117"/>
-      <c r="BL22" s="119"/>
+      <c r="BG22" s="119"/>
+      <c r="BH22" s="117"/>
+      <c r="BI22" s="117"/>
+      <c r="BJ22" s="117"/>
+      <c r="BK22" s="116"/>
+      <c r="BL22" s="118"/>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
       <c r="BO22" s="66"/>
@@ -12337,11 +12330,11 @@
     </row>
     <row r="23" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="192" t="s">
+      <c r="B23" s="187" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D23" s="6">
         <v>44372</v>
@@ -12353,7 +12346,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="88" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -12408,13 +12401,13 @@
       <c r="BF23" s="4"/>
       <c r="BG23" s="66"/>
       <c r="BH23" s="4"/>
-      <c r="BI23" s="119"/>
-      <c r="BJ23" s="119"/>
-      <c r="BK23" s="117"/>
-      <c r="BL23" s="118"/>
-      <c r="BM23" s="119"/>
-      <c r="BN23" s="119"/>
-      <c r="BO23" s="120"/>
+      <c r="BI23" s="118"/>
+      <c r="BJ23" s="118"/>
+      <c r="BK23" s="116"/>
+      <c r="BL23" s="117"/>
+      <c r="BM23" s="118"/>
+      <c r="BN23" s="118"/>
+      <c r="BO23" s="119"/>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="4"/>
       <c r="BR23" s="4"/>
@@ -12782,9 +12775,9 @@
     </row>
     <row r="24" spans="1:452" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="192"/>
+      <c r="B24" s="187"/>
       <c r="C24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -12792,7 +12785,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="88" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
@@ -12849,11 +12842,11 @@
       <c r="BH24" s="4"/>
       <c r="BI24" s="4"/>
       <c r="BJ24" s="4"/>
-      <c r="BK24" s="120"/>
-      <c r="BL24" s="118"/>
-      <c r="BM24" s="119"/>
-      <c r="BN24" s="119"/>
-      <c r="BO24" s="120"/>
+      <c r="BK24" s="119"/>
+      <c r="BL24" s="117"/>
+      <c r="BM24" s="118"/>
+      <c r="BN24" s="118"/>
+      <c r="BO24" s="119"/>
       <c r="BP24" s="4"/>
       <c r="BQ24" s="4"/>
       <c r="BR24" s="4"/>
@@ -13219,19 +13212,19 @@
       <c r="QI24" s="4"/>
       <c r="QJ24" s="4"/>
     </row>
-    <row r="25" spans="1:452" s="184" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="179"/>
-      <c r="B25" s="193"/>
+    <row r="25" spans="1:452" s="183" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="178"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="180" t="s">
-        <v>61</v>
+      <c r="F25" s="179" t="s">
+        <v>60</v>
       </c>
       <c r="G25" s="88" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
@@ -13266,426 +13259,426 @@
       <c r="AL25" s="8"/>
       <c r="AM25" s="61"/>
       <c r="AN25" s="8"/>
-      <c r="AO25" s="119"/>
-      <c r="AP25" s="119"/>
-      <c r="AQ25" s="120"/>
-      <c r="AR25" s="119"/>
-      <c r="AS25" s="119"/>
-      <c r="AT25" s="119"/>
-      <c r="AU25" s="120"/>
-      <c r="AV25" s="119"/>
-      <c r="AW25" s="119"/>
-      <c r="AX25" s="119"/>
-      <c r="AY25" s="120"/>
-      <c r="AZ25" s="119"/>
-      <c r="BA25" s="119"/>
-      <c r="BB25" s="119"/>
-      <c r="BC25" s="120"/>
-      <c r="BD25" s="119"/>
-      <c r="BE25" s="119"/>
-      <c r="BF25" s="119"/>
-      <c r="BG25" s="120"/>
-      <c r="BH25" s="119"/>
-      <c r="BI25" s="119"/>
-      <c r="BJ25" s="119"/>
-      <c r="BK25" s="120"/>
-      <c r="BL25" s="119"/>
-      <c r="BM25" s="119"/>
-      <c r="BN25" s="119"/>
-      <c r="BO25" s="120"/>
-      <c r="BP25" s="119"/>
-      <c r="BQ25" s="119"/>
-      <c r="BR25" s="119"/>
-      <c r="BS25" s="120"/>
-      <c r="BT25" s="119"/>
-      <c r="BU25" s="119"/>
-      <c r="BV25" s="119"/>
-      <c r="BW25" s="181"/>
-      <c r="BX25" s="182"/>
-      <c r="BY25" s="183"/>
-      <c r="BZ25" s="183"/>
-      <c r="CA25" s="183"/>
-      <c r="CB25" s="183"/>
-      <c r="CC25" s="183"/>
-      <c r="CD25" s="183"/>
-      <c r="CE25" s="183"/>
-      <c r="CF25" s="183"/>
-      <c r="CG25" s="183"/>
-      <c r="CH25" s="183"/>
-      <c r="CI25" s="183"/>
-      <c r="CJ25" s="183"/>
-      <c r="CK25" s="183"/>
-      <c r="CL25" s="183"/>
-      <c r="CM25" s="183"/>
-      <c r="CN25" s="183"/>
-      <c r="CO25" s="183"/>
-      <c r="CP25" s="183"/>
-      <c r="CQ25" s="183"/>
-      <c r="CR25" s="183"/>
-      <c r="CS25" s="183"/>
-      <c r="CT25" s="119"/>
-      <c r="CU25" s="119"/>
-      <c r="CV25" s="119"/>
-      <c r="CW25" s="119"/>
-      <c r="CX25" s="119"/>
-      <c r="CY25" s="119"/>
-      <c r="CZ25" s="119"/>
-      <c r="DA25" s="119"/>
-      <c r="DB25" s="119"/>
-      <c r="DC25" s="119"/>
-      <c r="DD25" s="119"/>
-      <c r="DE25" s="119"/>
-      <c r="DF25" s="119"/>
-      <c r="DG25" s="119"/>
-      <c r="DH25" s="119"/>
-      <c r="DI25" s="119"/>
-      <c r="DJ25" s="119"/>
-      <c r="DK25" s="119"/>
-      <c r="DL25" s="119"/>
-      <c r="DM25" s="119"/>
-      <c r="DN25" s="119"/>
-      <c r="DO25" s="119"/>
-      <c r="DP25" s="119"/>
-      <c r="DQ25" s="119"/>
-      <c r="DR25" s="119"/>
-      <c r="DS25" s="119"/>
-      <c r="DT25" s="119"/>
-      <c r="DU25" s="119"/>
-      <c r="DV25" s="119"/>
-      <c r="DW25" s="119"/>
-      <c r="DX25" s="119"/>
-      <c r="DY25" s="119"/>
-      <c r="DZ25" s="119"/>
-      <c r="EA25" s="119"/>
-      <c r="EB25" s="119"/>
-      <c r="EC25" s="119"/>
-      <c r="ED25" s="119"/>
-      <c r="EE25" s="119"/>
-      <c r="EF25" s="119"/>
-      <c r="EG25" s="119"/>
-      <c r="EH25" s="119"/>
-      <c r="EI25" s="119"/>
-      <c r="EJ25" s="119"/>
-      <c r="EK25" s="119"/>
-      <c r="EL25" s="119"/>
-      <c r="EM25" s="119"/>
-      <c r="EN25" s="119"/>
-      <c r="EO25" s="119"/>
-      <c r="EP25" s="119"/>
-      <c r="EQ25" s="119"/>
-      <c r="ER25" s="119"/>
-      <c r="ES25" s="119"/>
-      <c r="ET25" s="119"/>
-      <c r="EU25" s="119"/>
-      <c r="EV25" s="119"/>
-      <c r="EW25" s="119"/>
-      <c r="EX25" s="119"/>
-      <c r="EY25" s="119"/>
-      <c r="EZ25" s="119"/>
-      <c r="FA25" s="119"/>
-      <c r="FB25" s="119"/>
-      <c r="FC25" s="119"/>
-      <c r="FD25" s="119"/>
-      <c r="FE25" s="119"/>
-      <c r="FF25" s="119"/>
-      <c r="FG25" s="119"/>
-      <c r="FH25" s="119"/>
-      <c r="FI25" s="119"/>
-      <c r="FJ25" s="119"/>
-      <c r="FK25" s="119"/>
-      <c r="FL25" s="119"/>
-      <c r="FM25" s="119"/>
-      <c r="FN25" s="119"/>
-      <c r="FO25" s="119"/>
-      <c r="FP25" s="119"/>
-      <c r="FQ25" s="119"/>
-      <c r="FR25" s="119"/>
-      <c r="FS25" s="119"/>
-      <c r="FT25" s="119"/>
-      <c r="FU25" s="119"/>
-      <c r="FV25" s="119"/>
-      <c r="FW25" s="119"/>
-      <c r="FX25" s="119"/>
-      <c r="FY25" s="119"/>
-      <c r="FZ25" s="119"/>
-      <c r="GA25" s="119"/>
-      <c r="GB25" s="119"/>
-      <c r="GC25" s="119"/>
-      <c r="GD25" s="119"/>
-      <c r="GE25" s="119"/>
-      <c r="GF25" s="119"/>
-      <c r="GG25" s="119"/>
-      <c r="GH25" s="119"/>
-      <c r="GI25" s="119"/>
-      <c r="GJ25" s="119"/>
-      <c r="GK25" s="119"/>
-      <c r="GL25" s="119"/>
-      <c r="GM25" s="119"/>
-      <c r="GN25" s="119"/>
-      <c r="GO25" s="119"/>
-      <c r="GP25" s="119"/>
-      <c r="GQ25" s="119"/>
-      <c r="GR25" s="119"/>
-      <c r="GS25" s="119"/>
-      <c r="GT25" s="119"/>
-      <c r="GU25" s="119"/>
-      <c r="GV25" s="119"/>
-      <c r="GW25" s="119"/>
-      <c r="GX25" s="119"/>
-      <c r="GY25" s="119"/>
-      <c r="GZ25" s="119"/>
-      <c r="HA25" s="119"/>
-      <c r="HB25" s="119"/>
-      <c r="HC25" s="119"/>
-      <c r="HD25" s="119"/>
-      <c r="HE25" s="119"/>
-      <c r="HF25" s="119"/>
-      <c r="HG25" s="119"/>
-      <c r="HH25" s="119"/>
-      <c r="HI25" s="119"/>
-      <c r="HJ25" s="119"/>
-      <c r="HK25" s="119"/>
-      <c r="HL25" s="119"/>
-      <c r="HM25" s="119"/>
-      <c r="HN25" s="119"/>
-      <c r="HO25" s="119"/>
-      <c r="HP25" s="119"/>
-      <c r="HQ25" s="119"/>
-      <c r="HR25" s="119"/>
-      <c r="HS25" s="119"/>
-      <c r="HT25" s="119"/>
-      <c r="HU25" s="119"/>
-      <c r="HV25" s="119"/>
-      <c r="HW25" s="119"/>
-      <c r="HX25" s="119"/>
-      <c r="HY25" s="119"/>
-      <c r="HZ25" s="119"/>
-      <c r="IA25" s="119"/>
-      <c r="IB25" s="119"/>
-      <c r="IC25" s="119"/>
-      <c r="ID25" s="119"/>
-      <c r="IE25" s="119"/>
-      <c r="IF25" s="119"/>
-      <c r="IG25" s="119"/>
-      <c r="IH25" s="119"/>
-      <c r="II25" s="119"/>
-      <c r="IJ25" s="119"/>
-      <c r="IK25" s="119"/>
-      <c r="IL25" s="119"/>
-      <c r="IM25" s="119"/>
-      <c r="IN25" s="119"/>
-      <c r="IO25" s="119"/>
-      <c r="IP25" s="119"/>
-      <c r="IQ25" s="119"/>
-      <c r="IR25" s="119"/>
-      <c r="IS25" s="119"/>
-      <c r="IT25" s="119"/>
-      <c r="IU25" s="119"/>
-      <c r="IV25" s="119"/>
-      <c r="IW25" s="119"/>
-      <c r="IX25" s="119"/>
-      <c r="IY25" s="119"/>
-      <c r="IZ25" s="119"/>
-      <c r="JA25" s="119"/>
-      <c r="JB25" s="119"/>
-      <c r="JC25" s="119"/>
-      <c r="JD25" s="119"/>
-      <c r="JE25" s="119"/>
-      <c r="JF25" s="119"/>
-      <c r="JG25" s="119"/>
-      <c r="JH25" s="119"/>
-      <c r="JI25" s="119"/>
-      <c r="JJ25" s="119"/>
-      <c r="JK25" s="119"/>
-      <c r="JL25" s="119"/>
-      <c r="JM25" s="119"/>
-      <c r="JN25" s="119"/>
-      <c r="JO25" s="119"/>
-      <c r="JP25" s="119"/>
-      <c r="JQ25" s="119"/>
-      <c r="JR25" s="119"/>
-      <c r="JS25" s="119"/>
-      <c r="JT25" s="119"/>
-      <c r="JU25" s="119"/>
-      <c r="JV25" s="119"/>
-      <c r="JW25" s="119"/>
-      <c r="JX25" s="119"/>
-      <c r="JY25" s="119"/>
-      <c r="JZ25" s="119"/>
-      <c r="KA25" s="119"/>
-      <c r="KB25" s="119"/>
-      <c r="KC25" s="119"/>
-      <c r="KD25" s="119"/>
-      <c r="KE25" s="119"/>
-      <c r="KF25" s="119"/>
-      <c r="KG25" s="119"/>
-      <c r="KH25" s="119"/>
-      <c r="KI25" s="119"/>
-      <c r="KJ25" s="119"/>
-      <c r="KK25" s="119"/>
-      <c r="KL25" s="119"/>
-      <c r="KM25" s="119"/>
-      <c r="KN25" s="119"/>
-      <c r="KO25" s="119"/>
-      <c r="KP25" s="119"/>
-      <c r="KQ25" s="119"/>
-      <c r="KR25" s="119"/>
-      <c r="KS25" s="119"/>
-      <c r="KT25" s="119"/>
-      <c r="KU25" s="119"/>
-      <c r="KV25" s="119"/>
-      <c r="KW25" s="119"/>
-      <c r="KX25" s="119"/>
-      <c r="KY25" s="119"/>
-      <c r="KZ25" s="119"/>
-      <c r="LA25" s="119"/>
-      <c r="LB25" s="119"/>
-      <c r="LC25" s="119"/>
-      <c r="LD25" s="119"/>
-      <c r="LE25" s="119"/>
-      <c r="LF25" s="119"/>
-      <c r="LG25" s="119"/>
-      <c r="LH25" s="119"/>
-      <c r="LI25" s="119"/>
-      <c r="LJ25" s="119"/>
-      <c r="LK25" s="119"/>
-      <c r="LL25" s="119"/>
-      <c r="LM25" s="119"/>
-      <c r="LN25" s="119"/>
-      <c r="LO25" s="119"/>
-      <c r="LP25" s="119"/>
-      <c r="LQ25" s="119"/>
-      <c r="LR25" s="119"/>
-      <c r="LS25" s="119"/>
-      <c r="LT25" s="119"/>
-      <c r="LU25" s="119"/>
-      <c r="LV25" s="119"/>
-      <c r="LW25" s="119"/>
-      <c r="LX25" s="119"/>
-      <c r="LY25" s="119"/>
-      <c r="LZ25" s="119"/>
-      <c r="MA25" s="119"/>
-      <c r="MB25" s="119"/>
-      <c r="MC25" s="119"/>
-      <c r="MD25" s="119"/>
-      <c r="ME25" s="119"/>
-      <c r="MF25" s="119"/>
-      <c r="MG25" s="119"/>
-      <c r="MH25" s="119"/>
-      <c r="MI25" s="119"/>
-      <c r="MJ25" s="119"/>
-      <c r="MK25" s="119"/>
-      <c r="ML25" s="119"/>
-      <c r="MM25" s="119"/>
-      <c r="MN25" s="119"/>
-      <c r="MO25" s="119"/>
-      <c r="MP25" s="119"/>
-      <c r="MQ25" s="119"/>
-      <c r="MR25" s="119"/>
-      <c r="MS25" s="119"/>
-      <c r="MT25" s="119"/>
-      <c r="MU25" s="119"/>
-      <c r="MV25" s="119"/>
-      <c r="MW25" s="119"/>
-      <c r="MX25" s="119"/>
-      <c r="MY25" s="119"/>
-      <c r="MZ25" s="119"/>
-      <c r="NA25" s="119"/>
-      <c r="NB25" s="119"/>
-      <c r="NC25" s="119"/>
-      <c r="ND25" s="119"/>
-      <c r="NE25" s="119"/>
-      <c r="NF25" s="119"/>
-      <c r="NG25" s="119"/>
-      <c r="NH25" s="119"/>
-      <c r="NI25" s="119"/>
-      <c r="NJ25" s="119"/>
-      <c r="NK25" s="119"/>
-      <c r="NL25" s="119"/>
-      <c r="NM25" s="119"/>
-      <c r="NN25" s="119"/>
-      <c r="NO25" s="119"/>
-      <c r="NP25" s="119"/>
-      <c r="NQ25" s="119"/>
-      <c r="NR25" s="119"/>
-      <c r="NS25" s="119"/>
-      <c r="NT25" s="119"/>
-      <c r="NU25" s="119"/>
-      <c r="NV25" s="119"/>
-      <c r="NW25" s="119"/>
-      <c r="NX25" s="119"/>
-      <c r="NY25" s="119"/>
-      <c r="NZ25" s="119"/>
-      <c r="OA25" s="119"/>
-      <c r="OB25" s="119"/>
-      <c r="OC25" s="119"/>
-      <c r="OD25" s="119"/>
-      <c r="OE25" s="119"/>
-      <c r="OF25" s="119"/>
-      <c r="OG25" s="119"/>
-      <c r="OH25" s="119"/>
-      <c r="OI25" s="119"/>
-      <c r="OJ25" s="119"/>
-      <c r="OK25" s="119"/>
-      <c r="OL25" s="119"/>
-      <c r="OM25" s="119"/>
-      <c r="ON25" s="119"/>
-      <c r="OO25" s="119"/>
-      <c r="OP25" s="119"/>
-      <c r="OQ25" s="119"/>
-      <c r="OR25" s="119"/>
-      <c r="OS25" s="119"/>
-      <c r="OT25" s="119"/>
-      <c r="OU25" s="119"/>
-      <c r="OV25" s="119"/>
-      <c r="OW25" s="119"/>
-      <c r="OX25" s="119"/>
-      <c r="OY25" s="119"/>
-      <c r="OZ25" s="119"/>
-      <c r="PA25" s="119"/>
-      <c r="PB25" s="119"/>
-      <c r="PC25" s="119"/>
-      <c r="PD25" s="119"/>
-      <c r="PE25" s="119"/>
-      <c r="PF25" s="119"/>
-      <c r="PG25" s="119"/>
-      <c r="PH25" s="119"/>
-      <c r="PI25" s="119"/>
-      <c r="PJ25" s="119"/>
-      <c r="PK25" s="119"/>
-      <c r="PL25" s="119"/>
-      <c r="PM25" s="119"/>
-      <c r="PN25" s="119"/>
-      <c r="PO25" s="119"/>
-      <c r="PP25" s="119"/>
-      <c r="PQ25" s="119"/>
-      <c r="PR25" s="119"/>
-      <c r="PS25" s="119"/>
-      <c r="PT25" s="119"/>
-      <c r="PU25" s="119"/>
-      <c r="PV25" s="119"/>
-      <c r="PW25" s="119"/>
-      <c r="PX25" s="119"/>
-      <c r="PY25" s="119"/>
-      <c r="PZ25" s="119"/>
-      <c r="QA25" s="119"/>
-      <c r="QB25" s="119"/>
-      <c r="QC25" s="119"/>
-      <c r="QD25" s="119"/>
-      <c r="QE25" s="119"/>
-      <c r="QF25" s="119"/>
-      <c r="QG25" s="119"/>
-      <c r="QH25" s="119"/>
-      <c r="QI25" s="119"/>
-      <c r="QJ25" s="119"/>
+      <c r="AO25" s="118"/>
+      <c r="AP25" s="118"/>
+      <c r="AQ25" s="119"/>
+      <c r="AR25" s="118"/>
+      <c r="AS25" s="118"/>
+      <c r="AT25" s="118"/>
+      <c r="AU25" s="119"/>
+      <c r="AV25" s="118"/>
+      <c r="AW25" s="118"/>
+      <c r="AX25" s="118"/>
+      <c r="AY25" s="119"/>
+      <c r="AZ25" s="118"/>
+      <c r="BA25" s="118"/>
+      <c r="BB25" s="118"/>
+      <c r="BC25" s="119"/>
+      <c r="BD25" s="118"/>
+      <c r="BE25" s="118"/>
+      <c r="BF25" s="118"/>
+      <c r="BG25" s="119"/>
+      <c r="BH25" s="118"/>
+      <c r="BI25" s="118"/>
+      <c r="BJ25" s="118"/>
+      <c r="BK25" s="119"/>
+      <c r="BL25" s="118"/>
+      <c r="BM25" s="118"/>
+      <c r="BN25" s="118"/>
+      <c r="BO25" s="119"/>
+      <c r="BP25" s="118"/>
+      <c r="BQ25" s="118"/>
+      <c r="BR25" s="118"/>
+      <c r="BS25" s="119"/>
+      <c r="BT25" s="118"/>
+      <c r="BU25" s="118"/>
+      <c r="BV25" s="118"/>
+      <c r="BW25" s="180"/>
+      <c r="BX25" s="181"/>
+      <c r="BY25" s="182"/>
+      <c r="BZ25" s="182"/>
+      <c r="CA25" s="182"/>
+      <c r="CB25" s="182"/>
+      <c r="CC25" s="182"/>
+      <c r="CD25" s="182"/>
+      <c r="CE25" s="182"/>
+      <c r="CF25" s="182"/>
+      <c r="CG25" s="182"/>
+      <c r="CH25" s="182"/>
+      <c r="CI25" s="182"/>
+      <c r="CJ25" s="182"/>
+      <c r="CK25" s="182"/>
+      <c r="CL25" s="182"/>
+      <c r="CM25" s="182"/>
+      <c r="CN25" s="182"/>
+      <c r="CO25" s="182"/>
+      <c r="CP25" s="182"/>
+      <c r="CQ25" s="182"/>
+      <c r="CR25" s="182"/>
+      <c r="CS25" s="182"/>
+      <c r="CT25" s="118"/>
+      <c r="CU25" s="118"/>
+      <c r="CV25" s="118"/>
+      <c r="CW25" s="118"/>
+      <c r="CX25" s="118"/>
+      <c r="CY25" s="118"/>
+      <c r="CZ25" s="118"/>
+      <c r="DA25" s="118"/>
+      <c r="DB25" s="118"/>
+      <c r="DC25" s="118"/>
+      <c r="DD25" s="118"/>
+      <c r="DE25" s="118"/>
+      <c r="DF25" s="118"/>
+      <c r="DG25" s="118"/>
+      <c r="DH25" s="118"/>
+      <c r="DI25" s="118"/>
+      <c r="DJ25" s="118"/>
+      <c r="DK25" s="118"/>
+      <c r="DL25" s="118"/>
+      <c r="DM25" s="118"/>
+      <c r="DN25" s="118"/>
+      <c r="DO25" s="118"/>
+      <c r="DP25" s="118"/>
+      <c r="DQ25" s="118"/>
+      <c r="DR25" s="118"/>
+      <c r="DS25" s="118"/>
+      <c r="DT25" s="118"/>
+      <c r="DU25" s="118"/>
+      <c r="DV25" s="118"/>
+      <c r="DW25" s="118"/>
+      <c r="DX25" s="118"/>
+      <c r="DY25" s="118"/>
+      <c r="DZ25" s="118"/>
+      <c r="EA25" s="118"/>
+      <c r="EB25" s="118"/>
+      <c r="EC25" s="118"/>
+      <c r="ED25" s="118"/>
+      <c r="EE25" s="118"/>
+      <c r="EF25" s="118"/>
+      <c r="EG25" s="118"/>
+      <c r="EH25" s="118"/>
+      <c r="EI25" s="118"/>
+      <c r="EJ25" s="118"/>
+      <c r="EK25" s="118"/>
+      <c r="EL25" s="118"/>
+      <c r="EM25" s="118"/>
+      <c r="EN25" s="118"/>
+      <c r="EO25" s="118"/>
+      <c r="EP25" s="118"/>
+      <c r="EQ25" s="118"/>
+      <c r="ER25" s="118"/>
+      <c r="ES25" s="118"/>
+      <c r="ET25" s="118"/>
+      <c r="EU25" s="118"/>
+      <c r="EV25" s="118"/>
+      <c r="EW25" s="118"/>
+      <c r="EX25" s="118"/>
+      <c r="EY25" s="118"/>
+      <c r="EZ25" s="118"/>
+      <c r="FA25" s="118"/>
+      <c r="FB25" s="118"/>
+      <c r="FC25" s="118"/>
+      <c r="FD25" s="118"/>
+      <c r="FE25" s="118"/>
+      <c r="FF25" s="118"/>
+      <c r="FG25" s="118"/>
+      <c r="FH25" s="118"/>
+      <c r="FI25" s="118"/>
+      <c r="FJ25" s="118"/>
+      <c r="FK25" s="118"/>
+      <c r="FL25" s="118"/>
+      <c r="FM25" s="118"/>
+      <c r="FN25" s="118"/>
+      <c r="FO25" s="118"/>
+      <c r="FP25" s="118"/>
+      <c r="FQ25" s="118"/>
+      <c r="FR25" s="118"/>
+      <c r="FS25" s="118"/>
+      <c r="FT25" s="118"/>
+      <c r="FU25" s="118"/>
+      <c r="FV25" s="118"/>
+      <c r="FW25" s="118"/>
+      <c r="FX25" s="118"/>
+      <c r="FY25" s="118"/>
+      <c r="FZ25" s="118"/>
+      <c r="GA25" s="118"/>
+      <c r="GB25" s="118"/>
+      <c r="GC25" s="118"/>
+      <c r="GD25" s="118"/>
+      <c r="GE25" s="118"/>
+      <c r="GF25" s="118"/>
+      <c r="GG25" s="118"/>
+      <c r="GH25" s="118"/>
+      <c r="GI25" s="118"/>
+      <c r="GJ25" s="118"/>
+      <c r="GK25" s="118"/>
+      <c r="GL25" s="118"/>
+      <c r="GM25" s="118"/>
+      <c r="GN25" s="118"/>
+      <c r="GO25" s="118"/>
+      <c r="GP25" s="118"/>
+      <c r="GQ25" s="118"/>
+      <c r="GR25" s="118"/>
+      <c r="GS25" s="118"/>
+      <c r="GT25" s="118"/>
+      <c r="GU25" s="118"/>
+      <c r="GV25" s="118"/>
+      <c r="GW25" s="118"/>
+      <c r="GX25" s="118"/>
+      <c r="GY25" s="118"/>
+      <c r="GZ25" s="118"/>
+      <c r="HA25" s="118"/>
+      <c r="HB25" s="118"/>
+      <c r="HC25" s="118"/>
+      <c r="HD25" s="118"/>
+      <c r="HE25" s="118"/>
+      <c r="HF25" s="118"/>
+      <c r="HG25" s="118"/>
+      <c r="HH25" s="118"/>
+      <c r="HI25" s="118"/>
+      <c r="HJ25" s="118"/>
+      <c r="HK25" s="118"/>
+      <c r="HL25" s="118"/>
+      <c r="HM25" s="118"/>
+      <c r="HN25" s="118"/>
+      <c r="HO25" s="118"/>
+      <c r="HP25" s="118"/>
+      <c r="HQ25" s="118"/>
+      <c r="HR25" s="118"/>
+      <c r="HS25" s="118"/>
+      <c r="HT25" s="118"/>
+      <c r="HU25" s="118"/>
+      <c r="HV25" s="118"/>
+      <c r="HW25" s="118"/>
+      <c r="HX25" s="118"/>
+      <c r="HY25" s="118"/>
+      <c r="HZ25" s="118"/>
+      <c r="IA25" s="118"/>
+      <c r="IB25" s="118"/>
+      <c r="IC25" s="118"/>
+      <c r="ID25" s="118"/>
+      <c r="IE25" s="118"/>
+      <c r="IF25" s="118"/>
+      <c r="IG25" s="118"/>
+      <c r="IH25" s="118"/>
+      <c r="II25" s="118"/>
+      <c r="IJ25" s="118"/>
+      <c r="IK25" s="118"/>
+      <c r="IL25" s="118"/>
+      <c r="IM25" s="118"/>
+      <c r="IN25" s="118"/>
+      <c r="IO25" s="118"/>
+      <c r="IP25" s="118"/>
+      <c r="IQ25" s="118"/>
+      <c r="IR25" s="118"/>
+      <c r="IS25" s="118"/>
+      <c r="IT25" s="118"/>
+      <c r="IU25" s="118"/>
+      <c r="IV25" s="118"/>
+      <c r="IW25" s="118"/>
+      <c r="IX25" s="118"/>
+      <c r="IY25" s="118"/>
+      <c r="IZ25" s="118"/>
+      <c r="JA25" s="118"/>
+      <c r="JB25" s="118"/>
+      <c r="JC25" s="118"/>
+      <c r="JD25" s="118"/>
+      <c r="JE25" s="118"/>
+      <c r="JF25" s="118"/>
+      <c r="JG25" s="118"/>
+      <c r="JH25" s="118"/>
+      <c r="JI25" s="118"/>
+      <c r="JJ25" s="118"/>
+      <c r="JK25" s="118"/>
+      <c r="JL25" s="118"/>
+      <c r="JM25" s="118"/>
+      <c r="JN25" s="118"/>
+      <c r="JO25" s="118"/>
+      <c r="JP25" s="118"/>
+      <c r="JQ25" s="118"/>
+      <c r="JR25" s="118"/>
+      <c r="JS25" s="118"/>
+      <c r="JT25" s="118"/>
+      <c r="JU25" s="118"/>
+      <c r="JV25" s="118"/>
+      <c r="JW25" s="118"/>
+      <c r="JX25" s="118"/>
+      <c r="JY25" s="118"/>
+      <c r="JZ25" s="118"/>
+      <c r="KA25" s="118"/>
+      <c r="KB25" s="118"/>
+      <c r="KC25" s="118"/>
+      <c r="KD25" s="118"/>
+      <c r="KE25" s="118"/>
+      <c r="KF25" s="118"/>
+      <c r="KG25" s="118"/>
+      <c r="KH25" s="118"/>
+      <c r="KI25" s="118"/>
+      <c r="KJ25" s="118"/>
+      <c r="KK25" s="118"/>
+      <c r="KL25" s="118"/>
+      <c r="KM25" s="118"/>
+      <c r="KN25" s="118"/>
+      <c r="KO25" s="118"/>
+      <c r="KP25" s="118"/>
+      <c r="KQ25" s="118"/>
+      <c r="KR25" s="118"/>
+      <c r="KS25" s="118"/>
+      <c r="KT25" s="118"/>
+      <c r="KU25" s="118"/>
+      <c r="KV25" s="118"/>
+      <c r="KW25" s="118"/>
+      <c r="KX25" s="118"/>
+      <c r="KY25" s="118"/>
+      <c r="KZ25" s="118"/>
+      <c r="LA25" s="118"/>
+      <c r="LB25" s="118"/>
+      <c r="LC25" s="118"/>
+      <c r="LD25" s="118"/>
+      <c r="LE25" s="118"/>
+      <c r="LF25" s="118"/>
+      <c r="LG25" s="118"/>
+      <c r="LH25" s="118"/>
+      <c r="LI25" s="118"/>
+      <c r="LJ25" s="118"/>
+      <c r="LK25" s="118"/>
+      <c r="LL25" s="118"/>
+      <c r="LM25" s="118"/>
+      <c r="LN25" s="118"/>
+      <c r="LO25" s="118"/>
+      <c r="LP25" s="118"/>
+      <c r="LQ25" s="118"/>
+      <c r="LR25" s="118"/>
+      <c r="LS25" s="118"/>
+      <c r="LT25" s="118"/>
+      <c r="LU25" s="118"/>
+      <c r="LV25" s="118"/>
+      <c r="LW25" s="118"/>
+      <c r="LX25" s="118"/>
+      <c r="LY25" s="118"/>
+      <c r="LZ25" s="118"/>
+      <c r="MA25" s="118"/>
+      <c r="MB25" s="118"/>
+      <c r="MC25" s="118"/>
+      <c r="MD25" s="118"/>
+      <c r="ME25" s="118"/>
+      <c r="MF25" s="118"/>
+      <c r="MG25" s="118"/>
+      <c r="MH25" s="118"/>
+      <c r="MI25" s="118"/>
+      <c r="MJ25" s="118"/>
+      <c r="MK25" s="118"/>
+      <c r="ML25" s="118"/>
+      <c r="MM25" s="118"/>
+      <c r="MN25" s="118"/>
+      <c r="MO25" s="118"/>
+      <c r="MP25" s="118"/>
+      <c r="MQ25" s="118"/>
+      <c r="MR25" s="118"/>
+      <c r="MS25" s="118"/>
+      <c r="MT25" s="118"/>
+      <c r="MU25" s="118"/>
+      <c r="MV25" s="118"/>
+      <c r="MW25" s="118"/>
+      <c r="MX25" s="118"/>
+      <c r="MY25" s="118"/>
+      <c r="MZ25" s="118"/>
+      <c r="NA25" s="118"/>
+      <c r="NB25" s="118"/>
+      <c r="NC25" s="118"/>
+      <c r="ND25" s="118"/>
+      <c r="NE25" s="118"/>
+      <c r="NF25" s="118"/>
+      <c r="NG25" s="118"/>
+      <c r="NH25" s="118"/>
+      <c r="NI25" s="118"/>
+      <c r="NJ25" s="118"/>
+      <c r="NK25" s="118"/>
+      <c r="NL25" s="118"/>
+      <c r="NM25" s="118"/>
+      <c r="NN25" s="118"/>
+      <c r="NO25" s="118"/>
+      <c r="NP25" s="118"/>
+      <c r="NQ25" s="118"/>
+      <c r="NR25" s="118"/>
+      <c r="NS25" s="118"/>
+      <c r="NT25" s="118"/>
+      <c r="NU25" s="118"/>
+      <c r="NV25" s="118"/>
+      <c r="NW25" s="118"/>
+      <c r="NX25" s="118"/>
+      <c r="NY25" s="118"/>
+      <c r="NZ25" s="118"/>
+      <c r="OA25" s="118"/>
+      <c r="OB25" s="118"/>
+      <c r="OC25" s="118"/>
+      <c r="OD25" s="118"/>
+      <c r="OE25" s="118"/>
+      <c r="OF25" s="118"/>
+      <c r="OG25" s="118"/>
+      <c r="OH25" s="118"/>
+      <c r="OI25" s="118"/>
+      <c r="OJ25" s="118"/>
+      <c r="OK25" s="118"/>
+      <c r="OL25" s="118"/>
+      <c r="OM25" s="118"/>
+      <c r="ON25" s="118"/>
+      <c r="OO25" s="118"/>
+      <c r="OP25" s="118"/>
+      <c r="OQ25" s="118"/>
+      <c r="OR25" s="118"/>
+      <c r="OS25" s="118"/>
+      <c r="OT25" s="118"/>
+      <c r="OU25" s="118"/>
+      <c r="OV25" s="118"/>
+      <c r="OW25" s="118"/>
+      <c r="OX25" s="118"/>
+      <c r="OY25" s="118"/>
+      <c r="OZ25" s="118"/>
+      <c r="PA25" s="118"/>
+      <c r="PB25" s="118"/>
+      <c r="PC25" s="118"/>
+      <c r="PD25" s="118"/>
+      <c r="PE25" s="118"/>
+      <c r="PF25" s="118"/>
+      <c r="PG25" s="118"/>
+      <c r="PH25" s="118"/>
+      <c r="PI25" s="118"/>
+      <c r="PJ25" s="118"/>
+      <c r="PK25" s="118"/>
+      <c r="PL25" s="118"/>
+      <c r="PM25" s="118"/>
+      <c r="PN25" s="118"/>
+      <c r="PO25" s="118"/>
+      <c r="PP25" s="118"/>
+      <c r="PQ25" s="118"/>
+      <c r="PR25" s="118"/>
+      <c r="PS25" s="118"/>
+      <c r="PT25" s="118"/>
+      <c r="PU25" s="118"/>
+      <c r="PV25" s="118"/>
+      <c r="PW25" s="118"/>
+      <c r="PX25" s="118"/>
+      <c r="PY25" s="118"/>
+      <c r="PZ25" s="118"/>
+      <c r="QA25" s="118"/>
+      <c r="QB25" s="118"/>
+      <c r="QC25" s="118"/>
+      <c r="QD25" s="118"/>
+      <c r="QE25" s="118"/>
+      <c r="QF25" s="118"/>
+      <c r="QG25" s="118"/>
+      <c r="QH25" s="118"/>
+      <c r="QI25" s="118"/>
+      <c r="QJ25" s="118"/>
     </row>
     <row r="26" spans="1:452" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="39" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
@@ -13752,7 +13745,7 @@
       <c r="BJ26" s="42"/>
       <c r="BK26" s="67"/>
       <c r="BL26" s="42"/>
-      <c r="BM26" s="121"/>
+      <c r="BM26" s="120"/>
       <c r="BN26" s="42"/>
       <c r="BO26" s="67"/>
       <c r="BP26" s="42"/>
@@ -17488,7 +17481,7 @@
       <c r="G35" s="91"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="126"/>
+      <c r="J35" s="125"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -17551,7 +17544,7 @@
       <c r="G36" s="91"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="126"/>
+      <c r="J36" s="125"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
@@ -17611,8 +17604,8 @@
       <c r="F37" s="22"/>
       <c r="G37" s="91"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -17671,8 +17664,8 @@
       <c r="D38" s="73"/>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
       <c r="AN38" s="19"/>
       <c r="AO38" s="52"/>
       <c r="AP38" s="52"/>
@@ -17712,12 +17705,12 @@
     </row>
     <row r="39" spans="1:452" x14ac:dyDescent="0.25">
       <c r="B39" s="73"/>
-      <c r="C39" s="209"/>
+      <c r="C39" s="184"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
       <c r="F39" s="73"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
       <c r="AN39" s="19"/>
       <c r="AO39" s="52"/>
       <c r="AP39" s="52"/>
@@ -17757,12 +17750,12 @@
     </row>
     <row r="40" spans="1:452" x14ac:dyDescent="0.25">
       <c r="B40" s="73"/>
-      <c r="C40" s="209"/>
+      <c r="C40" s="184"/>
       <c r="D40" s="73"/>
       <c r="E40" s="73"/>
       <c r="F40" s="73"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
       <c r="AN40" s="19"/>
       <c r="AO40" s="52"/>
       <c r="AP40" s="52"/>
@@ -17802,12 +17795,12 @@
     </row>
     <row r="41" spans="1:452" x14ac:dyDescent="0.25">
       <c r="B41" s="73"/>
-      <c r="C41" s="209"/>
+      <c r="C41" s="184"/>
       <c r="D41" s="73"/>
       <c r="E41" s="73"/>
       <c r="F41" s="73"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
       <c r="AN41" s="19"/>
       <c r="AO41" s="52"/>
       <c r="AP41" s="52"/>
@@ -17847,12 +17840,12 @@
     </row>
     <row r="42" spans="1:452" x14ac:dyDescent="0.25">
       <c r="B42" s="73"/>
-      <c r="C42" s="209"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
       <c r="AN42" s="19"/>
       <c r="AO42" s="52"/>
       <c r="AP42" s="52"/>
@@ -17892,12 +17885,12 @@
     </row>
     <row r="43" spans="1:452" x14ac:dyDescent="0.25">
       <c r="B43" s="73"/>
-      <c r="C43" s="209"/>
+      <c r="C43" s="184"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
       <c r="F43" s="73"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
       <c r="AN43" s="19"/>
       <c r="AO43" s="52"/>
       <c r="AP43" s="52"/>
@@ -17941,8 +17934,8 @@
       <c r="D44" s="73"/>
       <c r="E44" s="73"/>
       <c r="F44" s="73"/>
-      <c r="G44" s="122"/>
-      <c r="J44" s="125"/>
+      <c r="G44" s="121"/>
+      <c r="J44" s="124"/>
       <c r="AN44" s="19"/>
       <c r="AO44" s="52"/>
       <c r="AP44" s="52"/>
@@ -17981,8 +17974,8 @@
       <c r="BW44" s="55"/>
     </row>
     <row r="45" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="J45" s="125"/>
-      <c r="K45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="123"/>
       <c r="AN45" s="19"/>
       <c r="AO45" s="52"/>
       <c r="AP45" s="52"/>
@@ -18021,8 +18014,8 @@
       <c r="BW45" s="55"/>
     </row>
     <row r="46" spans="1:452" x14ac:dyDescent="0.25">
-      <c r="G46" s="122"/>
-      <c r="J46" s="125"/>
+      <c r="G46" s="121"/>
+      <c r="J46" s="124"/>
       <c r="AN46" s="19"/>
       <c r="AO46" s="52"/>
       <c r="AP46" s="52"/>
@@ -18137,7 +18130,7 @@
       <c r="BW48" s="55"/>
     </row>
     <row r="49" spans="9:75" x14ac:dyDescent="0.25">
-      <c r="K49" s="124"/>
+      <c r="K49" s="123"/>
       <c r="AN49" s="19"/>
       <c r="AO49" s="52"/>
       <c r="AP49" s="52"/>
@@ -18176,7 +18169,7 @@
       <c r="BW49" s="55"/>
     </row>
     <row r="50" spans="9:75" x14ac:dyDescent="0.25">
-      <c r="K50" s="124"/>
+      <c r="K50" s="123"/>
       <c r="AN50" s="19"/>
       <c r="AO50" s="52"/>
       <c r="AP50" s="52"/>
@@ -18215,7 +18208,7 @@
       <c r="BW50" s="55"/>
     </row>
     <row r="51" spans="9:75" x14ac:dyDescent="0.25">
-      <c r="K51" s="124"/>
+      <c r="K51" s="123"/>
       <c r="AN51" s="19"/>
       <c r="AO51" s="52"/>
       <c r="AP51" s="52"/>
@@ -18254,9 +18247,9 @@
       <c r="BW51" s="55"/>
     </row>
     <row r="52" spans="9:75" x14ac:dyDescent="0.25">
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="123"/>
       <c r="AN52" s="19"/>
       <c r="AO52" s="52"/>
       <c r="AP52" s="52"/>
@@ -18295,9 +18288,9 @@
       <c r="BW52" s="55"/>
     </row>
     <row r="53" spans="9:75" x14ac:dyDescent="0.25">
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="123"/>
       <c r="AN53" s="19"/>
       <c r="AO53" s="52"/>
       <c r="AP53" s="52"/>
@@ -19895,6 +19888,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="BT5:BW5"/>
@@ -19910,20 +19917,6 @@
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="K7:R7 K8 L9 M13:M14 N23:U23 V24:X26 L11:L12 C2 M15:O17 T15 T16:Y17 N18:T22 AB15">
     <cfRule type="expression" dxfId="184" priority="178">
@@ -20497,47 +20490,47 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="D6" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="E6" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="102" t="s">
         <v>67</v>
-      </c>
-      <c r="E6" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>68</v>
       </c>
       <c r="G6" s="102" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="102" t="s">
+      <c r="J6" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="K6" s="103" t="s">
         <v>71</v>
-      </c>
-      <c r="K6" s="103" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="94" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>74</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="94"/>
@@ -20546,7 +20539,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="104">
         <v>44062</v>
@@ -20560,10 +20553,10 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
@@ -20572,7 +20565,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="104">
         <v>44068</v>
@@ -20586,34 +20579,36 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
       <c r="F9" s="98"/>
       <c r="G9" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="98"/>
+        <v>33</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>74</v>
+      </c>
       <c r="I9" s="104">
         <v>44278</v>
       </c>
       <c r="J9" s="104">
         <v>44310</v>
       </c>
-      <c r="K9" s="111">
-        <v>0.2</v>
+      <c r="K9" s="105">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="94"/>
       <c r="E10" s="94"/>
@@ -20622,7 +20617,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="94" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="I10" s="104">
         <v>44278</v>
@@ -20636,10 +20631,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="94"/>
       <c r="E11" s="94"/>
@@ -20648,7 +20643,7 @@
         <v>33</v>
       </c>
       <c r="H11" s="94" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="I11" s="104">
         <v>44278</v>
@@ -20662,69 +20657,81 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="94"/>
       <c r="E12" s="94"/>
       <c r="F12" s="94"/>
       <c r="G12" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="94"/>
+        <v>33</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>74</v>
+      </c>
       <c r="I12" s="104">
         <v>44305</v>
       </c>
       <c r="J12" s="104">
         <v>44310</v>
       </c>
-      <c r="K12" s="96"/>
+      <c r="K12" s="105">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="94"/>
       <c r="E13" s="94"/>
       <c r="F13" s="94"/>
       <c r="G13" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="94"/>
+        <v>33</v>
+      </c>
+      <c r="H13" s="94" t="s">
+        <v>74</v>
+      </c>
       <c r="I13" s="104">
         <v>44305</v>
       </c>
       <c r="J13" s="104">
         <v>44310</v>
       </c>
-      <c r="K13" s="96"/>
+      <c r="K13" s="105">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="94"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="94"/>
+        <v>33</v>
+      </c>
+      <c r="H14" s="94" t="s">
+        <v>74</v>
+      </c>
       <c r="I14" s="104">
         <v>44305</v>
       </c>
       <c r="J14" s="104">
         <v>44310</v>
       </c>
-      <c r="K14" s="96"/>
+      <c r="K14" s="105">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="95"/>
@@ -20800,166 +20807,166 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="125">
+        <v>52</v>
+      </c>
+      <c r="J35" s="124">
         <v>44272</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="125">
+        <v>130</v>
+      </c>
+      <c r="J36" s="124">
         <v>44272</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="125">
+        <v>114</v>
+      </c>
+      <c r="I37" s="124">
         <v>44273</v>
       </c>
-      <c r="J37" s="125">
+      <c r="J37" s="124">
         <v>44282</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" s="125">
+        <v>131</v>
+      </c>
+      <c r="I38" s="124">
         <v>44273</v>
       </c>
-      <c r="J38" s="125">
+      <c r="J38" s="124">
         <v>44282</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="125">
+      <c r="C39" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="124">
         <v>44256</v>
       </c>
-      <c r="J39" s="125">
+      <c r="J39" s="124">
         <v>44261</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="125">
+      <c r="C40" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="124">
         <v>44263</v>
       </c>
-      <c r="J40" s="125">
+      <c r="J40" s="124">
         <v>44268</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="125">
+      <c r="C41" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="124">
         <v>44270</v>
       </c>
-      <c r="J41" s="125">
+      <c r="J41" s="124">
         <v>44282</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="125">
+      <c r="C42" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="124">
         <v>44270</v>
       </c>
-      <c r="J42" s="125">
+      <c r="J42" s="124">
         <v>44282</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="125">
+      <c r="C43" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="124">
         <v>44291</v>
       </c>
-      <c r="J43" s="125">
+      <c r="J43" s="124">
         <v>44296</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="112"/>
-      <c r="J44" s="125">
+        <v>51</v>
+      </c>
+      <c r="G44" s="111"/>
+      <c r="J44" s="124">
         <v>44303</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="125">
+        <v>52</v>
+      </c>
+      <c r="J45" s="124">
         <v>44303</v>
       </c>
-      <c r="K45" s="123">
+      <c r="K45" s="122">
         <v>0.9</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="112"/>
-      <c r="J46" s="125">
+        <v>53</v>
+      </c>
+      <c r="G46" s="111"/>
+      <c r="J46" s="124">
         <v>44303</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="123">
+      <c r="K49" s="122">
         <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="123">
+      <c r="K50" s="122">
         <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="123">
+      <c r="K51" s="122">
         <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I52" s="125">
+      <c r="I52" s="124">
         <v>44291</v>
       </c>
-      <c r="J52" s="125">
+      <c r="J52" s="124">
         <v>44303</v>
       </c>
-      <c r="K52" s="123">
+      <c r="K52" s="122">
         <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I53" s="125">
+      <c r="I53" s="124">
         <v>44305</v>
       </c>
-      <c r="J53" s="125">
+      <c r="J53" s="124">
         <v>44324</v>
       </c>
-      <c r="K53" s="123">
+      <c r="K53" s="122">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Si, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -20977,1045 +20984,1041 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="132"/>
-    <col min="2" max="2" width="70.42578125" style="132" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="132" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="133" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="132" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="132" customWidth="1"/>
-    <col min="7" max="7" width="13" style="132" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="132" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="132" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" style="132" customWidth="1"/>
-    <col min="12" max="39" width="9.140625" style="132" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="132"/>
+    <col min="1" max="1" width="9.140625" style="131"/>
+    <col min="2" max="2" width="70.42578125" style="131" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="131" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="132" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="131" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="131" customWidth="1"/>
+    <col min="7" max="7" width="13" style="131" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="131" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="131" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="131" customWidth="1"/>
+    <col min="12" max="39" width="9.140625" style="131" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="130" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="134" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="135" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="137" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="134" t="s">
+      <c r="C4" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="141">
+        <v>44060</v>
+      </c>
+      <c r="J4" s="141">
+        <v>44072</v>
+      </c>
+      <c r="K4" s="142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="135" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="135" t="s">
+      <c r="C5" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="144"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="141">
+        <v>44060</v>
+      </c>
+      <c r="J5" s="141">
+        <v>44072</v>
+      </c>
+      <c r="K5" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="144"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="141">
+        <v>44074</v>
+      </c>
+      <c r="J6" s="141">
+        <v>44121</v>
+      </c>
+      <c r="K6" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="146" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="147" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="148" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="149" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="135" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="136" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="138" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141" t="s">
+      <c r="C12" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="144"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="142">
-        <v>44060</v>
-      </c>
-      <c r="J4" s="142">
-        <v>44072</v>
-      </c>
-      <c r="K4" s="143">
+      <c r="H12" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="141">
+        <v>44117</v>
+      </c>
+      <c r="J12" s="141">
+        <v>44121</v>
+      </c>
+      <c r="K12" s="145">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="144" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="144"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="142">
-        <v>44060</v>
-      </c>
-      <c r="J5" s="142">
-        <v>44072</v>
-      </c>
-      <c r="K5" s="146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="144" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="142">
-        <v>44074</v>
-      </c>
-      <c r="J6" s="142">
+      <c r="H13" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="141">
+        <v>44117</v>
+      </c>
+      <c r="J13" s="141">
         <v>44121</v>
       </c>
-      <c r="K6" s="146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="147" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="148" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="149" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="149" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="149" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="150" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="144" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="139" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="142">
-        <v>44117</v>
-      </c>
-      <c r="J12" s="142">
-        <v>44121</v>
-      </c>
-      <c r="K12" s="146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="139" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="142">
-        <v>44117</v>
-      </c>
-      <c r="J13" s="142">
-        <v>44121</v>
-      </c>
-      <c r="K13" s="146">
+      <c r="K13" s="145">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="150"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="141">
+        <v>44117</v>
+      </c>
+      <c r="J14" s="141">
+        <v>44121</v>
+      </c>
+      <c r="K14" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C15" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="144"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="139" t="s">
+      <c r="I15" s="141">
+        <v>44117</v>
+      </c>
+      <c r="J15" s="141">
+        <v>44121</v>
+      </c>
+      <c r="K15" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="137" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="140" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="142">
-        <v>44117</v>
-      </c>
-      <c r="J14" s="142">
-        <v>44121</v>
-      </c>
-      <c r="K14" s="146">
+      <c r="H16" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="141">
+        <v>44123</v>
+      </c>
+      <c r="J16" s="141">
+        <v>44142</v>
+      </c>
+      <c r="K16" s="142">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="139" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="144"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139" t="s">
+      <c r="I17" s="141">
+        <v>44123</v>
+      </c>
+      <c r="J17" s="141">
+        <v>44142</v>
+      </c>
+      <c r="K17" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="144"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="142">
-        <v>44117</v>
-      </c>
-      <c r="J15" s="142">
-        <v>44121</v>
-      </c>
-      <c r="K15" s="146">
+      <c r="H18" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="141">
+        <v>44123</v>
+      </c>
+      <c r="J18" s="141">
+        <v>44142</v>
+      </c>
+      <c r="K18" s="145">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="141" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="153" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="153" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="153" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="153" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="154" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="156"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="157">
+        <v>44144</v>
+      </c>
+      <c r="J24" s="157">
+        <v>44149</v>
+      </c>
+      <c r="K24" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141" t="s">
+      <c r="D25" s="156"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="142">
-        <v>44123</v>
-      </c>
-      <c r="J16" s="142">
-        <v>44142</v>
-      </c>
-      <c r="K16" s="143">
+      <c r="H25" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="157">
+        <v>44144</v>
+      </c>
+      <c r="J25" s="157">
+        <v>44149</v>
+      </c>
+      <c r="K25" s="158">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="155" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="156"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="142">
-        <v>44123</v>
-      </c>
-      <c r="J17" s="142">
-        <v>44142</v>
-      </c>
-      <c r="K17" s="146">
+      <c r="H26" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="157">
+        <v>44151</v>
+      </c>
+      <c r="J26" s="159">
+        <v>44156</v>
+      </c>
+      <c r="K26" s="158">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="144" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="155" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="156"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="157">
+        <v>44151</v>
+      </c>
+      <c r="J27" s="159">
+        <v>44156</v>
+      </c>
+      <c r="K27" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="156"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="160">
+        <v>44158</v>
+      </c>
+      <c r="J28" s="160">
+        <v>44163</v>
+      </c>
+      <c r="K28" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="155" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="144"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="141">
+        <v>44165</v>
+      </c>
+      <c r="J29" s="141">
+        <v>44170</v>
+      </c>
+      <c r="K29" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="146" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="161" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="161" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="161" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="161" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="161" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="161" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="163" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="164"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="165"/>
+      <c r="I35" s="157">
+        <v>44235</v>
+      </c>
+      <c r="J35" s="166">
+        <v>44244</v>
+      </c>
+      <c r="K35" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="168" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="169" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="170"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="171"/>
+      <c r="I36" s="172">
+        <v>44235</v>
+      </c>
+      <c r="J36" s="172">
+        <v>44244</v>
+      </c>
+      <c r="K36" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="164"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="165"/>
+      <c r="I37" s="157">
+        <v>44273</v>
+      </c>
+      <c r="J37" s="166">
+        <v>44254</v>
+      </c>
+      <c r="K37" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="168" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="169" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="170"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="171"/>
+      <c r="I38" s="172">
+        <v>44273</v>
+      </c>
+      <c r="J38" s="172">
+        <v>44254</v>
+      </c>
+      <c r="K38" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="164"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="165"/>
+      <c r="I39" s="157">
+        <v>44256</v>
+      </c>
+      <c r="J39" s="166">
+        <v>44261</v>
+      </c>
+      <c r="K39" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="168" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="170"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="171"/>
+      <c r="I40" s="172">
+        <v>44263</v>
+      </c>
+      <c r="J40" s="172">
+        <v>44268</v>
+      </c>
+      <c r="K40" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="164"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="165"/>
+      <c r="I41" s="157">
+        <v>44270</v>
+      </c>
+      <c r="J41" s="166">
+        <v>44275</v>
+      </c>
+      <c r="K41" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="174" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="168" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="170"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="171"/>
+      <c r="I42" s="172">
+        <v>44278</v>
+      </c>
+      <c r="J42" s="172">
+        <v>44296</v>
+      </c>
+      <c r="K42" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="164"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="165"/>
+      <c r="I43" s="157">
+        <v>44278</v>
+      </c>
+      <c r="J43" s="166">
+        <v>44296</v>
+      </c>
+      <c r="K43" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="168" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="169" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="170"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="171"/>
+      <c r="I44" s="172">
+        <v>44298</v>
+      </c>
+      <c r="J44" s="172">
+        <v>44303</v>
+      </c>
+      <c r="K44" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="162" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="163" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="164"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="165"/>
+      <c r="I45" s="157">
+        <v>44298</v>
+      </c>
+      <c r="J45" s="166">
+        <v>44303</v>
+      </c>
+      <c r="K45" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="168" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="169" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="170"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="171"/>
+      <c r="I46" s="172">
+        <v>44298</v>
+      </c>
+      <c r="J46" s="172">
+        <v>44303</v>
+      </c>
+      <c r="K46" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="163"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="163" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="165"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="173"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C48" s="169"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="171"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="172"/>
+      <c r="K48" s="173"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="163" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="164"/>
+      <c r="E49" s="163"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="165"/>
+      <c r="I49" s="157">
+        <v>44305</v>
+      </c>
+      <c r="J49" s="166">
+        <v>44310</v>
+      </c>
+      <c r="K49" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139" t="s">
+      <c r="D50" s="170"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="142">
-        <v>44123</v>
-      </c>
-      <c r="J18" s="142">
-        <v>44142</v>
-      </c>
-      <c r="K18" s="146">
+      <c r="H50" s="171"/>
+      <c r="I50" s="172">
+        <v>44305</v>
+      </c>
+      <c r="J50" s="172">
+        <v>44310</v>
+      </c>
+      <c r="K50" s="173">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="131" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="153" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="154" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="154" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="154" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="154" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="154" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="154" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="155" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="156" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="156" t="s">
+    <row r="51" spans="2:11" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="164"/>
+      <c r="E51" s="163"/>
+      <c r="F51" s="163"/>
+      <c r="G51" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="165"/>
+      <c r="I51" s="157">
+        <v>44305</v>
+      </c>
+      <c r="J51" s="166">
+        <v>44310</v>
+      </c>
+      <c r="K51" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="157"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156" t="s">
+      <c r="D52" s="170"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="158">
-        <v>44144</v>
-      </c>
-      <c r="J24" s="158">
-        <v>44149</v>
-      </c>
-      <c r="K24" s="159">
+      <c r="H52" s="171"/>
+      <c r="I52" s="172">
+        <v>44291</v>
+      </c>
+      <c r="J52" s="172">
+        <v>44303</v>
+      </c>
+      <c r="K52" s="173">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="156" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="157"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="162" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="164"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="158">
-        <v>44144</v>
-      </c>
-      <c r="J25" s="158">
-        <v>44149</v>
-      </c>
-      <c r="K25" s="159">
+      <c r="H53" s="165"/>
+      <c r="I53" s="157">
+        <v>44305</v>
+      </c>
+      <c r="J53" s="166">
+        <v>44324</v>
+      </c>
+      <c r="K53" s="173">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="156" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="157"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="158">
-        <v>44151</v>
-      </c>
-      <c r="J26" s="160">
-        <v>44156</v>
-      </c>
-      <c r="K26" s="159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="156" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="157"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="158">
-        <v>44151</v>
-      </c>
-      <c r="J27" s="160">
-        <v>44156</v>
-      </c>
-      <c r="K27" s="159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="156" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="161">
-        <v>44158</v>
-      </c>
-      <c r="J28" s="161">
-        <v>44163</v>
-      </c>
-      <c r="K28" s="159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="144" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="156" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="145"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="142">
-        <v>44165</v>
-      </c>
-      <c r="J29" s="142">
-        <v>44170</v>
-      </c>
-      <c r="K29" s="146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="147" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="162" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="162" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="162" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="162" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="162" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="162" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="164" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="165"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="166"/>
-      <c r="I35" s="158">
-        <v>44235</v>
-      </c>
-      <c r="J35" s="167">
-        <v>44244</v>
-      </c>
-      <c r="K35" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="169" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="170" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="171"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="172"/>
-      <c r="I36" s="173">
-        <v>44235</v>
-      </c>
-      <c r="J36" s="173">
-        <v>44244</v>
-      </c>
-      <c r="K36" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="163" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="164" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="165"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="166"/>
-      <c r="I37" s="158">
-        <v>44273</v>
-      </c>
-      <c r="J37" s="167">
-        <v>44254</v>
-      </c>
-      <c r="K37" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="169" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="170" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="171"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="172"/>
-      <c r="I38" s="173">
-        <v>44273</v>
-      </c>
-      <c r="J38" s="173">
-        <v>44254</v>
-      </c>
-      <c r="K38" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="163" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="164" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="165"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="166"/>
-      <c r="I39" s="158">
-        <v>44256</v>
-      </c>
-      <c r="J39" s="167">
-        <v>44261</v>
-      </c>
-      <c r="K39" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="169" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="170" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="171"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="172"/>
-      <c r="I40" s="173">
-        <v>44263</v>
-      </c>
-      <c r="J40" s="173">
-        <v>44268</v>
-      </c>
-      <c r="K40" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="163" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="164" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="165"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="166"/>
-      <c r="I41" s="158">
-        <v>44270</v>
-      </c>
-      <c r="J41" s="167">
-        <v>44275</v>
-      </c>
-      <c r="K41" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" s="175" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="169" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="170" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="171"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="172"/>
-      <c r="I42" s="173">
-        <v>44278</v>
-      </c>
-      <c r="J42" s="173">
-        <v>44296</v>
-      </c>
-      <c r="K42" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="164" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="165"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="166"/>
-      <c r="I43" s="158">
-        <v>44278</v>
-      </c>
-      <c r="J43" s="167">
-        <v>44296</v>
-      </c>
-      <c r="K43" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="169" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="170" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="171"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="172"/>
-      <c r="I44" s="173">
-        <v>44298</v>
-      </c>
-      <c r="J44" s="173">
-        <v>44303</v>
-      </c>
-      <c r="K44" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="164" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="165"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="166"/>
-      <c r="I45" s="158">
-        <v>44298</v>
-      </c>
-      <c r="J45" s="167">
-        <v>44303</v>
-      </c>
-      <c r="K45" s="168">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="169" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="170" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="171"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="172"/>
-      <c r="I46" s="173">
-        <v>44298</v>
-      </c>
-      <c r="J46" s="173">
-        <v>44303</v>
-      </c>
-      <c r="K46" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="164"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164" t="s">
-        <v>77</v>
-      </c>
-      <c r="H47" s="166"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="169" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="170"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="172"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="173"/>
-      <c r="K48" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="163" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="164" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="165"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="166"/>
-      <c r="I49" s="158">
-        <v>44305</v>
-      </c>
-      <c r="J49" s="167">
-        <v>44310</v>
-      </c>
-      <c r="K49" s="168">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="169" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="170" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="171"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="172"/>
-      <c r="I50" s="173">
-        <v>44305</v>
-      </c>
-      <c r="J50" s="173">
-        <v>44310</v>
-      </c>
-      <c r="K50" s="174">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="163" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="164" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="165"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="164"/>
-      <c r="G51" s="164" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="166"/>
-      <c r="I51" s="158">
-        <v>44305</v>
-      </c>
-      <c r="J51" s="167">
-        <v>44310</v>
-      </c>
-      <c r="K51" s="168">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="169" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="170" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="171"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="172"/>
-      <c r="I52" s="173">
-        <v>44291</v>
-      </c>
-      <c r="J52" s="173">
-        <v>44303</v>
-      </c>
-      <c r="K52" s="174">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="163" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="164" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="165"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="166"/>
-      <c r="I53" s="158">
-        <v>44305</v>
-      </c>
-      <c r="J53" s="167">
-        <v>44324</v>
-      </c>
-      <c r="K53" s="168">
-        <v>0</v>
-      </c>
-    </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="177"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="176"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="176"/>
+      <c r="B54" s="175"/>
+      <c r="C54" s="175"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="177"/>
+      <c r="K54" s="175"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -22052,7 +22055,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="207" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="207"/>
@@ -22066,19 +22069,19 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="107" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>90</v>
       </c>
       <c r="G5" s="109"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="110">
         <v>44144</v>
@@ -22089,65 +22092,65 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="102" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>52</v>
+      <c r="B10" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>51</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="113" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>53</v>
+      <c r="B11" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>54</v>
+      <c r="B12" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>53</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>52</v>
+      <c r="B13" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="112" t="s">
+        <v>51</v>
       </c>
       <c r="D13" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="113" t="s">
-        <v>53</v>
+      <c r="B14" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="94" t="s">
         <v>33</v>
@@ -22155,10 +22158,10 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="113" t="s">
-        <v>54</v>
+        <v>124</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="94" t="s">
         <v>33</v>
@@ -22196,160 +22199,160 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="125">
+        <v>52</v>
+      </c>
+      <c r="J35" s="124">
         <v>44272</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="125">
+        <v>130</v>
+      </c>
+      <c r="J36" s="124">
         <v>44272</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="125">
+        <v>114</v>
+      </c>
+      <c r="I37" s="124">
         <v>44273</v>
       </c>
-      <c r="J37" s="125">
+      <c r="J37" s="124">
         <v>44282</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" s="125">
+        <v>131</v>
+      </c>
+      <c r="I38" s="124">
         <v>44273</v>
       </c>
-      <c r="J38" s="125">
+      <c r="J38" s="124">
         <v>44282</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="125">
+      <c r="C39" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="124">
         <v>44256</v>
       </c>
-      <c r="J39" s="125">
+      <c r="J39" s="124">
         <v>44261</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="125">
+      <c r="C40" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="124">
         <v>44263</v>
       </c>
-      <c r="J40" s="125">
+      <c r="J40" s="124">
         <v>44268</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="125">
+      <c r="C41" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="124">
         <v>44270</v>
       </c>
-      <c r="J41" s="125">
+      <c r="J41" s="124">
         <v>44282</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="125">
+      <c r="C42" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="124">
         <v>44270</v>
       </c>
-      <c r="J42" s="125">
+      <c r="J42" s="124">
         <v>44282</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="125">
+      <c r="C43" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="124">
         <v>44291</v>
       </c>
-      <c r="J43" s="125">
+      <c r="J43" s="124">
         <v>44296</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="112"/>
-      <c r="J44" s="125">
+        <v>51</v>
+      </c>
+      <c r="G44" s="111"/>
+      <c r="J44" s="124">
         <v>44303</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="125">
+        <v>52</v>
+      </c>
+      <c r="J45" s="124">
         <v>44303</v>
       </c>
-      <c r="K45" s="123">
+      <c r="K45" s="122">
         <v>0.9</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="112"/>
-      <c r="J46" s="125">
+        <v>53</v>
+      </c>
+      <c r="G46" s="111"/>
+      <c r="J46" s="124">
         <v>44303</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="123">
+      <c r="K49" s="122">
         <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="123">
+      <c r="K50" s="122">
         <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="123">
+      <c r="K51" s="122">
         <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I52" s="125">
+      <c r="I52" s="124">
         <v>44291</v>
       </c>
-      <c r="J52" s="125">
+      <c r="J52" s="124">
         <v>44303</v>
       </c>
-      <c r="K52" s="123">
+      <c r="K52" s="122">
         <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I53" s="125">
+      <c r="I53" s="124">
         <v>44305</v>
       </c>
-      <c r="J53" s="125">
+      <c r="J53" s="124">
         <v>44324</v>
       </c>
-      <c r="K53" s="123">
+      <c r="K53" s="122">
         <v>0</v>
       </c>
     </row>
@@ -22387,7 +22390,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="207" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="207"/>
@@ -22401,20 +22404,20 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="107" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="114">
+        <v>98</v>
+      </c>
+      <c r="C6" s="113">
         <v>44235</v>
       </c>
       <c r="D6" s="110">
@@ -22423,54 +22426,54 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="102" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>53</v>
+      <c r="B10" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>131</v>
+      <c r="B11" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>130</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>115</v>
+      <c r="B12" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>114</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>132</v>
+      <c r="B13" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="112" t="s">
+        <v>131</v>
       </c>
       <c r="D13" s="94" t="s">
         <v>33</v>
@@ -22510,7 +22513,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="207" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="207"/>
@@ -22524,18 +22527,18 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="107" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="110">
         <v>44256</v>
@@ -22546,43 +22549,43 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="102" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="127" t="s">
-        <v>74</v>
+      <c r="B10" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>73</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="127" t="s">
-        <v>74</v>
+      <c r="B11" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="127" t="s">
-        <v>74</v>
+      <c r="B12" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>33</v>
@@ -22610,7 +22613,7 @@
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22622,7 +22625,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="207" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="207"/>
@@ -22636,18 +22639,18 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="107" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="110">
         <v>44278</v>
@@ -22658,32 +22661,32 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="102" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="127" t="s">
-        <v>74</v>
+      <c r="B10" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>73</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="127" t="s">
-        <v>74</v>
+      <c r="B11" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
@@ -22691,10 +22694,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>33</v>
@@ -22702,10 +22705,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="94" t="s">
         <v>33</v>
@@ -22713,24 +22716,24 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="129" t="s">
-        <v>107</v>
+      <c r="B15" s="128" t="s">
+        <v>106</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -22754,8 +22757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22767,7 +22770,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="207" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="207"/>
@@ -22781,18 +22784,18 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="107" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="110">
         <v>44298</v>
@@ -22803,123 +22806,123 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="102" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>52</v>
+      <c r="B10" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>51</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>53</v>
+      <c r="B11" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>54</v>
+      <c r="B12" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>53</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C14" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="94" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="113" t="s">
+      <c r="D14" s="94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="113" t="s">
-        <v>115</v>
+      <c r="C15" s="112" t="s">
+        <v>114</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="130" t="s">
-        <v>107</v>
+      <c r="B19" s="129" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -22943,20 +22946,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="207" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="207"/>
@@ -22970,18 +22973,18 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="107" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="110">
         <v>44312</v>
@@ -22992,61 +22995,61 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="102" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>115</v>
+      <c r="B10" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>114</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>135</v>
+      <c r="C12" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="94"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="94"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="113"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="94"/>
     </row>
   </sheetData>
